--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="693">
   <si>
     <t>Артикул</t>
   </si>
@@ -46,79 +46,58 @@
     <t>Штрихкод</t>
   </si>
   <si>
-    <t xml:space="preserve">ВВП ACN КОТ GRASSLANDS Птица 0.34кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN КОТ HOMESTEAD HARVEST Кур-Инд 0.34кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN КОТ BOUNTIFUL CATCH Рыба 4.5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN КОТ INDOOR ENTREE Птица Рыба 0.34кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ GRASSLANDS Ягненок 11.4кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ WILD COAST Рыба 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ WILD COAST Рыба 9.7кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ GRASS-FED LAMB Ягненок 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ PUPPY SMALL BREED Цып-Инд 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ PUPPY PUPPY JUNIOR Цып-Инд 11.4кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ PUPPY PUPPY JUNIOR Цып-Инд 0.34кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ACN СОБ SENIOR DOG Цып-Инд-Сельдь 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК ADV КОТ ВЗР VetDiet Urinary 0.4кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК ADV КОТ ВЗР VetDiet Urinary 3кг </t>
+    <t xml:space="preserve">ВВП ACN КОТ PACIFICA CAT Рыба 0.34кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК ADV КОТ ВЗР VetDiet Antistress 7.5кг </t>
   </si>
   <si>
     <t xml:space="preserve">АЛПК ADV КОТ ВЗР VetDiet Urinary 8кг </t>
   </si>
   <si>
-    <t xml:space="preserve">АЛПК ADV СОБ ВЗР ВСЕ VetDiet Renal 3кг </t>
+    <t xml:space="preserve">АЛПК ADV КОТ ВЗР VetDiet RENAL 1.5кг </t>
   </si>
   <si>
     <t xml:space="preserve">АЛПК ADV СОБ ВЗР ВСЕ VetDiet Urinary 3кг </t>
   </si>
   <si>
-    <t xml:space="preserve">АЛПК ADV КОТ ВЗР Курица Рис 3кг </t>
+    <t xml:space="preserve">АЛПК ADV СОБ ВЗР ЙОРК Курица Рис 1.5кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК ADV КОТ ВЗР Курица Рис 6кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК ADV КОТ ВЗР СТДЗ Индейка 3кг </t>
   </si>
   <si>
     <t xml:space="preserve">АЛПК ADV КОТ ВЗР СТДЗ Лосось 1.5кг </t>
   </si>
   <si>
+    <t xml:space="preserve">АЛПК ADV СОБ ВЗР МЕЛК Курица Рис 0.7кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК ADV СОБ ВЗР МЕЛК Sens Лосось Рис 1.5кг </t>
+  </si>
+  <si>
     <t xml:space="preserve">АЛПК ADV СОБ ВЗР ВСЕ SENS Лосось Рис 12кг </t>
   </si>
   <si>
+    <t xml:space="preserve">АЛПК ADV СОБ МОЛ ВСЕ SENS Лосось Рис 12кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТИАН AMBR КОТ ВЗР СТДЗ Инд Сельдь 5кг </t>
+  </si>
+  <si>
     <t xml:space="preserve">ТИАН AMBR КОТ ВЗР СТДЗ Лосось Кур 5кг </t>
   </si>
   <si>
-    <t xml:space="preserve">ТИАН AMBR КОТ ВЗР СТДЗ Утка Инд 5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТИАН AMBR КОТ ВЗР СТДЗ Форель Крол 5кг </t>
-  </si>
-  <si>
     <t xml:space="preserve">УНК Belcando СОБ ВЗР Adult Active 12.5кг </t>
   </si>
   <si>
-    <t xml:space="preserve">УНК Belcando СОБ ВЗР GF Beef 1кг </t>
+    <t xml:space="preserve">УНК Belcando СОБ ВЗР Adult Dinner 12.5кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УНК Belcando СОБ ВЗР Mastercraft Salmon 2.2кг </t>
   </si>
   <si>
     <t>УНК Belcando СОБ ВЗР Baseline говядина 400г</t>
@@ -130,7 +109,7 @@
     <t>УНК Belcando СОБ ВЗР Baseline индейка 400г</t>
   </si>
   <si>
-    <t>УНК Belcando СОБ ВЗР индейка рис кабачок 400г0</t>
+    <t>УНК Belcando СОБ ВЗР Baseline курица 400г</t>
   </si>
   <si>
     <t>УНК Belcando СОБ ВЗР индейка рис кабачок 400г</t>
@@ -139,13 +118,28 @@
     <t>УНК Belcando СОБ ВЗР говядина карт горох 400г</t>
   </si>
   <si>
-    <t>УНК Belcando СОБ ВЗР ягненок рис помидоры 400г</t>
-  </si>
-  <si>
     <t xml:space="preserve">УНК Belcando СОБ ВЗР Finest GF Lamb 1кг </t>
   </si>
   <si>
-    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Кролик Овощи 100г </t>
+    <t xml:space="preserve">УНК Belcando СОБ ВЗР Finest Salmon 1кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР СТДЗ Turkey 400г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN КОТ МОЛ Kitten 2кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Beef 400г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Salmon Shrimps 415г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг </t>
   </si>
   <si>
     <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг </t>
@@ -160,130 +154,142 @@
     <t xml:space="preserve">ЗООМ GMN КОТ ПОЖ Индейка 100г </t>
   </si>
   <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ ПОЖ ВСЕ Turkey 100г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ Beef 150г </t>
+  </si>
+  <si>
     <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ Tuna Salmon 415г </t>
   </si>
   <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР СР Beef Liver 415г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР КР CHICKEN 20кг </t>
+  </si>
+  <si>
     <t xml:space="preserve">ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг </t>
   </si>
   <si>
-    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ Regular 20кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 3кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">УНК LEONARDO КОТ ВЗР GF Salmon 1.8кг </t>
+    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ МОЛ Chicken Turk 415г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗООМ GMN СОБ МОЛ ВСЕ Puppy CH RICE 3кг </t>
   </si>
   <si>
     <t xml:space="preserve">УНК LEONARDO КОТ ВЗР GF Salmon 7.5кг </t>
   </si>
   <si>
-    <t xml:space="preserve">УНК LEONARDO КОТ ВЗР Adult  Lamb 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ONV КОТ ВЗР LIGHT Курица Рис 8кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ONV КОТ ПОЖ MATURE Курица Рис 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ONV КОТ ВЗР Exquisite Курица Рис 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ORJ КОТ KITTEN 0.34кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ORJ КОТ ORIGINAL CAT Цыпленок Индейка 0.34кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВВП ORJ СОБ PUPPY SMALL BREED Птица рыба 1.8кг </t>
+    <t xml:space="preserve">УНК LEONARDO КОТ ВЗР GF Maxi Croc 7.5кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УНК LEONARDO КОТ ВЗР Complete 7.5кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УНК LEONARDO КОТ ВЗР СТДЗ Light 7.5кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ МОЛ индейка рис 1.5кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON КОТ ВЗР СТРЗ индейка рис 10кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВВП ONV КОТ ВЗР Курица Рис 2кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВВП ONV КОТ ВЗР LIGHT Курица Рис 2кг </t>
   </si>
   <si>
     <t xml:space="preserve">OWNAT СОБ MINI GF Lamb 3KG </t>
   </si>
   <si>
-    <t xml:space="preserve">OWNAT СОБ MINI ADULT Курица 4KG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР МЕЛК GF Форель 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР Говядина 1.5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР Курица 10кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР Тунец 1.5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 1.5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 10кг </t>
+    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР Курица 3кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР GF SENS Форель 1.5кг </t>
   </si>
   <si>
     <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Белое Мясо 0.3кг </t>
   </si>
   <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Лосось 3кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Утка 0.3кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Форель 1.5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР МЕЛК Гов Юкка Спир 2кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР СР КР NG Ягненок 12кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР СР КР NG Свинина 12кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР СР Курица Цик Спир 12кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWNAT СОБ GR-FR LAMB (серо-голубой) 14KG </t>
+    <t xml:space="preserve">АЛПК TRNR КОТ ВЗР СТЗД Форель 0.3кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР МЕЛК NG Кролик 2кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР МЕЛК NG Лосось Юкк 7кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР МЕЛК NG Ягненок 0.8кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК TRNR СОБ ВЗР СР КР NG Кролик 12кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОПИЯ OWNAT СОБ GR-FR LAMB (серо-голубой) 14KG </t>
   </si>
   <si>
     <t xml:space="preserve">OWNAT СОБ GR-FR LAMB (серо-голубой) 3KG </t>
   </si>
   <si>
+    <t xml:space="preserve">ТЕТКОМ Наполнитель LINDOCAT PRSTG 5л 4.3кг </t>
+  </si>
+  <si>
     <t>ANMD СОБ IP ВЗР REN RIND 400G</t>
   </si>
   <si>
+    <t>ANMD СОБ IP ВЗР REN HUHN 150G</t>
+  </si>
+  <si>
     <t>ANMD КОТ VF МОЛ  BABY-PATE 100G</t>
   </si>
   <si>
     <t>ANMD КОТ VF МОЛ RAFFINESSE 2в1 680g</t>
   </si>
   <si>
-    <t>ANMD КОТ SP ВЗР PUTE 200G</t>
-  </si>
-  <si>
     <t>ANMD КОТ CA ВЗР RIND-HERZ 400G</t>
   </si>
   <si>
     <t>ANMD КОТ CA ВЗР RIND-PUTE-SHRIMPS 800G</t>
   </si>
   <si>
+    <t>ANMD КОТ CA ВЗР PUTE-LAMM 400G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ CA ВЗР HUHN-LACHS 400G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ CA ВЗР RIND 200G</t>
+  </si>
+  <si>
     <t>ANMD КОТ CA ВЗР RIND 400G</t>
   </si>
   <si>
-    <t>ANMD КОТ VF ПОЖ LAMM 100G</t>
-  </si>
-  <si>
-    <t>ANMD КОТ VF ВЗР MULTIFLEISCH-COCKTAIL 100G</t>
-  </si>
-  <si>
-    <t>ANMD КОТ VF ВЗР PANNA COTTA LUCHS 100G</t>
+    <t>ANMD КОТ CA ВЗР PUTE-HUHNCHENLEBER 400G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ VF ВЗР RAFFINESSE 4в1 680g</t>
+  </si>
+  <si>
+    <t>ANMD КОТ VF ПОЖ RIND 100G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ VF MM ВЗР PURE TURKEY 100G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ VF ВЗР PUTE-KANINCHEN 100G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ VF ВЗР PUTE-MILCHKERN 100G</t>
   </si>
   <si>
     <t>ANMD КОТ VF ВЗР PUTE-RINDFLEISCH-KAROTTEN 100G</t>
@@ -292,13 +298,22 @@
     <t>ANMD КОТ VF ВЗР PUTE-HUHNCHENBRUST 100G</t>
   </si>
   <si>
-    <t>ANMD КОТ VF ВЗР HUHN-KAROTTENSAUCE 100G</t>
+    <t>ANMD КОТ VF ВЗР HUHN-MILCHKERN 100G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ VF ВЗР PUTENHERZEN 100G</t>
+  </si>
+  <si>
+    <t>ANMD СОБ GC ВЗР LACHS SPINAT 400G</t>
+  </si>
+  <si>
+    <t>ANMD СОБ IP ВЗР REN HUHN 400G</t>
   </si>
   <si>
     <t>ANMD СОБ GC ВЗР RIND 400G</t>
   </si>
   <si>
-    <t>УНК LEONARDO КОТ ВЗР индейка 85г</t>
+    <t>УНК LEONARDO КОТ ВЗР говядина 200г</t>
   </si>
   <si>
     <t>УНК LEONARDO КОТ ВЗР курица 200г</t>
@@ -307,34 +322,67 @@
     <t>УНК LEONARDO КОТ ВЗР печень 200г</t>
   </si>
   <si>
+    <t>УНК LEONARDO КОТ ВЗР рыба 200г</t>
+  </si>
+  <si>
     <t>УНК LEONARDO КОТ ВЗР утка 200г</t>
   </si>
   <si>
-    <t>ANMD КОТ IP ВЗР DIAB PUTENHERZEN 100G</t>
-  </si>
-  <si>
-    <t>ANMD КОТ IP ВЗР URIN KALB 100G</t>
-  </si>
-  <si>
-    <t>ANMD КОТ IP ВЗР URIN ENTE 100G</t>
+    <t>ANMD КОТ IP ВЗР SENS PUTE 100G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNAT КОТ-МОЛ CLASSIC KITTEN(голубой) 1.5KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNAT КОТ-МОЛ CLASSIC KITTEN(голубой) 4KG </t>
+  </si>
+  <si>
+    <t>ANMD КОТ IP ВЗР DIAB HUHN 85G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ IP ВЗР DIAB LACHS 100G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ IP ВЗР REN KALB 100G</t>
+  </si>
+  <si>
+    <t>ANMD КОТ IP ВЗР REN ENTE 100G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNAT КОТ CLASSIC DAILY CARE (желтый) 1.5KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNAT КОТ CLASSIC DAILY CARE (желтый) 15KG </t>
   </si>
   <si>
     <t xml:space="preserve">OWNAT КОТ CLASSIC DAILY CARE (желтый) 4KG </t>
   </si>
   <si>
+    <t xml:space="preserve">АЛПК ПТИЦ RIO Крупн попуг 1кг </t>
+  </si>
+  <si>
     <t xml:space="preserve">УНК Belcando СОБ ПОЖ Senior 12.5кг </t>
   </si>
   <si>
-    <t xml:space="preserve">АЛПК ПТИЦ RIO Средн попуг линька 0.5кг </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWNAT СОБ CLASSIC JUNIOR (голубой) 12KG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУТАГРО Микс Линк 250мл </t>
-  </si>
-  <si>
-    <t>ТУТАГРО Мультибакт Микс</t>
+    <t xml:space="preserve">АЛПК ПТИЦ RIO Средн попуг 1кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК ПТИЦ RIO Средн попуг линька 1кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХНТР MamyNat СОБ ВЗР ВСЕ Adult Standart 20кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХНТР Vivere СОБ ВЗР МЕЛК Duck 3кг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛПК ПТИЦ Лаком Волн палочки фрукт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 5 150мл </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРБТ NECON МАСЛО RICETTA 5 500мл </t>
   </si>
   <si>
     <t xml:space="preserve">АЛПК GimCat Паста МультиВитамин 20г </t>
@@ -352,16 +400,19 @@
     <t xml:space="preserve">OWNAT СОБ CLASSIC COMPLET (красный) 12KG </t>
   </si>
   <si>
+    <t xml:space="preserve">OWNAT СОБ CLASSIC COMPLET (красный) 20KG </t>
+  </si>
+  <si>
     <t xml:space="preserve">OWNAT СОБ CLASSIC LAMB&amp;RICE (желтый) 12KG </t>
   </si>
   <si>
     <t xml:space="preserve">OWNAT СОБ CLASSIC LAMB&amp;RICE (желтый) 20KG </t>
   </si>
   <si>
-    <t xml:space="preserve">OWNAT СОБ CLASSIC Утка (зеленый) 12KG </t>
-  </si>
-  <si>
-    <t>ТРБТ ГРЫЗ NATURE SNACK CEREALS 0.5KG</t>
+    <t xml:space="preserve">OWNAT СОБ CLASSIC LAMB&amp;RICE (желтый) 4KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWNAT СОБ CLASSIC Утка (зеленый) 4KG </t>
   </si>
   <si>
     <t xml:space="preserve">OWNAT КОТ CLASSIC STRLZD (розовый) 1.5KG </t>
@@ -373,9 +424,6 @@
     <t xml:space="preserve">OWNAT КОТ CLASSIC STRLZD (розовый) 4KG </t>
   </si>
   <si>
-    <t xml:space="preserve">КОПИЯ OWNAT КОТ CLASSIC STRLZD (розовый) 4KG </t>
-  </si>
-  <si>
     <t xml:space="preserve">OWNAT КОТ GR-FR STRLZD (серо-розовый) 1KG </t>
   </si>
   <si>
@@ -388,82 +436,67 @@
     <t xml:space="preserve">OWNAT КОТ GR-FR STRLZD FISH (серо-морской) 1KG </t>
   </si>
   <si>
+    <t xml:space="preserve">OWNAT КОТ GR-FR STRLZD FISH (серо-морской) 3KG </t>
+  </si>
+  <si>
     <t xml:space="preserve">OWNAT КОТ GR-FR STRLZD FISH (серо-морской) 8KG </t>
   </si>
   <si>
-    <t>2175 АКАНА ГРАССЛЭНДС КЭТ/корм для кошек с птицей/ 0,340 кг</t>
-  </si>
-  <si>
-    <t>2184 АКАНА Хоумстэдж Харвест КЭТ/низкозерновой корм для кошек с курицей и индейкой / 0,340 кг</t>
-  </si>
-  <si>
-    <t>2180 АКАНА БАУНТИФУЛ КЭТЧ КЭТ/низкозерновой корм для взрослых кошек с рыбой / 4.5 кг</t>
-  </si>
-  <si>
-    <t>2187 АКАНА ИНДОР КЭТ/низкозерновой корм для взрослых стерилизованных кошек с птицей и рыбой/ 0,340кг</t>
-  </si>
-  <si>
-    <t>2108 АКАНА ГРАССЛЭНДС ДОГ/беззерн. корм для собак и щенков с ягненком/ 11,4кг</t>
-  </si>
-  <si>
-    <t>2071 АКАНА ДОГ ВАЙЛД КОУСТ/рыба/низкозерновой корм для собак 2кг</t>
-  </si>
-  <si>
-    <t>2220 АКАНА ВАЙЛД КОУСТ/корм для собак с рыбой/CLASSICS/ 9,7 кг</t>
-  </si>
-  <si>
-    <t>2122 АКАНА ЯГНЕНОК/корм для собак всех пород и возрастов/ 2 кг</t>
-  </si>
-  <si>
-    <t>2081 АКАНА ПАППИ СМОЛ БРИД/корм для щенков мелких пород/ 2 кг</t>
-  </si>
-  <si>
-    <t>2078 АКАНА ПАППИ ЭНД ЮНИОР /корм для щенков/ (70/30) 11.4 кг</t>
-  </si>
-  <si>
-    <t>2075 АКАНА ПАППИ ЭНД ЮНИОР /корм для щенков/ HERITAGE (70/30) 0,34 кг</t>
-  </si>
-  <si>
-    <t>2102 АКАНА СЕНЬОР ДОГ/корм для собак старше 7 лет/ HERITAGE (65/35) 2 кг</t>
-  </si>
-  <si>
-    <t>Advance VetDiet 0,4кг URINARY Сухой корм для кошек при мочекаменной болезни, курица</t>
-  </si>
-  <si>
-    <t>Advance VetDiet 3,0кг URINARY Сухой корм для кошек при мочекаменной болезни, курица</t>
+    <t xml:space="preserve">АЛПК ПТИЦ RIO Средн Крупн яичный 0.25кг </t>
+  </si>
+  <si>
+    <t>2172 АКАНА ПАСИФИКА КЭТ/беззерновой корм для кошек с рыбой/ 0,340 кг</t>
+  </si>
+  <si>
+    <t>Advance VetDiet 7,5кг URINARY STRESS Сухой корм для кошек при мочек. болезн. вызванных стрессом</t>
   </si>
   <si>
     <t>Advance VetDiet 8,0кг URINARY Сухой корм для кошек при мочекаменной болезни</t>
   </si>
   <si>
-    <t>Advance VetDiet 3,0кг RENAL Сухой корм для собак для поддержки почек</t>
+    <t>Advance VetDiet 1,5кг RENAL Сухой корм для кошек при патологии почек</t>
   </si>
   <si>
     <t>Advance VetDiet 3,0кг URINARY Сухой корм для собак с проблемным мочеиспусканием.</t>
   </si>
   <si>
-    <t>Advance 3,0кг Adult Сухой корм для взрослых кошек с курицей и рисом</t>
+    <t>Advance 1,5кг Yorkshire Terrier Сухой корм для йоркширских терьеров, курица и рис</t>
+  </si>
+  <si>
+    <t>Advance 6,0кг Adult Сухой корм для взрослых кошек с курицей и рисом</t>
+  </si>
+  <si>
+    <t>Advance 3,0кг Сухой корм для стерилизованных кошек и кастрированных котов с индейкой</t>
   </si>
   <si>
     <t>Advance 1,5 кг Sterilized Sensitive Сухой корм для стерилизованных кошек с чувств. пищевар. (лосось)</t>
   </si>
   <si>
+    <t>Advance 0,7кг Mini Adult Сухой корм для взрослых собак малых пород от 8 месяцев с курицей и рисом</t>
+  </si>
+  <si>
+    <t>Advance 1,5кг Mini Sensitiv Сухой корм для собак мал пор с чувствительным пищеварением, лосось и рис</t>
+  </si>
+  <si>
     <t>Advance 12кг Sensitive Сухой корм для собак с чувствительным пищеварением, лосось и рис</t>
   </si>
   <si>
+    <t>Advance 12 кг Puppy Sensitive Сухой корм для щенков с чувствительным пищеварением, лосось и рис</t>
+  </si>
+  <si>
+    <t>Корм сухой холистик "AMBROSIA GRAIN FREE" для стерилизованных кошек, индейка, сельдь, 5кг</t>
+  </si>
+  <si>
     <t>Корм сухой холистик "AMBROSIA GRAIN FREE" для стерилизованных кошек, лосось, курица, 5кг</t>
   </si>
   <si>
-    <t>Корм сухой холистик "AMBROSIA GRAIN FREE" для стерилизованных кошек, свежие утка и индейка, 5 кг</t>
-  </si>
-  <si>
-    <t>Корм сухой холистик "AMBROSIA GRAIN FREE" для стерилизованных кошек, свежая форель и кролик, 5 кг</t>
-  </si>
-  <si>
-    <t>ВВЕСТИ УНК Belcando СОБ ВЗР Adult Active 12.5кг 1шт</t>
-  </si>
-  <si>
-    <t>Belcando Adult GF Beef 1kg (сухой корм для собак говядина)</t>
+    <t>Belcando Adult Active 12,5kg (сухой корм для активных собак)</t>
+  </si>
+  <si>
+    <t>Belcando Adult Dinner 12.5kg (сухой корм для собак)</t>
+  </si>
+  <si>
+    <t>Mastercraft Fresh Salmon 2,2kg (сухой корм для собак с лососем)</t>
   </si>
   <si>
     <t>Belcando/Baseline Rind 400g (консервы для собак говядина)</t>
@@ -475,19 +508,37 @@
     <t>Belcando/Baseline Truthahn 400g (консервы для собак индейка)</t>
   </si>
   <si>
+    <t>Belcando/Baseline Huhn 400g (консервы для собак курица)</t>
+  </si>
+  <si>
     <t>Belcando Turkey with rice&amp; courgette 400gi 400g (консервы для собак индейка с рисом и кабачок)</t>
   </si>
   <si>
     <t>Belcando Beef with Potato&amp;Pea 400g (консервы говядина для собак)</t>
   </si>
   <si>
-    <t>Belcando Lamb with Rice&amp;Tomato 400g (консервы ягненок с рисом и помидорами для собак)</t>
-  </si>
-  <si>
     <t>Belcando Finest GF 1kg (сухой корм для маленьких ягненок собак)</t>
   </si>
   <si>
-    <t>wGC P Adult Rabbit/Veg (пауч 100гр) Консерв. корм для взрослых кошек кролик с овощами</t>
+    <t>Belcando Finest GF Salmon 1kg (сухой корм лосось для собак)</t>
+  </si>
+  <si>
+    <t>wGC Adult PATE Sterilized Turkey (400гр) Консерв. корм для стерилизованных кошек паштет с индейкой</t>
+  </si>
+  <si>
+    <t>GC kitten (2кг) Корм для котят</t>
+  </si>
+  <si>
+    <t>wGC Adult PATE Beef (400гр) Консерв. корм для кошек паштет с говядиной</t>
+  </si>
+  <si>
+    <t>wGC ch Adult Salmon/Shrimps (415гр) Консерв. корм для кошек кусочки с лососем и креветками</t>
+  </si>
+  <si>
+    <t>GC Adult Complete CHICKEN/TURKEY (2кг) Корм для взрослых кошек с курицей и индейкой</t>
+  </si>
+  <si>
+    <t>GC URINARY Chicken/Rice (2кг) Корм с цыплёнком и рисом для кошек / профилактика МКБ</t>
   </si>
   <si>
     <t>GC URINARY Chicken/Rice (7кг) Корм с цыплёнком и рисом для кошек / профилактика МКБ</t>
@@ -502,130 +553,139 @@
     <t>wGC P Senior Turkey (пауч 100гр) / Консерв. корм с индейкой для пожилых кошек</t>
   </si>
   <si>
+    <t>wGD пауч Senior Turkey (100гр) Консерв. корм кусочки индейки для пожилых собак</t>
+  </si>
+  <si>
+    <t>wGD ламистр Adult Beef PATE (150гр) Консервированный корм для собак ПАШТЕТ с говядиной</t>
+  </si>
+  <si>
     <t>wGD ch Adult Tuna/Salmon (415гр) Консерв. корм кусочки тунец лосось для собак</t>
   </si>
   <si>
+    <t xml:space="preserve">wGD ch MEDIUM Adult Beef / Liver (415гр) Консерв. корм для собак средних пород кусочки с говядиной </t>
+  </si>
+  <si>
+    <t>GD MAXI Adult (20кг) Корм для взрослых собак крупных пород с курицей</t>
+  </si>
+  <si>
     <t xml:space="preserve">GD MINI Adult SALMON / RICE (3кг) Корм для взрослых собак мелких пород с лососем и рисом </t>
   </si>
   <si>
-    <t>GD Regular (20кг) Корм для взрослых собак всех пород с курицей</t>
-  </si>
-  <si>
-    <t>GD Adult All breeds TUNA/RICE (3кг) Корм для взрослых собак всех пород с тунцом и рисом</t>
-  </si>
-  <si>
-    <t>Leonardo Salmon GF 1,8 kg (сухой корм для кошек лосось)</t>
+    <t>GD Adult TUNA / RICE (20кг) Корм для взрослых собак всех пород с тунцом и рисом</t>
+  </si>
+  <si>
+    <t>GD Adult LAMB / RICE (20кг) Корм для взрослых собак всех пород с ягненком и рисом</t>
+  </si>
+  <si>
+    <t>wGD ch PUPPY Chicken / Turkey (415гр) Консерв. корм для щенков кусочки с цыпленком и индейкой</t>
+  </si>
+  <si>
+    <t>GD MINI Puppy&amp;Junior CHICKEN/RICE (3кг) Корм с цыпленком для щенков и юниоров мелких пород</t>
   </si>
   <si>
     <t>Leonardo Salmon GF 7,5 kg (сухой корм для кошек лосось)</t>
   </si>
   <si>
-    <t>Leonardo Adult Lamb&amp;Rice 2kg (сухой корм для кошек ягненок)</t>
-  </si>
-  <si>
-    <t>1593 ON Cat Adult Light Chicken&amp;Rice 8 kg/ Корм OptimaNova для взр. кошек, склонных к изб.весу 8кг</t>
-  </si>
-  <si>
-    <t>1595 ON Cat Adult Mature Chicken&amp;Rice 2kg/курица+рис/ OptimaNova для пожилых кошек 2кг</t>
-  </si>
-  <si>
-    <t>1601 ON Cat Adult Exquisite Chicken&amp;Rice 2kg/ Корм т.м. OptimaNova для привередливых кошек. 2кг</t>
-  </si>
-  <si>
-    <t>2198 ОРИДЖЕН КИТТЕН(90/10) /корм для кошек/ 0,34 кг</t>
-  </si>
-  <si>
-    <t>2200 ОРИДЖЕН ОРИДЖИНАЛ КЭТ(85/15) корм для кошек/ 0,34 кг</t>
-  </si>
-  <si>
-    <t>2225 ОРИДЖЕН ПАППИ СМОЛ БРИД (85/15)/корм для щенков мелких пород/ 1,8кг</t>
+    <t>Leonardo Adult GF Maxi 7.5kg (сухой корм для крупных кошек)</t>
+  </si>
+  <si>
+    <t>Leonardo Adult Complete 32/16 7,5kg (сухой корм для кошек на основе птицы)</t>
+  </si>
+  <si>
+    <t>Leonardo Adult Light&amp;Sterilised 7,5kg (сухой корм для кошек легкий)</t>
+  </si>
+  <si>
+    <t>NECON корм низкозерновой для котят с индейкой и рисом. Масса нетто 1,5 кг</t>
+  </si>
+  <si>
+    <t>NECON корм низкозерновой для стерилизованных кошек с индейкой и рисом. Масса нетто 10 кг</t>
+  </si>
+  <si>
+    <t>1586 ON Cat Adult Chicken&amp;Rice 2kg / Корм т.м. OptimaNova для взр. кошек 2кг</t>
+  </si>
+  <si>
+    <t>1592 ON Cat Adult Light Chicken&amp;Rice 2 kg/ Корм OptimaNova для взр. кошек, склонных к изб.весу 2кг</t>
   </si>
   <si>
     <t>Корм для мелких пород собак OWNAT GF беззерновой с ягненком, 3кг</t>
   </si>
   <si>
-    <t>Корм для мелких пород собак OWNAT CLASSIC MINI ADULT, 4кг</t>
-  </si>
-  <si>
-    <t>NT 2,0кг Sensitive Small&amp;Toy Корм сухой для собак мелких пород NO GRAIN, форель</t>
-  </si>
-  <si>
-    <t>NT 1,5кг Корм сухой для кошек с говядиной</t>
-  </si>
-  <si>
-    <t>NT 10,0кг Cat Adult Корм сухой для кошек с курицей</t>
-  </si>
-  <si>
-    <t>NT 1,5кг Cat Adult Корм сухой для кошек с тунцом</t>
-  </si>
-  <si>
-    <t>NT 1,5кг Sterilised Корм сухой для стерилизованных кошек и кастрирован.котов со свежим белым мясом</t>
-  </si>
-  <si>
-    <t>NT 10,0кг Корм сухой для стерилизованных кошек и кастрированных котов со свежим белым мясом</t>
+    <t>NT 3,0кг Корм сухой для кошек с курицей</t>
+  </si>
+  <si>
+    <t>NT 1,5кг Sensitive Adult Корм сухой для кошек NO GRAIN  с форелью</t>
   </si>
   <si>
     <t>NT 0,3кг Sterilised Корм сухой для стерилизованных кошек и кастрирован.котов со свежим белым мясом</t>
   </si>
   <si>
-    <t>NT 3,0кг Sterilised Корм сухой для стерилизованных кошек и кастрированных котов с лососем</t>
-  </si>
-  <si>
-    <t>NT 0,3кг Cat Adult Sterilised Корм сухой для стерилизованных кошек и кастрированных котов с (утка)</t>
-  </si>
-  <si>
-    <t>NT 1,5кг Cat Adult Сухой корм для кошек с чувствительным пищеварением (форель)</t>
-  </si>
-  <si>
-    <t>NT 2,0кг Sensitive SM&amp;T Корм сух. для собак мелких и миниат.пород NO GLUTEN с чувств пищев, ягнен.</t>
-  </si>
-  <si>
-    <t>NT 2,0кг Корм сухой для собак мелких и миниатюрных пород с говядиной, юккой и спирулиной</t>
-  </si>
-  <si>
-    <t>NT 12,0кг Sensitive Medium&amp;Maxi Adult Корм сух.для соб.средн. пор. NO GLUTEN с чувств пищев.,ягненок</t>
-  </si>
-  <si>
-    <t>NT 12,0кг Sensitive Medium&amp;Maxi Adult Корм сухой для собак средних и крупных NO GLUTEN, свинина</t>
-  </si>
-  <si>
-    <t>NT 12,0кг Корм сухой для собак средних пород со свежей курицей, рисом, цикорием и спирулиной</t>
-  </si>
-  <si>
-    <t>Корм для взрослых собак OWNAT GF беззерновой с ягненком, 14 кг</t>
+    <t>NT 0,3кг Cat Adult Сухой корм для кошек с чувствительным пищеварением (форель)</t>
+  </si>
+  <si>
+    <t>NT 2,0кг Sensitive Mini Корм сух. для собак мелких и миниат.пород NO GLUTEN с чувств пищев, кролик</t>
+  </si>
+  <si>
+    <t>NT 7,0кг Sensitive SM&amp;T Корм сух. для собак мелких и миниат.пород NO GLUTEN с чувств пищев с юккой</t>
+  </si>
+  <si>
+    <t>NT 0,8кг Sensitive SM&amp;T Корм сух. для собак мелких и миниат.пород NO GLUTEN с чувств пищев, ягнен.</t>
+  </si>
+  <si>
+    <t>NT 12,0кг Sensitive Medium&amp;Maxi Adult Корм сухой для собак средних и крупных NO GLUTEN, кролик</t>
   </si>
   <si>
     <t>Корм для взрослых собак OWNAT GF беззерновой с ягненком, 3 кг</t>
   </si>
   <si>
+    <t>Наполнитель бентонитовый LINDOCAT PRESTIGE, 5л</t>
+  </si>
+  <si>
     <t>Корм Интегра Протект для собак при заболевании почек 400 г, с говядиной</t>
   </si>
   <si>
+    <t>Корм Интегра Протект для собак при заболевании почек 150 г, с курицей</t>
+  </si>
+  <si>
     <t>Корм для котят Фом Файстен Бэби 100 г, паштет</t>
   </si>
   <si>
     <t>Набор корма для котят Фом Файстен Рафинезе 8х85 г, в соусе</t>
   </si>
   <si>
-    <t>Корм для кошек Карни Сингл Протеин 200 г, с индейкой</t>
-  </si>
-  <si>
     <t>Корм для кошек Карни 400 г, с говядиной и сердцем</t>
   </si>
   <si>
     <t>Корм для кошек Карни 800 г, с говядиной, индейкой и креветками</t>
   </si>
   <si>
+    <t>Корм для кошек Карни 400 г, с индейкой и ягненком</t>
+  </si>
+  <si>
+    <t>Корм для кошек Карни 400 г, с курицей и лососем</t>
+  </si>
+  <si>
+    <t>Корм для кошек Карни 200 г, с говядиной</t>
+  </si>
+  <si>
     <t>Корм для кошек Карни 400 г, с говядиной</t>
   </si>
   <si>
-    <t>Корм для кошек Фом Файстен Сеньор 100 г, ягненок</t>
-  </si>
-  <si>
-    <t>Корм для кошек Фом Файстен Адульт 100 г, мульти мясной коктейль</t>
-  </si>
-  <si>
-    <t>Корм для кошек Фом Файстен Адульт 100г, панна котта с лососем</t>
+    <t>Корм для кошек Карни 400 г, с индейкой и куриной печенью</t>
+  </si>
+  <si>
+    <t>Набор корма для кошек Фом Файстен Рафинезе 8х85 г, в соусе</t>
+  </si>
+  <si>
+    <t>Корм для пожилых кошек Фом Файстен Сеньор 100 г, с говядиной</t>
+  </si>
+  <si>
+    <t>Корм для кошек Фом Файстен Мягкое Меню 100 г, чистая индейка</t>
+  </si>
+  <si>
+    <t>Корм для кошек Фом Файстен Адульт 100 г, с индейкой и кроликом</t>
+  </si>
+  <si>
+    <t>Корм Фом Файстен Адульт 100 г, с индейкой и молочной начинкой</t>
   </si>
   <si>
     <t>Корм для кошек Фом Файстен Керн 100 г, с с индейкой, говядиной и морковью</t>
@@ -634,13 +694,22 @@
     <t>Корм для кошек Фом Файстен Керн 100 г, с индейкой, курицей и травами</t>
   </si>
   <si>
-    <t>Корм для кошек Фом Файстен Адульт 100г, с курицей без злаков</t>
+    <t>Корм Фом Файстен Адульт 100 г, с курицей и молочной начинкой</t>
+  </si>
+  <si>
+    <t>Корм для кошек Фом Файстен Адульт 100 г, с сердцем индейки</t>
+  </si>
+  <si>
+    <t>ВВЕСТИ АНМД</t>
+  </si>
+  <si>
+    <t>Корм Интегра Протект для собак при заболевании почек 400 г, с курицей</t>
   </si>
   <si>
     <t>Корм для взрослых собак Гран Карно 400г с говядиной</t>
   </si>
   <si>
-    <t>Leonardo pure Turkey 85g (пресервы вкус индейки)</t>
+    <t>Leonardo beef 200 g (консервы для котов говядина)</t>
   </si>
   <si>
     <t>Leonardo pure chicken 200 g (консервы для котов курица)</t>
@@ -649,28 +718,67 @@
     <t>Leonardo liver 200 g (консервы печень для кошек)</t>
   </si>
   <si>
+    <t>Leonardo ocean fish 200 g (консервы рыба для кошек)</t>
+  </si>
+  <si>
     <t>Leonardo Ente/Duck 200 g (консервы для котов утка)</t>
   </si>
   <si>
-    <t>Корм Интегра Протект для кошек с диабетом 100 г, с сердцем индейки</t>
-  </si>
-  <si>
-    <t>Корм Интегра Протект для кошек при мочекаменной болезни 100 г, с телятиной</t>
-  </si>
-  <si>
-    <t>Корм Интегра Протект для кошек при оксалатной мочекаменной болезни 100 г, с уткой</t>
+    <t>Корм Интегра Протект для кошек при аллергии 100 г, с индейкой</t>
+  </si>
+  <si>
+    <t>Корм для котят OWNAT CLASSIC KITTEN, 1,5 кг</t>
+  </si>
+  <si>
+    <t>Корм для котят OWNAT CLASSIC KITTEN, 4 кг</t>
+  </si>
+  <si>
+    <t>Корм Интегра Протект для кошек с диабетом 85 г, с курицей</t>
+  </si>
+  <si>
+    <t>Корм Интегра Протект для кошек с диабетом 100 г, с лососем</t>
+  </si>
+  <si>
+    <t>Корм Интегра Протект для кошек при заболевании почек 100 г, с телятиной</t>
+  </si>
+  <si>
+    <t>Корм Интегра Протект для кошек при заболевании почек 100 г, с уткой</t>
+  </si>
+  <si>
+    <t>Корм для взрослых кошек OWNAT CLASSIC ЕЖЕДНЕВНЫЙ УХОД, 1,5 кг</t>
+  </si>
+  <si>
+    <t>Корм для взрослых кошек OWNAT CLASSIC ЕЖЕДНЕВНЫЙ УХОД, 15 кг</t>
   </si>
   <si>
     <t>Корм для взрослых кошек OWNAT CLASSIC ЕЖЕДНЕВНЫЙ УХОД, 4 кг</t>
   </si>
   <si>
+    <t>RIO Корм для крупных попугаев,  1кг</t>
+  </si>
+  <si>
     <t>Belcando Senior 12.5kg (сухой корм для пожилых собак)</t>
   </si>
   <si>
-    <t>RIO Корм для средних попугаев в период линьки, 500 г</t>
-  </si>
-  <si>
-    <t>Корм для щенков OWNAT CLASSIC JUNIOR, 12 кг</t>
+    <t>RIO Корм для средних попугаев 1 кг</t>
+  </si>
+  <si>
+    <t>RIO Корм для средних попугаев в период линьки, 1 кг</t>
+  </si>
+  <si>
+    <t>Mamynat Dog Maintenimento 20kg</t>
+  </si>
+  <si>
+    <t>Vivere Mini Adult Duck 3kg</t>
+  </si>
+  <si>
+    <t>RIO Палочки для волнистых попугаев и экзотических птиц с тропическими фруктами, 2х40г</t>
+  </si>
+  <si>
+    <t>NECON SALMOIL RICETTA 5 масло лосос. для собак и кошек для поддержания здоровья кожи и шерсти,150мл</t>
+  </si>
+  <si>
+    <t>NECON SALMOIL RICETTA 5 масло лососевое для собак и кошек для поддерж.здоровья кожи и шерсти,500 мл</t>
   </si>
   <si>
     <t>401379 GIMСАT 20гр Мультивитаминная паста д/кошек "MULTI-VITAMIN PASTA PROFESSIONAL"</t>
@@ -679,16 +787,19 @@
     <t>Корм для взрослых собак OWNAT CLASSIC COMPLET, 12 кг</t>
   </si>
   <si>
+    <t>Корм для взрослых собак OWNAT CLASSIC COMPLET, 20 кг</t>
+  </si>
+  <si>
     <t>Корм для взрослых собак OWNAT CLASSIC LAMB&amp;RICE с ягненком и рисом, 12 кг</t>
   </si>
   <si>
     <t>Корм для взрослых собак OWNAT CLASSIC LAMB&amp;RICE с ягненком и рисом, 20 кг</t>
   </si>
   <si>
-    <t>Корм для взрослых собак OWNAT CLASSIC DUCK с уткой, 12 кг</t>
-  </si>
-  <si>
-    <t>NATURE SNACK CEREALS дополнительный корм для кроликов и мелких домашних животных, 500гр.</t>
+    <t>Корм для взрослых собак OWNAT CLASSIC LAMB&amp;RICE с ягненком и рисом, 4 кг</t>
+  </si>
+  <si>
+    <t>Корм для взрослых собак OWNAT CLASSIC DUCK с уткой, 4 кг</t>
   </si>
   <si>
     <t>Корм для стерилизованных кошек OWNAT CLASSIC, 1,5 кг</t>
@@ -712,113 +823,113 @@
     <t>Корм для стерилизованных кошек OWNAT GF беззерновой с рыбой, 1 кг</t>
   </si>
   <si>
+    <t>Корм для стерилизованных кошек OWNAT GF беззерновой с рыбой, 3 кг</t>
+  </si>
+  <si>
     <t>Корм для стерилизованных кошек OWNAT GF беззерновой с рыбой, 8 кг</t>
   </si>
   <si>
-    <t>Acana для кошек и котят корм беззерновой с птицей GRASSLANDS 0.34кг</t>
-  </si>
-  <si>
-    <t>Acana для кошек корм низкозерновой с курицей и индейкой HOMESTEAD HARVEST 0,34кг</t>
-  </si>
-  <si>
-    <t>Acana для кошек корм низкозерновой с рыбой BOUNTIFUL CATCH 4.5кг</t>
-  </si>
-  <si>
-    <t>Acana для кошек стерилизованных корм низкозерновой с курицей, индейкой и рыбой INDOOR ENTREE 0,34кг 3шт</t>
-  </si>
-  <si>
-    <t>Acana для собак корм беззерновой всех пород и возрастов с ягненком GRASSLANDS 11.4кг</t>
-  </si>
-  <si>
-    <t>Acana для собак корм для всех пород и возрастов с рыбой WILD COAST 2кг</t>
-  </si>
-  <si>
-    <t>Acana для собак корм для всех пород и возрастов с рыбой WILD COAST 9.7кг</t>
-  </si>
-  <si>
-    <t>Acana для собак корм монобелковый беззерновой всех пород и возрастов с ягненком GRASS-FED LAMB 2кг</t>
-  </si>
-  <si>
-    <t>Acana для щенков мелких пород с цыпленком и индейкой PUPPY SMALL BREED 2кг</t>
-  </si>
-  <si>
-    <t>Acana для щенков средних пород корм с цыпленком и индейкой PUPPY RECIPE 11.4кг</t>
-  </si>
-  <si>
-    <t>Acana для щенков средних пород с цыпленком и индейкой PUPPY RECIPE 0.34кг 
-Acana для щенков средних пород с цыпленком и индейкой PUPPY RECIPE 0.34кг 3шт</t>
-  </si>
-  <si>
-    <t>Acana корм для пожилых собак всех пород с цыпленком, индейкой и сельдью SENIOR DOG 2кг</t>
-  </si>
-  <si>
-    <t>Advance Urinary корм для кошек сухой при мочекаменной болезни 0.4кг</t>
-  </si>
-  <si>
-    <t>Advance Urinary корм для кошек сухой при мочекаменной болезни 3кг</t>
+    <t>RIO Яичный корм для средних и крупных попугаев, 250 г</t>
+  </si>
+  <si>
+    <t>Acana для кошек и котят корм беззерновой с рыбой PACIFICA CAT 0.34кг</t>
+  </si>
+  <si>
+    <t>Advance Antistress корм для кошек сухой при мочекаменной болезни для снижения стресса 7.5кг</t>
   </si>
   <si>
     <t>Advance Urinary корм для кошек сухой при мочекаменной болезни 8кг</t>
   </si>
   <si>
-    <t>Advance VetDiet Renal корм для собак сухой при заболевании почек от 1 года до 6 лет 3кг</t>
+    <t>Advance VetDiet Renal корм для кошек сухой при паталогии почек 1.5кг 1шт</t>
   </si>
   <si>
     <t>Advance VetDiet Urinary корм для собак сухой при мочекаменной болезни 3кг</t>
   </si>
   <si>
-    <t>Advance корм для кошек сухой с курицей и рисом 3кг</t>
-  </si>
-  <si>
-    <t>Advance корм для кошек сухой стерилизованных с лососем 1.5кг 
-Advance корм для кошек сухой стерилизованных с лососем 1.5кг 2шт</t>
+    <t>Advance корм для йоркширского терьера с курицей и рисом 1.5кг</t>
+  </si>
+  <si>
+    <t>Advance корм для кошек сухой с курицей и рисом 6кг</t>
+  </si>
+  <si>
+    <t>Advance корм для кошек сухой стерилизованных с индейкой 3кг</t>
+  </si>
+  <si>
+    <t>Advance корм для кошек сухой стерилизованных с лососем 1.5кг</t>
+  </si>
+  <si>
+    <t>Advance корм для собак сухой мелких пород с курицей и рисом от 8 месяцев 0.7кг</t>
+  </si>
+  <si>
+    <t>Advance корм для собак сухой мелких пород с чувствительным пищеварением с лососем и рисом 1.5кг</t>
   </si>
   <si>
     <t>Advance корм для собак сухой с чувствительным пищеварением, лосось и рис 12кг</t>
   </si>
   <si>
+    <t>Advance корм для щенков с чувствительным пищеварением с лососем и рисом 12кг</t>
+  </si>
+  <si>
+    <t>Ambrosia корм для кошек сухой стерилизованных с индейкой и сельдью 5кг</t>
+  </si>
+  <si>
     <t>Ambrosia корм для кошек сухой стерилизованных с лососем и курицей 5кг</t>
   </si>
   <si>
-    <t>Ambrosia корм для кошек сухой стерилизованных с уткой и индейкой 5кг</t>
-  </si>
-  <si>
-    <t>Ambrosia корм для кошек сухой стерилизованных с форелью и кроликом 5кг</t>
-  </si>
-  <si>
     <t>Belcando для собак Adult Active для активных собак с птицей и рисом 12.5кг</t>
   </si>
   <si>
-    <t>Belcando для собак Finest GF Beef с говядиной беззерновой корм для собак 1кг</t>
-  </si>
-  <si>
-    <t>Belcando для собак консервы Baseline беззерновой корм с говядиной 400г 12шт / Белькандо корм для собак 
-Belcando для собак консервы Baseline беззерновой корм с говядиной 400г 18шт / Белькандо корм для собак</t>
+    <t>Belcando для собак Adult Dinner с птицей и рисом 12.5кг</t>
+  </si>
+  <si>
+    <t>Belcando для собак Mastercraft Salmon с лососем беззерновой корм для собак 2.2кг</t>
+  </si>
+  <si>
+    <t>Belcando для собак консервы Baseline беззерновой корм с говядиной 400г 12шт / Белькандо корм для собак</t>
   </si>
   <si>
     <t>Belcando для собак консервы Baseline беззерновой корм с дичью 400г 6шт</t>
   </si>
   <si>
-    <t>Belcando для собак консервы Baseline беззерновой корм с индейкой 400г 6шт</t>
-  </si>
-  <si>
-    <t>Belcando для собак консервы с индейкой, рисом и кабачком 400г 30шт</t>
-  </si>
-  <si>
-    <t>Belcando для собак консервы с индейкой, рисом и кабачком 400г 6шт</t>
+    <t>Belcando для собак консервы Baseline беззерновой корм с индейкой 400г 12шт / Белькандо корм для собак 
+Belcando для собак консервы Baseline беззерновой корм с индейкой 400г 18шт / Белькандо корм для собак 
+Belcando для собак консервы Baseline беззерновой корм с индейкой 400г 30шт 
+Belcando для собак консервы Baseline беззерновой корм с индейкой 400г 6шт</t>
+  </si>
+  <si>
+    <t>Belcando для собак консервы Baseline беззерновой корм с курицей 400г 18шт / Белькандо корм для собак</t>
+  </si>
+  <si>
+    <t>Belcando для собак консервы с индейкой, рисом и кабачком 400г 12шт / Белькандо корм для собак 
+Belcando для собак консервы с индейкой, рисом и кабачком 400г 6шт</t>
   </si>
   <si>
     <t>Belcando для собак консервы с с говядиной, картошкой и горохом 400г 6шт</t>
   </si>
   <si>
-    <t>Belcando для собак консервы с ягненком, рисом и помидорами 400г 12шт / Белькандо корм для собак 
-Belcando для собак консервы с ягненком, рисом и помидорами 400г 6шт</t>
-  </si>
-  <si>
     <t>Belcando для собак мелких и средних пород Finest GF Lamb с ягненком беззерновой корм для собак 1кг</t>
   </si>
   <si>
-    <t>Gemon корм для кошек влажный с кроликом и овощами 100г 12шт</t>
+    <t>Belcando для собак мелких и средних пород Finest Salmon с лососем 1кг</t>
+  </si>
+  <si>
+    <t>Gemon влажный корм для стерилизованных кошек с индейкой 400г 24шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для котят сухой 2кг</t>
+  </si>
+  <si>
+    <t>Gemon корм для кошек влажный с говядиной 400г 24шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для кошек влажный с лососем и креветками 415г 24шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для кошек сухой Complete с курицей и индейкой 2кг</t>
+  </si>
+  <si>
+    <t>Gemon корм для кошек сухой Urinary для профилактики мочекаменных болезней с курицей и рисом 2кг</t>
   </si>
   <si>
     <t>Gemon корм для кошек сухой Urinary для профилактики мочекаменных болезней с курицей и рисом 7кг</t>
@@ -833,114 +944,112 @@
     <t>Gemon корм для пожилых кошек влажный с индейкой 100г 24шт</t>
   </si>
   <si>
-    <t>Gemon корм для собак влажный с тунцом и лососем 415г 24шт 
-Gemon корм для собак влажный с тунцом и лососем 415г 36шт</t>
+    <t>Gemon корм для пожилых собак влажный с индейкой 100г 24шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для собак влажный с говядиной 150г 12шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для собак влажный с тунцом и лососем 415г 12шт 
+Gemon корм для собак влажный с тунцом и лососем 415г 36шт 
+Gemon корм для собак влажный с тунцом и лососем 415г 6шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для собак влажный средних пород с говядиной и печенью 415г 12шт 
+Gemon корм для собак влажный средних пород с говядиной и печенью 415г 24шт 
+Gemon корм для собак влажный средних пород с говядиной и печенью 415г 36шт 
+Gemon корм для собак влажный средних пород с говядиной и печенью 415г 6шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для собак сухой крупных пород с курицей 20кг</t>
   </si>
   <si>
     <t>Gemon корм для собак сухой мелких пород с лососем и рисом 3кг</t>
   </si>
   <si>
-    <t>Gemon корм для собак сухой с курицей 20кг</t>
-  </si>
-  <si>
-    <t>Gemon корм для собак сухой с тунцом и рисом 3кг</t>
-  </si>
-  <si>
-    <t>Leonardo беззерновой корм для кошек Adult GF Salmon с лососем 1,8кг</t>
+    <t>Gemon корм для собак сухой с тунцом и рисом 20кг</t>
+  </si>
+  <si>
+    <t>Gemon корм для собак сухой с ягненком и рисом 20кг</t>
+  </si>
+  <si>
+    <t>Gemon корм для щенков влажный с курицей и индейкой 415г 6шт</t>
+  </si>
+  <si>
+    <t>Gemon корм для щенков сухой с курицей и рисом 3кг</t>
   </si>
   <si>
     <t>Leonardo беззерновой корм для кошек Adult GF Salmon с лососем 7.5кг</t>
   </si>
   <si>
-    <t>Leonardo корм для кошек сухой Adult Lamb с ягненком 2кг</t>
-  </si>
-  <si>
-    <t>Optima Nova корм для кошек, склонных к лишнему, монобелковый с курицей и рисом 8кг</t>
-  </si>
-  <si>
-    <t>Optima Nova корм для пожилых кошек старше 7 лет с курицей и рисом 2кг</t>
-  </si>
-  <si>
-    <t>Optima Nova корм для привередливых кошек с курицей и рисом 2кг</t>
-  </si>
-  <si>
-    <t>Orijen для котят беззерновой корм с курицей и индейкой KITTEN 0.34кг</t>
-  </si>
-  <si>
-    <t>Orijen для кошек и котят корм беззерновой с цыпленком и индейкой ORIGINAL CAT 0,34кг</t>
-  </si>
-  <si>
-    <t>Orijen для щенков мелких пород корм беззерновой с птицей и рыбой PUPPY SMALL BREED 1.8кг</t>
+    <t>Leonardo корм для мейн-кунов Adult GF Maxi Croc со свежей птицей 7,5кг</t>
+  </si>
+  <si>
+    <t>Leonardo сухой корм для кошек Complete 32/16 7.5кг 1шт</t>
+  </si>
+  <si>
+    <t>Leonardo сухой корм для кошек стерилизованных Light &amp; Sterilised с птицей 7.5кг</t>
+  </si>
+  <si>
+    <t>NECON сухой корм для котят с индейкой и рисом 1.5 кг</t>
+  </si>
+  <si>
+    <t>NECON сухой корм для стерилизованных кошек с индейкой и рисом 10 кг</t>
+  </si>
+  <si>
+    <t>Optima Nova корм для кошек с курицей и рисом 2кг</t>
+  </si>
+  <si>
+    <t>Optima Nova корм для кошек склонных к избыточному весу с курицей и рисом 2кг</t>
   </si>
   <si>
     <t>Ownat Беззерновой корм для собак сухой мелких пород с ягненком, 3кг</t>
   </si>
   <si>
-    <t>Ownat корм для собак сухой мелких пород с курицей, 4кг</t>
-  </si>
-  <si>
-    <t>Trainer беззерновой корм для собак сухой мелких пород с форелью 2кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой с говядиной 1.5кг 3шт</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой с курицей 10кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой с тунцом 1.5кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой стерилизованных с белым мясом 1.5кг 2шт</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой стерилизованных с белым мясом 10кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой стерилизованных с белым мясом 300г</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой стерилизованных с лососем 3кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой стерилизованных с уткой 300г</t>
-  </si>
-  <si>
-    <t>Trainer корм для кошек сухой стерилизованных с форелью 1.5кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для собак сухой мелких пород при чувствительном пищеварении с ягненком 2кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для собак сухой мелких пород с говядиной, юккой и спирулиной 2кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для собак сухой средних и крупных пород с ягненком 12кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для собак сухой средних и крупных пород со свининой 12кг</t>
-  </si>
-  <si>
-    <t>Trainer корм для собак сухой средних пород с курицей, цикорием и спирулиной 12кг</t>
-  </si>
-  <si>
-    <t>Беззерновой корм для собак сухой Ownat Grain Free Lamb с ягненком, 14кг</t>
+    <t>Trainer корм для кошек сухой с курицей 3кг</t>
+  </si>
+  <si>
+    <t>Trainer корм для кошек сухой с форелью, при чувствительном пищеварении 1.5кг</t>
+  </si>
+  <si>
+    <t>Trainer корм для кошек сухой стерилизованных с белым мясом 300г 2шт</t>
+  </si>
+  <si>
+    <t>Trainer корм для кошек сухой стерилизованных с форелью 300г 2шт</t>
+  </si>
+  <si>
+    <t>Trainer корм для собак сухой мелких пород при чувствительном пищеварении с кроликом 2кг</t>
+  </si>
+  <si>
+    <t>Trainer корм для собак сухой мелких пород при чувствительном пищеварении с лосесем, юккой и спирулиной 7кг</t>
+  </si>
+  <si>
+    <t>Trainer корм для собак сухой мелких пород при чувствительном пищеварении с ягненком 800г</t>
+  </si>
+  <si>
+    <t>Trainer корм для собак сухой средних и крупных пород с кроликом 12кг</t>
+  </si>
+  <si>
+    <t>Беззерновой корм для собак сухой Ownat Grain Free Lamb с ягненком, 14кг ЧИТАЙТЕ ОПИСАНИЕ</t>
   </si>
   <si>
     <t>Беззерновой корм для собак сухой Ownat Grain Free Lamb с ягненком, 3кг</t>
   </si>
   <si>
-    <t>Корм Animonda для для собак при заболевании почек Animonda Integra Protect Renal с мясом говядины, 12 банок по 400г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для котят влажный Vom Feinsten "Паштет для малышей", 16 упаковок по 100г / Анимонда 
-Корм Animonda для котят влажный Vom Feinsten "Паштет для малышей", 64 упаковки по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для котят влажный Vom Feinsten Raffinesse 2 вкуса, 8 упаковок весом 85г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Carny Adult Single Protein с индейкой, 12 банок по 200г / Анимонда</t>
+    <t>Бентонитовый наполнитель для кошачьего туалета комкующийся LINDOCAT PRESTIGE 5л</t>
+  </si>
+  <si>
+    <t>Корм Animonda для для собак при заболевании почек Animonda Integra Protect Renal с говядиной, 6 банок по 400г / Анимонда 
+Корм Animonda для для собак при заболевании почек Animonda Integra Protect Renal с мясом говядины, 12 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для для собак при заболевании почек Animonda Integra Protect Renal с курицей, 11 упаковок по 150г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для котят влажный Vom Feinsten "Паштет для малышей", 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для котят влажный Vom Feinsten Raffinesse 2 вкуса, 32 упаковки весом 85г / Анимонда</t>
   </si>
   <si>
     <t>Корм Animonda для кошек влажный Carny Adult с говядиной и сердцем, 6 банок по 400г / Анимонда</t>
@@ -949,68 +1058,131 @@
     <t>Корм Animonda для кошек влажный Carny Adult с говядиной, индейкой и креветками 6 банок по 800гр / Анимонда</t>
   </si>
   <si>
-    <t>Корм Animonda для кошек влажный Carny Adult с отборной говядиной, 24 банки по 400г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Vom Feinsten Senior с ягненком, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Vom Feinsten мульти мясной коктейль, 32 упаковки по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Vom Feinsten панна котта с лососем, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой, говядиной и морковью, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой, курицей и травами, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для кошек влажный Vom Feinsten с курицей в морковном соусе, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Animonda для собак с отборной говядиной, 12 банок по 400г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм Leonardo для кошек влажный с индейкой 85г 16шт</t>
-  </si>
-  <si>
-    <t>Корм Leonardo для кошек влажный с курицей 200г 6шт</t>
-  </si>
-  <si>
-    <t>Корм Leonardo для кошек влажный с печенью 200г 6шт</t>
+    <t>Корм Animonda для кошек влажный Carny Adult с индейкой и ягненком, 6 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Carny Adult с курицей и лососем, 6 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Carny Adult с отборной говядиной, 18 банок по 200г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Carny Adult с отборной говядиной, 18 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Carny Adult со вкусом индейки и куриная печень, 12 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten Raffinesse 4 вкуса, 32 упаковки весом 85г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten Senior с говядиной, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой в чистом виде, 48 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой и кроликом, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой и молочной начинкой, 32 упаковки по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой, говядиной и морковью, 32 упаковки по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с индейкой, курицей и травами, 32 упаковки по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с курицей и молочной начинкой, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для кошек влажный Vom Feinsten с сердцем индейки, 32 упаковки по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для собак влажный с лососем и шпинатом, 6 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для собак при заболевании почек Animonda Integra Protect Renal со мясом курицы, 6 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Animonda для собак с отборной говядиной, 6 банок по 400г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм Leonardo для кошек влажный с говядиной 200г 12шт</t>
+  </si>
+  <si>
+    <t>Корм Leonardo для кошек влажный с курицей 200г 12шт 
+Корм Leonardo для кошек влажный с курицей 200г 6шт</t>
+  </si>
+  <si>
+    <t>Корм Leonardo для кошек влажный с печенью 200г 12шт 
+Корм Leonardo для кошек влажный с печенью 200г 6шт</t>
+  </si>
+  <si>
+    <t>Корм Leonardo для кошек влажный с рыбой 200г 12шт</t>
   </si>
   <si>
     <t>Корм Leonardo для кошек влажный с уткой 200г 6шт</t>
   </si>
   <si>
-    <t>Корм для кошек при диабете Animonda Integra Protect Diabetes с сердцем индейки, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм для кошек с мочекаменной болезнью Animonda Integra Protect Urinary с телятиной, 16 упаковок по 100г / Анимонда</t>
-  </si>
-  <si>
-    <t>Корм для кошек с мочекаменной болезнью Animonda Integra Protect Urinary с уткой 32 упаковки по 100г / Анимонда</t>
+    <t>Корм для для кошек при пищевой аллергии Animonda Integra Protect Sensitive с индейкой, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм для котят сухой с курицей 1.5кг Ownat Classic Kitten</t>
+  </si>
+  <si>
+    <t>Корм для котят сухой с курицей 4кг 2шт Ownat Classic Kitten 
+Корм для котят сухой с курицей 4кг Ownat Classic Kitten</t>
+  </si>
+  <si>
+    <t>Корм для кошек при диабете Animonda Integra Protect Diabetes с курицей, 24 упаковки по 85г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм для кошек при диабете Animonda Integra Protect Diabetes с лососем, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм для кошек с хронической почечной недостаточностью Animonda Integra Protect Renal с телятиной, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм для кошек с хронической почечной недостаточностью Animonda Integra Protect Renal с уткой, 16 упаковок по 100г / Анимонда</t>
+  </si>
+  <si>
+    <t>Корм для кошек сухой Ownat Classic с курицей, 1.5кг</t>
+  </si>
+  <si>
+    <t>Корм для кошек сухой Ownat Classic с курицей, 15кг</t>
   </si>
   <si>
     <t>Корм для кошек сухой Ownat Classic с курицей, 4кг</t>
   </si>
   <si>
+    <t>Корм для крупных попугаев RIO 1кг 3шт</t>
+  </si>
+  <si>
     <t>Корм для пожилых собак сухой Belcando Senior с птицей 12.5кг</t>
   </si>
   <si>
-    <t>Корм для попугаев средних RIO при линьке 500г 2шт</t>
-  </si>
-  <si>
-    <t>Корм для щенков Ownat Classic Junior с курицей, 12кг</t>
-  </si>
-  <si>
-    <t>Микс линк удобрение 250мл 1шт, Средство ускоритель для компоста бактерии биоактиватор mixlink, mix link, микслинк 
-Микс линк удобрение 250мл 2шт, Средство ускоритель для компоста бактерии биоактиватор mixlink, mix link, микслинк</t>
-  </si>
-  <si>
-    <t>Мультибакт Микс закваска 100мл + 160гр, Стимулятор роста растений</t>
+    <t>Корм для попугаев средних RIO 1кг 
+Корм для попугаев средних RIO 1кг 2шт</t>
+  </si>
+  <si>
+    <t>Корм для попугаев средних RIO при линьке 1кг</t>
+  </si>
+  <si>
+    <t>Корм для собак сухой MamyNat для всех пород с курицей 20кг</t>
+  </si>
+  <si>
+    <t>Корм для собак сухой мелких пород Vivere Mini Adult Duck с уткой 3кг 3шт</t>
+  </si>
+  <si>
+    <t>Лакомство для попугаев волнистых и экзотических птиц палочки с тропическими фруктами 2шт по 40г</t>
+  </si>
+  <si>
+    <t>Лососевое масло для собак и кошек Necon Salmoil Ricetta 5 для поддержания здоровья кожи и шерсти 150мл</t>
+  </si>
+  <si>
+    <t>Лососевое масло для собак и кошек Necon Salmoil Ricetta 5 для поддержания здоровья кожи и шерсти 500мл</t>
   </si>
   <si>
     <t>Мультивитаминная паста GimCat для кошек 20г</t>
@@ -1019,24 +1191,28 @@
     <t>Набор: Слизнецид био, bio для растений 250мл, от Улиток и Слизней нет + Микс линк удобрение 250мл, Средство ускоритель для компоста бактерии биоактиватор mixlink, mix link, микслинк</t>
   </si>
   <si>
-    <t>Слизнецид био, bio для растений 250мл 2шт, от Улиток и Слизней нет 
+    <t>Слизнецид био, bio для растений 250мл 10шт, от Улиток и Слизней нет 
 Слизнецид био, bio для растений 250мл 3шт, от Улиток и Слизней нет 
-Слизнецид био, bio для растений 250мл, от Улиток и Слизней нет</t>
+Слизнецид био, bio для растений 250мл 5шт, от Улиток и Слизней нет</t>
   </si>
   <si>
     <t>Сухой корм Ownat для собак Ownat Classic Complet с курицей, 12кг</t>
   </si>
   <si>
+    <t>Сухой корм Ownat для собак Ownat Classic Complet с курицей, 20кг</t>
+  </si>
+  <si>
     <t>Сухой корм Ownat для собак Ownat Classic Lamb&amp;Rice с ягненком и рисом, 12кг</t>
   </si>
   <si>
     <t>Сухой корм Ownat для собак Ownat Classic Lamb&amp;Rice с ягненком и рисом, 20кг</t>
   </si>
   <si>
-    <t>Сухой корм Ownat для собак Ownat Classic с уткой, 12кг</t>
-  </si>
-  <si>
-    <t>Сухой корм для грызунов (все виды) и кроликов Versele Laga Snack Cereals Nature 500г</t>
+    <t>Сухой корм Ownat для собак Ownat Classic Lamb&amp;Rice с ягненком и рисом, 4кг 
+Сухой корм Ownat для собак Ownat Classic Lamb&amp;Rice с ягненком и рисом, 4кг 2шт</t>
+  </si>
+  <si>
+    <t>Сухой корм Ownat для собак Ownat Classic с уткой, 4кг</t>
   </si>
   <si>
     <t>Сухой корм для кошек стерилизованных Ownat Classic Sterilized с курицей, 1.5 кг</t>
@@ -1045,643 +1221,760 @@
     <t>Сухой корм для кошек стерилизованных Ownat Classic Sterilized с курицей, 15 кг</t>
   </si>
   <si>
-    <t>Сухой корм для кошек стерилизованных Ownat Classic Sterilized с курицей, 4 кг</t>
-  </si>
-  <si>
-    <t>Сухой корм для кошек стерилизованных Ownat Classic Sterilized с курицей, 4 кг ЧИТАЙТЕ ОПИСАНИЕ</t>
+    <t>Сухой корм для кошек стерилизованных Ownat Classic Sterilized с курицей, 4 кг 
+Сухой корм для кошек стерилизованных Ownat Classic Sterilized с курицей, 4 кг 3шт</t>
   </si>
   <si>
     <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 1кг</t>
   </si>
   <si>
-    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 3кг 
-Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 3кг 2шт</t>
-  </si>
-  <si>
-    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 8кг</t>
+    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 3кг</t>
+  </si>
+  <si>
+    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 8кг 
+Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с курицей, 8кг 2шт</t>
   </si>
   <si>
     <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с рыбой, 1кг</t>
   </si>
   <si>
-    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с рыбой, 8кг</t>
+    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с рыбой, 3кг</t>
+  </si>
+  <si>
+    <t>Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с рыбой, 8кг 
+Сухой корм для кошек стерилизованных беззерновой Ownat Grain Free Sterilized с рыбой, 8кг 2шт</t>
+  </si>
+  <si>
+    <t>Яичный корм для крупных и средних попугаев RIO 250г</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1 
+1 
+1 
+4</t>
+  </si>
+  <si>
+    <t>1 
+1</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2 
+2 
+2</t>
+  </si>
+  <si>
+    <t>1 
+1 
+1 
+1</t>
+  </si>
+  <si>
+    <t>2 
+3</t>
+  </si>
+  <si>
+    <t>2 
+2</t>
+  </si>
+  <si>
+    <t>1 
+2 
+3</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>2 
 1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2 
+    <t>16 
+1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10 
+4</t>
+  </si>
+  <si>
+    <t>4 
+1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12 
+18 
+30 
+6</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12 
+6</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12 
+36 
+6</t>
+  </si>
+  <si>
+    <t>12 
+24 
+36 
+6</t>
+  </si>
+  <si>
+    <t>6 
+12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1 
 2</t>
   </si>
   <si>
-    <t>1 
-1</t>
-  </si>
-  <si>
-    <t>6 
-1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7 
-2</t>
-  </si>
-  <si>
-    <t>4 
-1 
-25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10 
+3 
+5</t>
   </si>
   <si>
     <t>1 
 3</t>
   </si>
   <si>
-    <t>1 
-2</t>
-  </si>
-  <si>
-    <t>12 
-18</t>
-  </si>
-  <si>
-    <t>12 
-6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>24 
-36</t>
-  </si>
-  <si>
-    <t>16 
-64</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2 
-3 
-1</t>
-  </si>
-  <si>
-    <t>43878872-0092-2 
-50181151-0264-3</t>
-  </si>
-  <si>
-    <t>19601474-0063-2</t>
-  </si>
-  <si>
-    <t>23884203-0155-1</t>
-  </si>
-  <si>
-    <t>46373231-0064-1</t>
-  </si>
-  <si>
-    <t>04093354-0511-5 
-62168330-0127-1</t>
-  </si>
-  <si>
-    <t>0130399995-0144-6</t>
-  </si>
-  <si>
-    <t>0109887490-0080-3 
-17507024-0109-1</t>
-  </si>
-  <si>
-    <t>06783048-0496-1 
-46559787-0110-1 
-89080513-0188-2</t>
-  </si>
-  <si>
-    <t>87090039-0011-3</t>
-  </si>
-  <si>
-    <t>0132914065-0015-1</t>
-  </si>
-  <si>
-    <t>23146576-0178-2 
-23146576-0178-2 
-87090039-0011-1</t>
-  </si>
-  <si>
-    <t>06726385-0226-2</t>
-  </si>
-  <si>
-    <t>30805203-0246-2 
-43018679-0039-2 
-84454352-0039-1</t>
-  </si>
-  <si>
-    <t>0110746396-0058-2 
-16957654-1145-1 
-61943044-0165-1 
-92955261-0187-1</t>
-  </si>
-  <si>
-    <t>64012550-0117-1 
-77516996-0062-1</t>
-  </si>
-  <si>
-    <t>38690990-0156-1</t>
-  </si>
-  <si>
-    <t>01545417-0254-1 
-01545417-0254-1</t>
-  </si>
-  <si>
-    <t>49375805-0134-1</t>
-  </si>
-  <si>
-    <t>0158439197-0004-1 
-08942013-0113-1 
-0131988266-0009-1 
-88220346-0279-1</t>
-  </si>
-  <si>
-    <t>78963936-0138-1</t>
-  </si>
-  <si>
-    <t>47913401-0113-1</t>
-  </si>
-  <si>
-    <t>46333085-0495-5</t>
-  </si>
-  <si>
-    <t>21065984-0101-1</t>
-  </si>
-  <si>
-    <t>14054334-0050-1</t>
-  </si>
-  <si>
-    <t>87773564-0184-2</t>
-  </si>
-  <si>
-    <t>0117280950-0099-1 
-12817200-0142-3</t>
-  </si>
-  <si>
-    <t>15584847-0147-1 
-50649855-0162-1 
-59529917-0302-3</t>
-  </si>
-  <si>
-    <t>15584847-0147-3</t>
-  </si>
-  <si>
-    <t>12817200-0142-2</t>
-  </si>
-  <si>
-    <t>84104720-0239-1</t>
-  </si>
-  <si>
-    <t>59529917-0302-1</t>
-  </si>
-  <si>
-    <t>06127841-0463-1 
-17857083-0192-1 
-17857083-0192-1 
-17857083-0192-3 
-17857083-0192-5 
-17857083-0192-5 
-48010647-0048-1</t>
-  </si>
-  <si>
-    <t>0125936122-0244-1</t>
-  </si>
-  <si>
-    <t>42420891-0069-1</t>
-  </si>
-  <si>
-    <t>35582880-0232-1</t>
-  </si>
-  <si>
-    <t>25006594-0368-1 
-68955091-0575-1</t>
-  </si>
-  <si>
-    <t>78051584-0190-1</t>
-  </si>
-  <si>
-    <t>0118599482-0067-1</t>
-  </si>
-  <si>
-    <t>56954323-0027-1 
-14320864-0258-1</t>
-  </si>
-  <si>
-    <t>68036213-0159-1</t>
-  </si>
-  <si>
-    <t>19355724-0119-1 
-19355724-0119-3</t>
-  </si>
-  <si>
-    <t>05461266-0544-2</t>
-  </si>
-  <si>
-    <t>43648814-0054-1</t>
-  </si>
-  <si>
-    <t>34375085-0098-1</t>
-  </si>
-  <si>
-    <t>99977762-0120-1</t>
-  </si>
-  <si>
-    <t>00177068-0309-1 
-29481012-0066-1 
-42512678-0047-1</t>
-  </si>
-  <si>
-    <t>82030042-0211-1</t>
-  </si>
-  <si>
-    <t>33922046-0035-2</t>
-  </si>
-  <si>
-    <t>86163348-0416-1</t>
-  </si>
-  <si>
-    <t>0154662586-0004-1 
-19601474-0063-5</t>
-  </si>
-  <si>
-    <t>0129647936-0024-2</t>
-  </si>
-  <si>
-    <t>0123270149-0032-1</t>
-  </si>
-  <si>
-    <t>97579977-0083-1</t>
-  </si>
-  <si>
-    <t>90764015-0015-1</t>
-  </si>
-  <si>
-    <t>08806389-0024-1</t>
-  </si>
-  <si>
-    <t>40814729-0050-1 
-40814729-0050-3</t>
-  </si>
-  <si>
-    <t>79825907-0115-2</t>
-  </si>
-  <si>
-    <t>18200678-0174-7</t>
-  </si>
-  <si>
-    <t>16033265-0585-1</t>
-  </si>
-  <si>
-    <t>0131284704-0002-2</t>
-  </si>
-  <si>
-    <t>03305893-0026-1 
-18200678-0174-1</t>
-  </si>
-  <si>
-    <t>18200678-0174-5</t>
-  </si>
-  <si>
-    <t>09284935-0051-1 
-18200678-0174-3</t>
-  </si>
-  <si>
-    <t>0156138687-0030-1 
-43188082-0355-1</t>
-  </si>
-  <si>
-    <t>69936390-0090-1</t>
-  </si>
-  <si>
-    <t>82363000-0032-1 
-82363000-0032-3</t>
-  </si>
-  <si>
-    <t>36035907-0089-1</t>
-  </si>
-  <si>
-    <t>23755293-0286-1</t>
-  </si>
-  <si>
-    <t>55235841-0053-1</t>
-  </si>
-  <si>
-    <t>0105875589-0146-1 
-12402477-0547-1 
-57220703-0511-1 
-80082165-0223-1 
-98931634-0028-3</t>
-  </si>
-  <si>
-    <t>49053513-0238-1</t>
-  </si>
-  <si>
-    <t>21935475-0109-4 
-64443446-0439-1 
-28898903-0062-3</t>
-  </si>
-  <si>
-    <t>62987330-0075-2</t>
-  </si>
-  <si>
-    <t>59988778-0583-1 
-59988778-0583-1 
-59988778-0584-1</t>
-  </si>
-  <si>
-    <t>0103724541-0087-1</t>
-  </si>
-  <si>
-    <t>01801213-0876-1</t>
-  </si>
-  <si>
-    <t>47268223-0088-1 
-47268223-0089-1</t>
-  </si>
-  <si>
-    <t>11870440-0148-2</t>
-  </si>
-  <si>
-    <t>69108520-0010-2</t>
-  </si>
-  <si>
-    <t>62976406-0157-2</t>
-  </si>
-  <si>
-    <t>0114066417-0072-1</t>
-  </si>
-  <si>
-    <t>20016916-0066-1 
-85891072-0067-1</t>
-  </si>
-  <si>
-    <t>62224587-0053-1</t>
-  </si>
-  <si>
-    <t>0128674771-0010-1</t>
-  </si>
-  <si>
-    <t>08428377-0297-2</t>
-  </si>
-  <si>
-    <t>43509239-0399-1</t>
-  </si>
-  <si>
-    <t>0101420556-0030-1</t>
-  </si>
-  <si>
-    <t>43918575-1640-1</t>
-  </si>
-  <si>
-    <t>09420490-0071-1</t>
-  </si>
-  <si>
-    <t>01756847-0496-5</t>
-  </si>
-  <si>
-    <t>04592683-0444-1</t>
-  </si>
-  <si>
-    <t>33792933-0197-1</t>
-  </si>
-  <si>
-    <t>16262070-0052-1</t>
-  </si>
-  <si>
-    <t>65069043-0332-1</t>
-  </si>
-  <si>
-    <t>72979430-0190-1</t>
-  </si>
-  <si>
-    <t>0126458157-0096-1 
-0142358281-0200-1 
-0148312973-0115-1 
-09573435-0058-1 
-09573435-0058-1 
-47702693-0141-1 
-85248206-0063-1 
-95318233-0018-1 
-95318233-0019-1</t>
-  </si>
-  <si>
-    <t>49213854-0574-4</t>
-  </si>
-  <si>
-    <t>02661247-0118-2 
-89668072-0364-3</t>
-  </si>
-  <si>
-    <t>0145665765-0015-1</t>
-  </si>
-  <si>
-    <t>13751738-0256-1 
-57318009-0259-1 
-80400733-0028-2 
-88189798-0261-1 
-57963879-0471-1 
-0109714984-0127-1 
-0126381499-0238-1 
-0126611644-0112-1 
-0132844101-0029-1 
-0142358281-0199-1 
-0148312973-0114-1 
-0159174486-0014-1 
-02988572-0087-5 
-04771900-0345-1 
-07701802-0155-1 
-13036619-0981-5 
-16327949-0219-1 
-33293963-0209-1 
-37182254-0169-1 
-38236415-0028-1 
-39156819-0035-1 
-39156819-0035-1 
-46893502-0158-1 
-48108561-0058-1 
-55305878-0086-1 
-55969009-0119-1 
-59485446-0178-1 
-60578068-0084-4 
-82332130-0102-1 
-84155642-0074-1</t>
-  </si>
-  <si>
-    <t>15926321-0052-1</t>
-  </si>
-  <si>
-    <t>0124139047-0281-1</t>
-  </si>
-  <si>
-    <t>48366488-0157-1 
-98938143-0048-1</t>
-  </si>
-  <si>
-    <t>26097618-0136-1</t>
-  </si>
-  <si>
-    <t>0143505678-0034-1 
-57019107-0009-1</t>
-  </si>
-  <si>
-    <t>0121735285-0072-3</t>
-  </si>
-  <si>
-    <t>0140063739-0058-1 
-93787180-0256-1</t>
-  </si>
-  <si>
-    <t>0135169034-0017-1 
-0159609564-0018-1 
-13648619-0086-1 
-16465612-0471-1 
-26203428-0207-1 
-31609872-0188-2 
-37213470-0024-1 
-46627360-0217-1 
-55160801-0086-1 
-61886199-0270-1 
-66298476-0209-3 
-80051511-0043-1 
-94550401-0148-1 
-97608620-0209-2</t>
-  </si>
-  <si>
-    <t>0118447285-0026-1</t>
-  </si>
-  <si>
-    <t>70838157-0411-1</t>
-  </si>
-  <si>
-    <t>0127644474-0018-1 
-07545869-0668-2</t>
-  </si>
-  <si>
-    <t>0144562020-0059-1 
-0149575041-0022-2 
-04757857-0162-1 
-42738991-0073-2 
-44782832-0040-1 
-93191812-0049-1</t>
-  </si>
-  <si>
-    <t>28391547-0037-1</t>
-  </si>
-  <si>
-    <t>16696415-0288-1 
-27404169-0477-1</t>
-  </si>
-  <si>
-    <t>064992714697</t>
-  </si>
-  <si>
-    <t>064992714345</t>
-  </si>
-  <si>
-    <t>064992714444</t>
-  </si>
-  <si>
-    <t>064992714482-3</t>
-  </si>
-  <si>
-    <t>064992542115</t>
-  </si>
-  <si>
-    <t>064992562205</t>
-  </si>
-  <si>
-    <t>064992562120</t>
-  </si>
-  <si>
-    <t>064992570200</t>
-  </si>
-  <si>
-    <t>064992502201</t>
-  </si>
-  <si>
-    <t>064992500115</t>
-  </si>
-  <si>
-    <t>064992500351 
-064992500351-3</t>
-  </si>
-  <si>
-    <t>064992510237</t>
-  </si>
-  <si>
-    <t>8410650282275</t>
-  </si>
-  <si>
-    <t>8410650009827</t>
+    <t>87741117-0125-1</t>
+  </si>
+  <si>
+    <t>56432074-0366-1</t>
+  </si>
+  <si>
+    <t>32498304-0112-1</t>
+  </si>
+  <si>
+    <t>44087855-0452-1</t>
+  </si>
+  <si>
+    <t>64446661-0200-2 
+64446661-0200-2</t>
+  </si>
+  <si>
+    <t>0105692780-0019-1</t>
+  </si>
+  <si>
+    <t>21397447-0182-1</t>
+  </si>
+  <si>
+    <t>44087855-0451-1</t>
+  </si>
+  <si>
+    <t>44708217-0026-2 
+38251973-0051-2</t>
+  </si>
+  <si>
+    <t>56947851-0088-1</t>
+  </si>
+  <si>
+    <t>31654890-0023-1</t>
+  </si>
+  <si>
+    <t>70795936-0214-1 
+23456861-0264-1</t>
+  </si>
+  <si>
+    <t>65469955-0118-1</t>
+  </si>
+  <si>
+    <t>11303296-0125-3</t>
+  </si>
+  <si>
+    <t>0104733024-0132-2 
+0115644068-0022-1</t>
+  </si>
+  <si>
+    <t>39576443-0475-3 
+39576443-0475-1</t>
+  </si>
+  <si>
+    <t>01595808-0366-15 
+01595808-0366-1 
+03357317-0154-1 
+14858209-0630-2</t>
+  </si>
+  <si>
+    <t>46215290-0120-1</t>
+  </si>
+  <si>
+    <t>0117280950-0103-1</t>
+  </si>
+  <si>
+    <t>03834392-0164-1</t>
+  </si>
+  <si>
+    <t>55344932-0019-1 
+10543527-0413-2 
+43046069-0060-2 
+36810388-0284-1 
+03834392-0164-3 
+67879202-0110-1 
+09587196-0021-3</t>
+  </si>
+  <si>
+    <t>43046069-0060-3</t>
+  </si>
+  <si>
+    <t>03416358-0314-1 
+84104720-0241-1</t>
+  </si>
+  <si>
+    <t>32065741-0357-2 
+62803958-0051-1</t>
+  </si>
+  <si>
+    <t>09587196-0021-1 
+09587196-0021-1 
+09587196-0021-1</t>
+  </si>
+  <si>
+    <t>66954815-0276-1</t>
+  </si>
+  <si>
+    <t>07127743-0045-1</t>
+  </si>
+  <si>
+    <t>98708347-0128-1</t>
+  </si>
+  <si>
+    <t>06872486-0083-1 
+16178801-0381-1</t>
+  </si>
+  <si>
+    <t>04493358-0648-1</t>
+  </si>
+  <si>
+    <t>0110154099-0075-2</t>
+  </si>
+  <si>
+    <t>32456499-0007-2 
+0130978106-0158-1 
+0177172530-0003-1</t>
+  </si>
+  <si>
+    <t>67011136-0058-1 
+12843149-0213-1</t>
+  </si>
+  <si>
+    <t>0107693558-0123-1 
+66139146-0246-1 
+67824268-0141-3 
+49410933-0132-2 
+42397585-0177-1 
+0138817978-0015-1</t>
+  </si>
+  <si>
+    <t>17693639-0256-1</t>
+  </si>
+  <si>
+    <t>03935592-0149-2</t>
+  </si>
+  <si>
+    <t>0131794505-0069-1</t>
+  </si>
+  <si>
+    <t>78280808-0028-1</t>
+  </si>
+  <si>
+    <t>68383070-0244-1 
+0159332340-0023-2 
+40087636-0338-3 
+40087636-0338-1 
+73609938-0426-5 
+42894995-0185-1</t>
+  </si>
+  <si>
+    <t>48802909-0036-1 
+49466447-0067-1 
+30687411-0383-1 
+73609938-0426-3</t>
+  </si>
+  <si>
+    <t>33638711-0068-3 
+99183563-0112-1 
+33638711-0068-1</t>
+  </si>
+  <si>
+    <t>61895667-0314-4</t>
+  </si>
+  <si>
+    <t>67036937-0585-1</t>
+  </si>
+  <si>
+    <t>0127028617-0038-3 
+0127028617-0038-1 
+46090232-0026-1</t>
+  </si>
+  <si>
+    <t>29958683-0420-4</t>
+  </si>
+  <si>
+    <t>29958683-0420-9</t>
+  </si>
+  <si>
+    <t>75802963-0058-1</t>
+  </si>
+  <si>
+    <t>66352655-0061-1</t>
+  </si>
+  <si>
+    <t>43883204-0168-1 
+33143145-0051-5</t>
+  </si>
+  <si>
+    <t>72373796-0027-1</t>
+  </si>
+  <si>
+    <t>0157850144-0109-1</t>
+  </si>
+  <si>
+    <t>01705706-0057-1</t>
+  </si>
+  <si>
+    <t>48733624-0014-1</t>
+  </si>
+  <si>
+    <t>91595208-0107-1</t>
+  </si>
+  <si>
+    <t>71376596-0355-1 
+0120669116-0068-2 
+96074982-0013-1 
+70228685-0038-1</t>
+  </si>
+  <si>
+    <t>14782398-0038-7</t>
+  </si>
+  <si>
+    <t>63053682-0070-1</t>
+  </si>
+  <si>
+    <t>57891172-0143-3</t>
+  </si>
+  <si>
+    <t>57891172-0143-2</t>
+  </si>
+  <si>
+    <t>62193374-0028-1</t>
+  </si>
+  <si>
+    <t>0177218914-0003-5</t>
+  </si>
+  <si>
+    <t>36777663-0040-1 
+36777663-0039-1</t>
+  </si>
+  <si>
+    <t>12999567-0063-1 
+04014498-0485-1</t>
+  </si>
+  <si>
+    <t>17738358-0200-1</t>
+  </si>
+  <si>
+    <t>57930109-0172-1 
+31847806-0641-1</t>
+  </si>
+  <si>
+    <t>09638573-0064-1 
+09638573-0064-1</t>
+  </si>
+  <si>
+    <t>12415908-0331-1 
+47477668-0355-3 
+34497946-0371-1 
+89949485-0223-1 
+44607563-0193-1</t>
+  </si>
+  <si>
+    <t>44803610-0032-2 
+0129684831-0083-2</t>
+  </si>
+  <si>
+    <t>11172551-1611-1 
+82671209-0026-1</t>
+  </si>
+  <si>
+    <t>71364692-0454-1 
+80390936-0573-1</t>
+  </si>
+  <si>
+    <t>0103724541-0088-1</t>
+  </si>
+  <si>
+    <t>0129573178-0033-1</t>
+  </si>
+  <si>
+    <t>03903691-0409-4</t>
+  </si>
+  <si>
+    <t>63609809-0270-1</t>
+  </si>
+  <si>
+    <t>03540396-0319-1</t>
+  </si>
+  <si>
+    <t>74033669-0193-1</t>
+  </si>
+  <si>
+    <t>86850468-0014-1</t>
+  </si>
+  <si>
+    <t>13994571-0485-1</t>
+  </si>
+  <si>
+    <t>44318070-0056-1</t>
+  </si>
+  <si>
+    <t>48710378-0251-1</t>
+  </si>
+  <si>
+    <t>0161317079-0016-5</t>
+  </si>
+  <si>
+    <t>75413413-0373-1</t>
+  </si>
+  <si>
+    <t>0161317079-0016-3</t>
+  </si>
+  <si>
+    <t>71557404-0228-5</t>
+  </si>
+  <si>
+    <t>75413413-0374-1</t>
+  </si>
+  <si>
+    <t>0161317079-0016-1</t>
+  </si>
+  <si>
+    <t>03412182-0040-3</t>
+  </si>
+  <si>
+    <t>96506987-0161-2</t>
+  </si>
+  <si>
+    <t>03412182-0040-5</t>
+  </si>
+  <si>
+    <t>14752603-0259-1</t>
+  </si>
+  <si>
+    <t>13112944-0331-1 
+48140904-0117-5</t>
+  </si>
+  <si>
+    <t>38709236-0241-1 
+14752603-0259-3</t>
+  </si>
+  <si>
+    <t>38709236-0241-3</t>
+  </si>
+  <si>
+    <t>13112944-0331-3 
+66745492-0295-1</t>
+  </si>
+  <si>
+    <t>19028259-0310-4</t>
+  </si>
+  <si>
+    <t>39743639-0047-2</t>
+  </si>
+  <si>
+    <t>31157102-0165-1 
+75689463-0023-2 
+33973985-0137-1 
+0104874194-0074-2</t>
+  </si>
+  <si>
+    <t>0127374272-0008-1</t>
+  </si>
+  <si>
+    <t>0116004808-0050-2</t>
+  </si>
+  <si>
+    <t>45717867-0312-1</t>
+  </si>
+  <si>
+    <t>0131673610-0025-1</t>
+  </si>
+  <si>
+    <t>50510025-0079-1 
+11353925-0098-2</t>
+  </si>
+  <si>
+    <t>48643685-0143-1</t>
+  </si>
+  <si>
+    <t>37318303-0343-1 
+42281655-0437-1 
+46960103-0222-1 
+76038762-0113-1</t>
+  </si>
+  <si>
+    <t>74767016-0135-1</t>
+  </si>
+  <si>
+    <t>24299681-0076-2</t>
+  </si>
+  <si>
+    <t>79127322-0168-1 
+32740045-0052-2</t>
+  </si>
+  <si>
+    <t>68603715-0181-1</t>
+  </si>
+  <si>
+    <t>44954413-0039-5 
+44954413-0039-2</t>
+  </si>
+  <si>
+    <t>19126398-0122-1</t>
+  </si>
+  <si>
+    <t>17130966-0382-1</t>
+  </si>
+  <si>
+    <t>80370661-0001-1 
+80370661-0001-1 
+32732852-0260-2</t>
+  </si>
+  <si>
+    <t>57029237-0560-2 
+0178132315-0001-1</t>
+  </si>
+  <si>
+    <t>14557859-0342-6 
+48582304-0740-3 
+29278778-0053-1 
+29278778-0053-1</t>
+  </si>
+  <si>
+    <t>59147046-0009-1</t>
+  </si>
+  <si>
+    <t>10940374-0194-1 
+57033354-0141-1 
+61439731-0054-1 
+45008270-0279-1 
+0120260241-0109-3 
+26620809-0194-1</t>
+  </si>
+  <si>
+    <t>34808008-0091-1 
+58122996-0038-1 
+30642872-0041-1</t>
+  </si>
+  <si>
+    <t>66122091-0117-1</t>
+  </si>
+  <si>
+    <t>08834901-0294-1 
+23954922-0259-1</t>
+  </si>
+  <si>
+    <t>04304845-0435-1 
+30383861-0007-1 
+64254587-0024-1 
+57165916-0029-1 
+67234341-0081-1 
+30968491-0088-1 
+26421991-0225-1</t>
+  </si>
+  <si>
+    <t>85575099-0019-1 
+17164116-0110-1 
+0115899122-0199-1</t>
+  </si>
+  <si>
+    <t>28311133-0208-1 
+66481585-0132-1 
+09270187-0235-1</t>
+  </si>
+  <si>
+    <t>0134836154-0012-1 
+51932652-0082-1 
+49298592-0134-1</t>
+  </si>
+  <si>
+    <t>34137012-0119-4 
+55897811-0171-1</t>
+  </si>
+  <si>
+    <t>0126386953-0144-1 
+86610723-0034-1 
+26718987-0180-1 
+05138381-0067-1 
+04532794-0473-1 
+47818415-0031-1 
+0149683187-0113-1 
+70465879-0021-2 
+71948208-0169-1 
+24087485-0194-1 
+42379491-0116-2 
+81367988-0048-1 
+48014856-0031-1 
+62142496-0221-1 
+70928817-0082-1 
+51012864-0142-1 
+61724421-0097-1</t>
+  </si>
+  <si>
+    <t>05361635-0516-1 
+05361635-0516-1 
+10098129-0279-2</t>
+  </si>
+  <si>
+    <t>29950965-0144-1 
+0111282397-0125-1 
+0157925591-0002-1 
+05731639-0175-1 
+45946075-0017-1</t>
+  </si>
+  <si>
+    <t>32038243-0071-1 
+38252818-0096-1 
+32053351-0371-1 
+31157102-0165-3 
+44130843-0084-1 
+32416825-0987-1 
+24456239-0218-1 
+39661963-0022-1 
+69428857-0278-1 
+20456647-0119-2 
+33914943-0040-1 
+34527454-0073-1 
+73344074-0130-1 
+68780399-0268-1</t>
+  </si>
+  <si>
+    <t>07547779-0277-1 
+35351362-0060-1 
+05361635-0516-1 
+05361635-0516-1</t>
+  </si>
+  <si>
+    <t>08590409-0545-2 
+05183902-0144-1 
+42835182-0101-2</t>
+  </si>
+  <si>
+    <t>69422739-0056-1 
+0178305352-0002-1 
+13140439-0084-1 
+20570402-0453-1 
+85419820-0116-1</t>
+  </si>
+  <si>
+    <t>50776458-0071-3</t>
+  </si>
+  <si>
+    <t>064992714628</t>
+  </si>
+  <si>
+    <t>8410650261966</t>
   </si>
   <si>
     <t>8410650168074</t>
   </si>
   <si>
-    <t>8410650152288</t>
+    <t>8410650152448</t>
   </si>
   <si>
     <t>8410650152325</t>
   </si>
   <si>
-    <t>8410650151595</t>
-  </si>
-  <si>
-    <t>8410650167886 
-8410650167886-2</t>
+    <t>8410650170480</t>
+  </si>
+  <si>
+    <t>8410650589428</t>
+  </si>
+  <si>
+    <t>8410650162270</t>
+  </si>
+  <si>
+    <t>8410650167886</t>
+  </si>
+  <si>
+    <t>8410650582030</t>
+  </si>
+  <si>
+    <t>8410650235240</t>
   </si>
   <si>
     <t>8410650173559</t>
   </si>
   <si>
+    <t>8410650009353</t>
+  </si>
+  <si>
+    <t>5214001832279</t>
+  </si>
+  <si>
     <t>5214001832347</t>
   </si>
   <si>
-    <t>5214001832989</t>
-  </si>
-  <si>
-    <t>5214001832958</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
-    <t>4002633556608</t>
+    <t>4002633557322</t>
+  </si>
+  <si>
+    <t>4002633555311</t>
+  </si>
+  <si>
+    <t>nan 
+nan 
+nan 
+nan</t>
+  </si>
+  <si>
+    <t>105981-18</t>
   </si>
   <si>
     <t>nan 
@@ -1691,14 +1984,28 @@
     <t>512147</t>
   </si>
   <si>
-    <t>512116-12 
-512116</t>
-  </si>
-  <si>
     <t>4002633556400</t>
   </si>
   <si>
-    <t>8009470300926-12</t>
+    <t>4002633556509</t>
+  </si>
+  <si>
+    <t>8009470299954-24</t>
+  </si>
+  <si>
+    <t>8009470297134</t>
+  </si>
+  <si>
+    <t>8009470299961-24</t>
+  </si>
+  <si>
+    <t>8009470300735-24</t>
+  </si>
+  <si>
+    <t>8009470297158</t>
+  </si>
+  <si>
+    <t>8009470297189</t>
   </si>
   <si>
     <t>8009470297301</t>
@@ -1713,114 +2020,103 @@
     <t>8009470300889-24</t>
   </si>
   <si>
-    <t>8009470387880-24 
-8009470387880-36</t>
+    <t>8009470300643-24</t>
+  </si>
+  <si>
+    <t>8009470300414-12</t>
+  </si>
+  <si>
+    <t>8009470387880-12 
+8009470387880-36 
+8009470387880-6</t>
+  </si>
+  <si>
+    <t>8009470387859-12 
+8009470387859-24 
+8009470387859-36 
+8009470387859-6</t>
+  </si>
+  <si>
+    <t>8009470005647</t>
   </si>
   <si>
     <t>8009470386067</t>
   </si>
   <si>
-    <t>8009470006170</t>
-  </si>
-  <si>
-    <t>8009470386098</t>
-  </si>
-  <si>
-    <t>4002633758712</t>
+    <t>8009470005609</t>
+  </si>
+  <si>
+    <t>8009470005616</t>
+  </si>
+  <si>
+    <t>8009470387866-6</t>
+  </si>
+  <si>
+    <t>8009470386043</t>
   </si>
   <si>
     <t>4002633758729</t>
   </si>
   <si>
-    <t>4002633758217</t>
-  </si>
-  <si>
-    <t>8413037201432</t>
-  </si>
-  <si>
-    <t>8413037201159</t>
-  </si>
-  <si>
-    <t>8413037200954</t>
-  </si>
-  <si>
-    <t>064992718848</t>
-  </si>
-  <si>
-    <t>064992280345</t>
-  </si>
-  <si>
-    <t>064992722470</t>
+    <t>4002633758521</t>
+  </si>
+  <si>
+    <t>8057438752201</t>
+  </si>
+  <si>
+    <t>8057438754380</t>
+  </si>
+  <si>
+    <t>8413037200152</t>
+  </si>
+  <si>
+    <t>8413037201357</t>
   </si>
   <si>
     <t>31437</t>
   </si>
   <si>
-    <t>31401</t>
-  </si>
-  <si>
-    <t>8059149277752</t>
-  </si>
-  <si>
-    <t>8059149029672-3</t>
-  </si>
-  <si>
-    <t>8059149247007</t>
-  </si>
-  <si>
-    <t>8059149029719</t>
-  </si>
-  <si>
-    <t>8059149029757-2</t>
-  </si>
-  <si>
-    <t>8059149246970</t>
-  </si>
-  <si>
-    <t>8059149230511</t>
-  </si>
-  <si>
-    <t>8059149029849</t>
-  </si>
-  <si>
-    <t>8059149430218</t>
-  </si>
-  <si>
-    <t>8059149430201</t>
-  </si>
-  <si>
-    <t>8059149252407</t>
-  </si>
-  <si>
-    <t>8015699006587</t>
-  </si>
-  <si>
-    <t>8059149252544</t>
-  </si>
-  <si>
-    <t>8059149252551</t>
-  </si>
-  <si>
-    <t>8015699006761</t>
-  </si>
-  <si>
-    <t>31449</t>
+    <t>8059149029634</t>
+  </si>
+  <si>
+    <t>8059149428079</t>
+  </si>
+  <si>
+    <t>8059149230511-2</t>
+  </si>
+  <si>
+    <t>8059149430096-2</t>
+  </si>
+  <si>
+    <t>8059149428222</t>
+  </si>
+  <si>
+    <t>8059149252490</t>
+  </si>
+  <si>
+    <t>8015699252175</t>
+  </si>
+  <si>
+    <t>8059149428161</t>
   </si>
   <si>
     <t>31450</t>
   </si>
   <si>
-    <t>86404-12</t>
-  </si>
-  <si>
-    <t>83436 
-83436-64</t>
-  </si>
-  <si>
-    <t>83008</t>
-  </si>
-  <si>
-    <t>83693-12</t>
+    <t>8006455001069</t>
+  </si>
+  <si>
+    <t>86404 
+86404-12</t>
+  </si>
+  <si>
+    <t>86400</t>
+  </si>
+  <si>
+    <t>83436</t>
+  </si>
+  <si>
+    <t>83008-4</t>
   </si>
   <si>
     <t>83720</t>
@@ -1829,56 +2125,114 @@
     <t>83735</t>
   </si>
   <si>
-    <t>83723-24</t>
-  </si>
-  <si>
-    <t>83237</t>
-  </si>
-  <si>
-    <t>83441-32</t>
-  </si>
-  <si>
-    <t>83023</t>
-  </si>
-  <si>
-    <t>83263</t>
-  </si>
-  <si>
-    <t>83265</t>
-  </si>
-  <si>
-    <t>83362</t>
-  </si>
-  <si>
-    <t>82735-12</t>
-  </si>
-  <si>
-    <t>86629</t>
-  </si>
-  <si>
-    <t>86611</t>
-  </si>
-  <si>
-    <t>86612-32</t>
+    <t>83823</t>
+  </si>
+  <si>
+    <t>83825</t>
+  </si>
+  <si>
+    <t>83707-18</t>
+  </si>
+  <si>
+    <t>83723-18</t>
+  </si>
+  <si>
+    <t>83824-12</t>
+  </si>
+  <si>
+    <t>83006-4</t>
+  </si>
+  <si>
+    <t>83857</t>
+  </si>
+  <si>
+    <t>83862-48</t>
+  </si>
+  <si>
+    <t>83442</t>
+  </si>
+  <si>
+    <t>83112-32</t>
+  </si>
+  <si>
+    <t>83263-32</t>
+  </si>
+  <si>
+    <t>83265-32</t>
+  </si>
+  <si>
+    <t>83111</t>
+  </si>
+  <si>
+    <t>83438-32</t>
+  </si>
+  <si>
+    <t>82476-6</t>
+  </si>
+  <si>
+    <t>86402</t>
+  </si>
+  <si>
+    <t>82735</t>
+  </si>
+  <si>
+    <t>86695</t>
+  </si>
+  <si>
+    <t>31426</t>
+  </si>
+  <si>
+    <t>31425-2 
+31425</t>
+  </si>
+  <si>
+    <t>86717</t>
+  </si>
+  <si>
+    <t>86688</t>
+  </si>
+  <si>
+    <t>86615</t>
+  </si>
+  <si>
+    <t>86616</t>
+  </si>
+  <si>
+    <t>31418</t>
+  </si>
+  <si>
+    <t>31416</t>
   </si>
   <si>
     <t>31417</t>
   </si>
   <si>
+    <t>4602533783489-3</t>
+  </si>
+  <si>
     <t>4002633557926</t>
   </si>
   <si>
-    <t>4602533781119-2</t>
-  </si>
-  <si>
-    <t>31470</t>
-  </si>
-  <si>
-    <t>4816193900012 
-4816193900012-2</t>
-  </si>
-  <si>
-    <t>OZN1695738574</t>
+    <t>4602533783465 
+4602533783465-2</t>
+  </si>
+  <si>
+    <t>4602533783472</t>
+  </si>
+  <si>
+    <t>8020997010907</t>
+  </si>
+  <si>
+    <t>8020997012284-3</t>
+  </si>
+  <si>
+    <t>4602533784332</t>
+  </si>
+  <si>
+    <t>8057438753024</t>
+  </si>
+  <si>
+    <t>8057438754670</t>
   </si>
   <si>
     <t>4002064401379</t>
@@ -1887,29 +2241,33 @@
     <t>OZN1695644486</t>
   </si>
   <si>
-    <t>4816193900074-2 
+    <t>4816193900074-10 
 4816193900074-3 
-4816193900074</t>
-  </si>
-  <si>
-    <t>SLIZNECID-2 
+4816193900074-5</t>
+  </si>
+  <si>
+    <t>SLIZNECID-10 
 SLIZNECID-3 
-SLIZNECID-1</t>
+SLIZNECID-5</t>
   </si>
   <si>
     <t>31471</t>
   </si>
   <si>
+    <t>31402</t>
+  </si>
+  <si>
     <t>31472</t>
   </si>
   <si>
     <t>31411</t>
   </si>
   <si>
-    <t>31599</t>
-  </si>
-  <si>
-    <t>5410340614389</t>
+    <t>31413 
+31413-2</t>
+  </si>
+  <si>
+    <t>31474</t>
   </si>
   <si>
     <t>31428</t>
@@ -1918,23 +2276,31 @@
     <t>31559</t>
   </si>
   <si>
-    <t>31427</t>
+    <t>31427 
+31427-3</t>
   </si>
   <si>
     <t>31469</t>
   </si>
   <si>
-    <t>31468 
-31468-2</t>
-  </si>
-  <si>
-    <t>31467</t>
+    <t>31468</t>
+  </si>
+  <si>
+    <t>31467 
+31467-2</t>
   </si>
   <si>
     <t>31617</t>
   </si>
   <si>
-    <t>31615</t>
+    <t>31616</t>
+  </si>
+  <si>
+    <t>31615 
+31615-2</t>
+  </si>
+  <si>
+    <t>4602533786473</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2341,31 +2707,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="H2" s="1">
-        <v>61.7</v>
+        <v>38.67</v>
       </c>
       <c r="I2" s="1">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2373,31 +2739,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="H3" s="1">
-        <v>31.32</v>
+        <v>225.09</v>
       </c>
       <c r="I3" s="1">
-        <v>0.35</v>
+        <v>999999</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2405,31 +2771,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="H4" s="1">
-        <v>203.02</v>
+        <v>243.14</v>
       </c>
       <c r="I4" s="1">
-        <v>4.55</v>
+        <v>8.4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2437,31 +2803,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="H5" s="1">
-        <v>83.19</v>
+        <v>105.73</v>
       </c>
       <c r="I5" s="1">
-        <v>1.05</v>
+        <v>999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2469,31 +2835,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="H6" s="1">
-        <v>968.3299999999999</v>
+        <v>159.36</v>
       </c>
       <c r="I6" s="1">
-        <v>23</v>
+        <v>6.3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2501,31 +2867,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="H7" s="1">
-        <v>98.05</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>2.05</v>
+        <v>999999</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2533,31 +2899,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="H8" s="1">
-        <v>612.3499999999999</v>
+        <v>202.73</v>
       </c>
       <c r="I8" s="1">
-        <v>19.6</v>
+        <v>6.2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2565,31 +2931,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="H9" s="1">
-        <v>354.23</v>
+        <v>109.73</v>
       </c>
       <c r="I9" s="1">
-        <v>6.149999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2597,31 +2963,31 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="H10" s="1">
-        <v>82.73999999999999</v>
+        <v>114.04</v>
       </c>
       <c r="I10" s="1">
-        <v>2.05</v>
+        <v>1999998</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2629,31 +2995,31 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="H11" s="1">
-        <v>379.03</v>
+        <v>28.41</v>
       </c>
       <c r="I11" s="1">
-        <v>11.5</v>
+        <v>0.84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2661,31 +3027,31 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="H12" s="1">
-        <v>98.16</v>
+        <v>63.85</v>
       </c>
       <c r="I12" s="1">
-        <v>1.75</v>
+        <v>999999</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2693,31 +3059,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="H13" s="1">
-        <v>92.59999999999999</v>
+        <v>496.16</v>
       </c>
       <c r="I13" s="1">
-        <v>2.05</v>
+        <v>25.2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2725,31 +3091,31 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="H14" s="1">
-        <v>93.75</v>
+        <v>466.39</v>
       </c>
       <c r="I14" s="1">
-        <v>1.26</v>
+        <v>12.1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2757,31 +3123,31 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="H15" s="1">
-        <v>384.23</v>
+        <v>139.5</v>
       </c>
       <c r="I15" s="1">
-        <v>12.4</v>
+        <v>5.2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2789,31 +3155,31 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="H16" s="1">
-        <v>478.3</v>
+        <v>261.89</v>
       </c>
       <c r="I16" s="1">
-        <v>16.8</v>
+        <v>10.4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2821,31 +3187,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="H17" s="1">
-        <v>104.03</v>
+        <v>525.8</v>
       </c>
       <c r="I17" s="1">
-        <v>3.15</v>
+        <v>25.5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2853,31 +3219,31 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="H18" s="1">
-        <v>157.08</v>
+        <v>953.92</v>
       </c>
       <c r="I18" s="1">
-        <v>6.3</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2885,31 +3251,31 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="H19" s="1">
-        <v>101.49</v>
+        <v>143.19</v>
       </c>
       <c r="I19" s="1">
-        <v>3.15</v>
+        <v>2.25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2917,31 +3283,31 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="F20" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="H20" s="1">
-        <v>325.86</v>
+        <v>162.94</v>
       </c>
       <c r="I20" s="1">
-        <v>9.449999999999999</v>
+        <v>5.52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2949,31 +3315,31 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="H21" s="1">
-        <v>243.71</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1">
-        <v>12.6</v>
+        <v>2.76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2981,31 +3347,31 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>348</v>
+        <v>423</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="H22" s="1">
-        <v>128.96</v>
+        <v>1278.43</v>
       </c>
       <c r="I22" s="1">
-        <v>5.2</v>
+        <v>38.64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3013,31 +3379,31 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="H23" s="1">
-        <v>148.3</v>
+        <v>305.5</v>
       </c>
       <c r="I23" s="1">
-        <v>5.2</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3045,31 +3411,31 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="H24" s="1">
-        <v>189.72</v>
+        <v>231.62</v>
       </c>
       <c r="I24" s="1">
-        <v>5.2</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>508</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3077,31 +3443,31 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="H25" s="1">
-        <v>264.79</v>
+        <v>159.88</v>
       </c>
       <c r="I25" s="1">
-        <v>12.75</v>
+        <v>5.52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3109,31 +3475,31 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="H26" s="1">
-        <v>42.19</v>
+        <v>140.55</v>
       </c>
       <c r="I26" s="1">
-        <v>1.05</v>
+        <v>3.15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3141,31 +3507,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="F27" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="H27" s="1">
-        <v>508.02</v>
+        <v>56.76</v>
       </c>
       <c r="I27" s="1">
-        <v>13.8</v>
+        <v>1.05</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3173,31 +3539,31 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="F28" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="H28" s="1">
-        <v>244.9</v>
+        <v>142.35</v>
       </c>
       <c r="I28" s="1">
-        <v>8.279999999999999</v>
+        <v>10.32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>509</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3205,60 +3571,63 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="H29" s="1">
-        <v>81.84</v>
+        <v>50.57</v>
       </c>
       <c r="I29" s="1">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="H30" s="1">
-        <v>462.98</v>
+        <v>288.73</v>
       </c>
       <c r="I30" s="1">
-        <v>13.8</v>
+        <v>20.64</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>509</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3266,31 +3635,31 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="F31" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="H31" s="1">
-        <v>84.41</v>
+        <v>128.79</v>
       </c>
       <c r="I31" s="1">
-        <v>2.76</v>
+        <v>10.32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>509</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3298,31 +3667,31 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="H32" s="1">
-        <v>78.58</v>
+        <v>46.87</v>
       </c>
       <c r="I32" s="1">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3330,31 +3699,31 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="F33" s="1">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="H33" s="1">
-        <v>944.02</v>
+        <v>136.79</v>
       </c>
       <c r="I33" s="1">
-        <v>35.88</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3362,31 +3731,31 @@
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="H34" s="1">
-        <v>46.35</v>
+        <v>257.44</v>
       </c>
       <c r="I34" s="1">
-        <v>1.05</v>
+        <v>14.3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3394,31 +3763,31 @@
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="F35" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="H35" s="1">
-        <v>43.33</v>
+        <v>1631.69</v>
       </c>
       <c r="I35" s="1">
-        <v>1.32</v>
+        <v>121.8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3426,31 +3795,31 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="H36" s="1">
-        <v>115.38</v>
+        <v>48.24</v>
       </c>
       <c r="I36" s="1">
-        <v>7.15</v>
+        <v>2.1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3458,31 +3827,31 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="H37" s="1">
-        <v>531.66</v>
+        <v>73.52</v>
       </c>
       <c r="I37" s="1">
-        <v>40.6</v>
+        <v>2.64</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>517</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3490,31 +3859,31 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="H38" s="1">
-        <v>51.21</v>
+        <v>78.84</v>
       </c>
       <c r="I38" s="1">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3522,31 +3891,31 @@
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="F39" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="H39" s="1">
-        <v>72.43000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="I39" s="1">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3554,31 +3923,31 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="F40" s="1">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="H40" s="1">
-        <v>311.11</v>
+        <v>573.1900000000001</v>
       </c>
       <c r="I40" s="1">
-        <v>25.8</v>
+        <v>46.44</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3586,31 +3955,31 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="H41" s="1">
-        <v>58.4</v>
+        <v>409.87</v>
       </c>
       <c r="I41" s="1">
-        <v>3.1</v>
+        <v>33.54</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>521</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3618,31 +3987,31 @@
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="H42" s="1">
-        <v>440.2</v>
+        <v>780.96</v>
       </c>
       <c r="I42" s="1">
-        <v>40.6</v>
+        <v>60.90000000000001</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3650,31 +4019,31 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="H43" s="1">
-        <v>53.23</v>
+        <v>59.44</v>
       </c>
       <c r="I43" s="1">
         <v>3.1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3682,31 +4051,31 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="H44" s="1">
-        <v>89.27</v>
+        <v>246.76</v>
       </c>
       <c r="I44" s="1">
-        <v>2</v>
+        <v>20.3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3714,31 +4083,31 @@
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="H45" s="1">
-        <v>274.06</v>
+        <v>755.8199999999999</v>
       </c>
       <c r="I45" s="1">
-        <v>8</v>
+        <v>60.90000000000001</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>525</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3746,31 +4115,31 @@
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="H46" s="1">
-        <v>100.31</v>
+        <v>41.07</v>
       </c>
       <c r="I46" s="1">
-        <v>2.03</v>
+        <v>2.58</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>526</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3778,31 +4147,31 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="H47" s="1">
-        <v>591.3200000000001</v>
+        <v>59.96</v>
       </c>
       <c r="I47" s="1">
-        <v>24.21</v>
+        <v>3.1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3810,31 +4179,31 @@
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="H48" s="1">
-        <v>60.83</v>
+        <v>277.71</v>
       </c>
       <c r="I48" s="1">
-        <v>2.03</v>
+        <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3842,31 +4211,31 @@
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="H49" s="1">
-        <v>72.08</v>
+        <v>268.01</v>
       </c>
       <c r="I49" s="1">
-        <v>2.03</v>
+        <v>8</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3874,31 +4243,31 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="H50" s="1">
-        <v>35.83</v>
+        <v>472.19</v>
       </c>
       <c r="I50" s="1">
-        <v>0.35</v>
+        <v>15.5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3906,31 +4275,31 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="H51" s="1">
-        <v>77.63999999999999</v>
+        <v>288.53</v>
       </c>
       <c r="I51" s="1">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>531</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3938,31 +4307,31 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="H52" s="1">
-        <v>131.08</v>
+        <v>81.66</v>
       </c>
       <c r="I52" s="1">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3970,31 +4339,31 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="H53" s="1">
-        <v>136.39</v>
+        <v>370.36</v>
       </c>
       <c r="I53" s="1">
-        <v>3.075</v>
+        <v>10.2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4002,31 +4371,31 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="H54" s="1">
-        <v>70.06999999999999</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="I54" s="1">
-        <v>4.1</v>
+        <v>2.03</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4034,31 +4403,31 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="H55" s="1">
-        <v>87.64</v>
+        <v>65.98</v>
       </c>
       <c r="I55" s="1">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4066,31 +4435,31 @@
         <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="H56" s="1">
-        <v>189.48</v>
+        <v>524.8099999999999</v>
       </c>
       <c r="I56" s="1">
-        <v>4.725</v>
+        <v>3999996</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>536</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4098,31 +4467,31 @@
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="H57" s="1">
-        <v>387.78</v>
+        <v>103.4</v>
       </c>
       <c r="I57" s="1">
-        <v>21</v>
+        <v>3.15</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4130,31 +4499,31 @@
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="H58" s="1">
-        <v>67.64</v>
+        <v>88.2</v>
       </c>
       <c r="I58" s="1">
-        <v>1.575</v>
+        <v>999999</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>538</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4162,31 +4531,31 @@
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="H59" s="1">
-        <v>144.03</v>
+        <v>50.78</v>
       </c>
       <c r="I59" s="1">
-        <v>3.15</v>
+        <v>0.63</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4194,31 +4563,31 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="H60" s="1">
-        <v>281.6</v>
+        <v>43.68</v>
       </c>
       <c r="I60" s="1">
-        <v>10.5</v>
+        <v>0.63</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>540</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4226,31 +4595,31 @@
         <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="H61" s="1">
-        <v>27.5</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="I61" s="1">
-        <v>0.315</v>
+        <v>2.1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4258,31 +4627,31 @@
         <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="H62" s="1">
-        <v>245.56</v>
+        <v>193.3</v>
       </c>
       <c r="I62" s="1">
-        <v>6.3</v>
+        <v>7.35</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4290,31 +4659,31 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="H63" s="1">
-        <v>26.94</v>
+        <v>104.9</v>
       </c>
       <c r="I63" s="1">
-        <v>0.315</v>
+        <v>1.68</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4322,63 +4691,60 @@
         <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="H64" s="1">
-        <v>140.34</v>
+        <v>633.5700000000001</v>
       </c>
       <c r="I64" s="1">
-        <v>3.15</v>
+        <v>25.2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="H65" s="1">
-        <v>165.28</v>
+        <v>287.73</v>
       </c>
       <c r="I65" s="1">
-        <v>4.2</v>
+        <v>14.25</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4386,31 +4752,31 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="H66" s="1">
-        <v>76.53</v>
+        <v>188.22</v>
       </c>
       <c r="I66" s="1">
-        <v>2.1</v>
+        <v>1999998</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4418,31 +4784,31 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F67" s="1">
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="H67" s="1">
-        <v>570.34</v>
+        <v>72.2</v>
       </c>
       <c r="I67" s="1">
-        <v>25.2</v>
+        <v>8</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4450,31 +4816,31 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>348</v>
+        <v>429</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="H68" s="1">
-        <v>242.98</v>
+        <v>604.0799999999999</v>
       </c>
       <c r="I68" s="1">
-        <v>12.6</v>
+        <v>20.22</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>548</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4482,31 +4848,31 @@
         <v>77</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="H69" s="1">
-        <v>233.61</v>
+        <v>210.3</v>
       </c>
       <c r="I69" s="1">
-        <v>12.6</v>
+        <v>3.96</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4514,31 +4880,31 @@
         <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="H70" s="1">
-        <v>292.91</v>
+        <v>141.89</v>
       </c>
       <c r="I70" s="1">
-        <v>14.25</v>
+        <v>3.52</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>550</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4546,31 +4912,31 @@
         <v>79</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="F71" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="H71" s="1">
-        <v>462.82</v>
+        <v>222.52</v>
       </c>
       <c r="I71" s="1">
-        <v>15.375</v>
+        <v>4.2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4578,31 +4944,31 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="F72" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="H72" s="1">
-        <v>148.23</v>
+        <v>76.31</v>
       </c>
       <c r="I72" s="1">
-        <v>4.9</v>
+        <v>2.76</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4610,31 +4976,31 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="F73" s="1">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="H73" s="1">
-        <v>433.98</v>
+        <v>134.84</v>
       </c>
       <c r="I73" s="1">
-        <v>10.56</v>
+        <v>5.2</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4642,31 +5008,31 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="H74" s="1">
-        <v>42.92</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="I74" s="1">
-        <v>0.7</v>
+        <v>2.76</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4674,31 +5040,31 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="F75" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="H75" s="1">
-        <v>362.7</v>
+        <v>59.34</v>
       </c>
       <c r="I75" s="1">
-        <v>7.425000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4706,31 +5072,31 @@
         <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="F76" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="H76" s="1">
-        <v>75.17</v>
+        <v>146.21</v>
       </c>
       <c r="I76" s="1">
-        <v>2.76</v>
+        <v>4.59</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4738,31 +5104,31 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="F77" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="H77" s="1">
-        <v>142.26</v>
+        <v>217.23</v>
       </c>
       <c r="I77" s="1">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4770,31 +5136,31 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="F78" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="H78" s="1">
-        <v>552.08</v>
+        <v>142.66</v>
       </c>
       <c r="I78" s="1">
-        <v>22.1</v>
+        <v>5.52</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4802,31 +5168,31 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="F79" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="H79" s="1">
-        <v>89.83</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="I79" s="1">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4834,31 +5200,31 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="F80" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="H80" s="1">
-        <v>165.66</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="I80" s="1">
-        <v>3.52</v>
+        <v>1.76</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>560</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4866,31 +5232,31 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="F81" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="H81" s="1">
-        <v>89.48</v>
+        <v>270.55</v>
       </c>
       <c r="I81" s="1">
-        <v>1.76</v>
+        <v>5.28</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4898,31 +5264,31 @@
         <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="F82" s="1">
         <v>16</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="H82" s="1">
-        <v>83.81999999999999</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="I82" s="1">
         <v>1.76</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4930,31 +5296,31 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="F83" s="1">
         <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="H83" s="1">
-        <v>161.38</v>
+        <v>164.19</v>
       </c>
       <c r="I83" s="1">
         <v>3.52</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4962,31 +5328,31 @@
         <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="F84" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="H84" s="1">
-        <v>83.81999999999999</v>
+        <v>164.05</v>
       </c>
       <c r="I84" s="1">
-        <v>1.76</v>
+        <v>3.52</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4994,31 +5360,31 @@
         <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="F85" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="H85" s="1">
-        <v>157.22</v>
+        <v>163.64</v>
       </c>
       <c r="I85" s="1">
-        <v>5.55</v>
+        <v>3.52</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5026,31 +5392,31 @@
         <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="F86" s="1">
         <v>16</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="H86" s="1">
-        <v>131.04</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="I86" s="1">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>509</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5058,31 +5424,31 @@
         <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="F87" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="H87" s="1">
-        <v>78.16</v>
+        <v>157.97</v>
       </c>
       <c r="I87" s="1">
-        <v>1.44</v>
+        <v>3.52</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>509</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5090,31 +5456,31 @@
         <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F88" s="1">
         <v>6</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="H88" s="1">
-        <v>83.95999999999999</v>
+        <v>91.61</v>
       </c>
       <c r="I88" s="1">
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>509</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5122,31 +5488,31 @@
         <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F89" s="1">
         <v>6</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="H89" s="1">
-        <v>78.40000000000001</v>
+        <v>84.72</v>
       </c>
       <c r="I89" s="1">
-        <v>1.44</v>
+        <v>2.76</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>509</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5154,31 +5520,31 @@
         <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="F90" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="H90" s="1">
-        <v>121.25</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="I90" s="1">
-        <v>1.76</v>
+        <v>2.76</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>566</v>
+        <v>653</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5186,31 +5552,31 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="F91" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="H91" s="1">
-        <v>113.68</v>
+        <v>156.47</v>
       </c>
       <c r="I91" s="1">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5218,31 +5584,31 @@
         <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="F92" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="H92" s="1">
-        <v>213.75</v>
+        <v>236.01</v>
       </c>
       <c r="I92" s="1">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5250,31 +5616,31 @@
         <v>101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="F93" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="H93" s="1">
-        <v>79.72</v>
+        <v>235.7</v>
       </c>
       <c r="I93" s="1">
-        <v>4.1</v>
+        <v>4.32</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5282,31 +5648,31 @@
         <v>102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="F94" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="H94" s="1">
-        <v>299.55</v>
+        <v>125.17</v>
       </c>
       <c r="I94" s="1">
-        <v>12.75</v>
+        <v>2.88</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5314,31 +5680,31 @@
         <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="F95" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="H95" s="1">
-        <v>24.86</v>
+        <v>164.3</v>
       </c>
       <c r="I95" s="1">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5346,89 +5712,95 @@
         <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="H96" s="1">
-        <v>201.42</v>
+        <v>122.6</v>
       </c>
       <c r="I96" s="1">
-        <v>12.2</v>
+        <v>1.76</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>572</v>
+        <v>654</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="F97" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="H97" s="1">
-        <v>338</v>
+        <v>54.36</v>
       </c>
       <c r="I97" s="1">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="H98" s="1">
-        <v>27.26</v>
+        <v>512.28</v>
       </c>
       <c r="I98" s="1">
-        <v>0.31</v>
+        <v>24.6</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -5436,118 +5808,127 @@
         <v>107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="F99" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="H99" s="1">
-        <v>35.63</v>
+        <v>148.09</v>
       </c>
       <c r="I99" s="1">
-        <v>0.06</v>
+        <v>2.34</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="H100" s="1">
-        <v>57.36</v>
+        <v>114.84</v>
       </c>
       <c r="I100" s="1">
-        <v>0.54</v>
+        <v>1.76</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="F101" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="H101" s="1">
-        <v>1150.92</v>
+        <v>118.01</v>
       </c>
       <c r="I101" s="1">
-        <v>10.45</v>
+        <v>1.76</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="F102" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="H102" s="1">
-        <v>1150.92</v>
+        <v>114.84</v>
       </c>
       <c r="I102" s="1">
-        <v>10.45</v>
+        <v>1.76</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5555,31 +5936,31 @@
         <v>111</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="H103" s="1">
-        <v>172.6</v>
+        <v>94.87</v>
       </c>
       <c r="I103" s="1">
-        <v>12.2</v>
+        <v>3.06</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5587,31 +5968,31 @@
         <v>112</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="H104" s="1">
-        <v>174.27</v>
+        <v>244.29</v>
       </c>
       <c r="I104" s="1">
-        <v>12.2</v>
+        <v>15.3</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5619,31 +6000,31 @@
         <v>113</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F105" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="H105" s="1">
-        <v>517.98</v>
+        <v>330.6</v>
       </c>
       <c r="I105" s="1">
-        <v>40.8</v>
+        <v>16.4</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5651,31 +6032,31 @@
         <v>114</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="F106" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="H106" s="1">
-        <v>223.4</v>
+        <v>71.02</v>
       </c>
       <c r="I106" s="1">
-        <v>12.2</v>
+        <v>3.12</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5683,31 +6064,31 @@
         <v>115</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="H107" s="1">
-        <v>48.79000000000001</v>
+        <v>323.65</v>
       </c>
       <c r="I107" s="1">
-        <v>1.05</v>
+        <v>12.75</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5715,31 +6096,31 @@
         <v>116</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="F108" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="H108" s="1">
-        <v>47.05</v>
+        <v>56.06</v>
       </c>
       <c r="I108" s="1">
-        <v>1.53</v>
+        <v>3.12</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5747,31 +6128,31 @@
         <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="H109" s="1">
-        <v>532.49</v>
+        <v>23.3</v>
       </c>
       <c r="I109" s="1">
-        <v>30.6</v>
+        <v>1.04</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5779,60 +6160,63 @@
         <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F110" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="H110" s="1">
-        <v>1253.4</v>
+        <v>324.48</v>
       </c>
       <c r="I110" s="1">
-        <v>57.39999999999999</v>
+        <v>41</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C111" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="F111" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="H111" s="1">
-        <v>80.56</v>
+        <v>237.19</v>
       </c>
       <c r="I111" s="1">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>509</v>
+        <v>669</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5840,31 +6224,31 @@
         <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F112" s="1">
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="H112" s="1">
-        <v>53.78</v>
+        <v>17.63</v>
       </c>
       <c r="I112" s="1">
-        <v>1.03</v>
+        <v>0.09</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5872,31 +6256,31 @@
         <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="F113" s="1">
         <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="H113" s="1">
-        <v>310.91</v>
+        <v>110.85</v>
       </c>
       <c r="I113" s="1">
-        <v>9.149999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>588</v>
+        <v>671</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5904,31 +6288,31 @@
         <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F114" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="H114" s="1">
-        <v>1358.92</v>
+        <v>146.93</v>
       </c>
       <c r="I114" s="1">
-        <v>48.3</v>
+        <v>1.6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5936,63 +6320,630 @@
         <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F115" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="H115" s="1">
-        <v>51.18</v>
+        <v>71.03</v>
       </c>
       <c r="I115" s="1">
-        <v>1.03</v>
+        <v>0.12</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>348</v>
+        <v>435</v>
       </c>
       <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H116" s="1">
+        <v>60.24</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117" s="1">
+        <v>31</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H117" s="1">
+        <v>679.04</v>
+      </c>
+      <c r="I117" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="1">
+        <v>31</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H118" s="1">
+        <v>679.04</v>
+      </c>
+      <c r="I118" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F119" s="1">
+        <v>3</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H119" s="1">
+        <v>458.91</v>
+      </c>
+      <c r="I119" s="1">
+        <v>36.59999999999999</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H120" s="1">
+        <v>242.06</v>
+      </c>
+      <c r="I120" s="1">
+        <v>20.4</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F121" s="1">
         <v>2</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H116" s="1">
-        <v>426.04</v>
-      </c>
-      <c r="I116" s="1">
-        <v>16.1</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>591</v>
+      <c r="G121" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H121" s="1">
+        <v>354.26</v>
+      </c>
+      <c r="I121" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F122" s="1">
+        <v>7</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1799.34</v>
+      </c>
+      <c r="I122" s="1">
+        <v>142.8</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F123" s="1">
+        <v>4</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H123" s="1">
+        <v>302.86</v>
+      </c>
+      <c r="I123" s="1">
+        <v>16.4</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H124" s="1">
+        <v>236.53</v>
+      </c>
+      <c r="I124" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F125" s="1">
+        <v>3</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H125" s="1">
+        <v>140.72</v>
+      </c>
+      <c r="I125" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H126" s="1">
+        <v>558.62</v>
+      </c>
+      <c r="I126" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F127" s="1">
+        <v>19</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1667.76</v>
+      </c>
+      <c r="I127" s="1">
+        <v>77.89999999999999</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F128" s="1">
+        <v>3</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H128" s="1">
+        <v>134.09</v>
+      </c>
+      <c r="I128" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F129" s="1">
+        <v>5</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H129" s="1">
+        <v>571.74</v>
+      </c>
+      <c r="I129" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F130" s="1">
+        <v>18</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H130" s="1">
+        <v>3878.72</v>
+      </c>
+      <c r="I130" s="1">
+        <v>144.9</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F131" s="1">
+        <v>4</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H131" s="1">
+        <v>178.56</v>
+      </c>
+      <c r="I131" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H132" s="1">
+        <v>345.52</v>
+      </c>
+      <c r="I132" s="1">
+        <v>9.149999999999999</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F133" s="1">
+        <v>6</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1310.02</v>
+      </c>
+      <c r="I133" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H134" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="805">
   <si>
     <t>Артикул</t>
   </si>
@@ -139,18 +139,12 @@
     <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Complete CH TURK 2кг </t>
   </si>
   <si>
-    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Urinary МКБ 2кг </t>
-  </si>
-  <si>
     <t xml:space="preserve">ЗООМ GMN КОТ ВЗР Urinary МКБ 7кг </t>
   </si>
   <si>
     <t xml:space="preserve">ЗООМ GMN КОТ ВЗР СТДЗ Turkey 20кг </t>
   </si>
   <si>
-    <t xml:space="preserve">ЗООМ GMN КОТ ВЗР СТДЗ Turkey 2кг </t>
-  </si>
-  <si>
     <t xml:space="preserve">ЗООМ GMN КОТ ПОЖ Индейка 100г </t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t xml:space="preserve">ЗООМ GMN СОБ ВЗР МЕЛК SALM RICE 3кг </t>
   </si>
   <si>
-    <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ TUNA RICE 20кг </t>
-  </si>
-  <si>
     <t xml:space="preserve">ЗООМ GMN СОБ ВЗР ВСЕ Lamb Rice 20кг </t>
   </si>
   <si>
@@ -538,18 +529,12 @@
     <t>GC Adult Complete CHICKEN/TURKEY (2кг) Корм для взрослых кошек с курицей и индейкой</t>
   </si>
   <si>
-    <t>GC URINARY Chicken/Rice (2кг) Корм с цыплёнком и рисом для кошек / профилактика МКБ</t>
-  </si>
-  <si>
     <t>GC URINARY Chicken/Rice (7кг) Корм с цыплёнком и рисом для кошек / профилактика МКБ</t>
   </si>
   <si>
     <t>GC Sterilized (20кг) Корм для стерилизованных кошек с индейкой</t>
   </si>
   <si>
-    <t>GC Sterilized TURKEY (2кг) Корм для стерилизованных кошек с индейкой</t>
-  </si>
-  <si>
     <t>wGC P Senior Turkey (пауч 100гр) / Консерв. корм с индейкой для пожилых кошек</t>
   </si>
   <si>
@@ -569,9 +554,6 @@
   </si>
   <si>
     <t xml:space="preserve">GD MINI Adult SALMON / RICE (3кг) Корм для взрослых собак мелких пород с лососем и рисом </t>
-  </si>
-  <si>
-    <t>GD Adult TUNA / RICE (20кг) Корм для взрослых собак всех пород с тунцом и рисом</t>
   </si>
   <si>
     <t>GD Adult LAMB / RICE (20кг) Корм для взрослых собак всех пород с ягненком и рисом</t>
@@ -929,16 +911,10 @@
     <t>Gemon корм для кошек сухой Complete с курицей и индейкой 2кг</t>
   </si>
   <si>
-    <t>Gemon корм для кошек сухой Urinary для профилактики мочекаменных болезней с курицей и рисом 2кг</t>
-  </si>
-  <si>
     <t>Gemon корм для кошек сухой Urinary для профилактики мочекаменных болезней с курицей и рисом 7кг</t>
   </si>
   <si>
     <t>Gemon корм для кошек сухой стерилизованных с индейкой 20кг</t>
-  </si>
-  <si>
-    <t>Gemon корм для кошек сухой стерилизованных с индейкой 2кг</t>
   </si>
   <si>
     <t>Gemon корм для пожилых кошек влажный с индейкой 100г 24шт</t>
@@ -965,9 +941,6 @@
   </si>
   <si>
     <t>Gemon корм для собак сухой мелких пород с лососем и рисом 3кг</t>
-  </si>
-  <si>
-    <t>Gemon корм для собак сухой с тунцом и рисом 20кг</t>
   </si>
   <si>
     <t>Gemon корм для собак сухой с ягненком и рисом 20кг</t>
@@ -1493,11 +1466,6 @@
     <t>0110154099-0075-2</t>
   </si>
   <si>
-    <t>32456499-0007-2 
-0130978106-0158-1 
-0177172530-0003-1</t>
-  </si>
-  <si>
     <t>67011136-0058-1 
 12843149-0213-1</t>
   </si>
@@ -1510,9 +1478,6 @@
 0138817978-0015-1</t>
   </si>
   <si>
-    <t>17693639-0256-1</t>
-  </si>
-  <si>
     <t>03935592-0149-2</t>
   </si>
   <si>
@@ -1524,8 +1489,8 @@
   <si>
     <t>68383070-0244-1 
 0159332340-0023-2 
+40087636-0338-1 
 40087636-0338-3 
-40087636-0338-1 
 73609938-0426-5 
 42894995-0185-1</t>
   </si>
@@ -1542,9 +1507,6 @@
   </si>
   <si>
     <t>61895667-0314-4</t>
-  </si>
-  <si>
-    <t>67036937-0585-1</t>
   </si>
   <si>
     <t>0127028617-0038-3 
@@ -1858,10 +1820,10 @@
 24087485-0194-1 
 42379491-0116-2 
 81367988-0048-1 
+70928817-0082-1 
+51012864-0142-1 
 48014856-0031-1 
 62142496-0221-1 
-70928817-0082-1 
-51012864-0142-1 
 61724421-0097-1</t>
   </si>
   <si>
@@ -1914,6 +1876,387 @@
     <t>50776458-0071-3</t>
   </si>
   <si>
+    <t>38,48</t>
+  </si>
+  <si>
+    <t>223,98</t>
+  </si>
+  <si>
+    <t>241,94</t>
+  </si>
+  <si>
+    <t>105,21</t>
+  </si>
+  <si>
+    <t>79,2879,28</t>
+  </si>
+  <si>
+    <t>72,99</t>
+  </si>
+  <si>
+    <t>201,72</t>
+  </si>
+  <si>
+    <t>109,19</t>
+  </si>
+  <si>
+    <t>58,5954,89</t>
+  </si>
+  <si>
+    <t>28,27</t>
+  </si>
+  <si>
+    <t>63,54</t>
+  </si>
+  <si>
+    <t>247,20246,51</t>
+  </si>
+  <si>
+    <t>464,08</t>
+  </si>
+  <si>
+    <t>138,81</t>
+  </si>
+  <si>
+    <t>130,19130,40</t>
+  </si>
+  <si>
+    <t>261,60261,60</t>
+  </si>
+  <si>
+    <t>237,44237,44237,02237,30</t>
+  </si>
+  <si>
+    <t>142,48</t>
+  </si>
+  <si>
+    <t>162,13</t>
+  </si>
+  <si>
+    <t>81,60</t>
+  </si>
+  <si>
+    <t>161,89242,84532,4382,5781,6082,6488,14</t>
+  </si>
+  <si>
+    <t>303,99</t>
+  </si>
+  <si>
+    <t>145,6684,82</t>
+  </si>
+  <si>
+    <t>79,4679,63</t>
+  </si>
+  <si>
+    <t>46,6246,6246,62</t>
+  </si>
+  <si>
+    <t>56,48</t>
+  </si>
+  <si>
+    <t>141,65</t>
+  </si>
+  <si>
+    <t>50,32</t>
+  </si>
+  <si>
+    <t>143,48143,83</t>
+  </si>
+  <si>
+    <t>128,15</t>
+  </si>
+  <si>
+    <t>46,64</t>
+  </si>
+  <si>
+    <t>116,66139,50</t>
+  </si>
+  <si>
+    <t>269,62269,62269,24276,37269,38269,38</t>
+  </si>
+  <si>
+    <t>73,16</t>
+  </si>
+  <si>
+    <t>78,45</t>
+  </si>
+  <si>
+    <t>55,13</t>
+  </si>
+  <si>
+    <t>65,7270,04178,30178,3040,3237,69</t>
+  </si>
+  <si>
+    <t>65,72123,20178,0540,87</t>
+  </si>
+  <si>
+    <t>269,55237,99269,55</t>
+  </si>
+  <si>
+    <t>59,14</t>
+  </si>
+  <si>
+    <t>245,54245,54261,01</t>
+  </si>
+  <si>
+    <t>40,87</t>
+  </si>
+  <si>
+    <t>59,66</t>
+  </si>
+  <si>
+    <t>276,34</t>
+  </si>
+  <si>
+    <t>266,68</t>
+  </si>
+  <si>
+    <t>227,89241,97</t>
+  </si>
+  <si>
+    <t>287,10</t>
+  </si>
+  <si>
+    <t>81,26</t>
+  </si>
+  <si>
+    <t>368,53</t>
+  </si>
+  <si>
+    <t>75,44</t>
+  </si>
+  <si>
+    <t>65,65</t>
+  </si>
+  <si>
+    <t>128,43128,53128,43136,84</t>
+  </si>
+  <si>
+    <t>102,89</t>
+  </si>
+  <si>
+    <t>87,76</t>
+  </si>
+  <si>
+    <t>50,53</t>
+  </si>
+  <si>
+    <t>43,47</t>
+  </si>
+  <si>
+    <t>73,12</t>
+  </si>
+  <si>
+    <t>192,35</t>
+  </si>
+  <si>
+    <t>52,1952,19</t>
+  </si>
+  <si>
+    <t>324,86305,58</t>
+  </si>
+  <si>
+    <t>286,30</t>
+  </si>
+  <si>
+    <t>93,7293,58</t>
+  </si>
+  <si>
+    <t>35,9235,92</t>
+  </si>
+  <si>
+    <t>68,4982,02150,19150,19150,19</t>
+  </si>
+  <si>
+    <t>108,08101,19</t>
+  </si>
+  <si>
+    <t>72,8868,31</t>
+  </si>
+  <si>
+    <t>110,71110,71</t>
+  </si>
+  <si>
+    <t>75,93</t>
+  </si>
+  <si>
+    <t>134,17</t>
+  </si>
+  <si>
+    <t>76,47</t>
+  </si>
+  <si>
+    <t>59,05</t>
+  </si>
+  <si>
+    <t>145,49</t>
+  </si>
+  <si>
+    <t>216,16</t>
+  </si>
+  <si>
+    <t>141,96</t>
+  </si>
+  <si>
+    <t>82,05</t>
+  </si>
+  <si>
+    <t>84,79</t>
+  </si>
+  <si>
+    <t>269,21</t>
+  </si>
+  <si>
+    <t>163,38</t>
+  </si>
+  <si>
+    <t>163,24</t>
+  </si>
+  <si>
+    <t>162,83</t>
+  </si>
+  <si>
+    <t>84,65</t>
+  </si>
+  <si>
+    <t>157,18</t>
+  </si>
+  <si>
+    <t>91,15</t>
+  </si>
+  <si>
+    <t>84,30</t>
+  </si>
+  <si>
+    <t>84,10</t>
+  </si>
+  <si>
+    <t>155,70</t>
+  </si>
+  <si>
+    <t>155,7079,15</t>
+  </si>
+  <si>
+    <t>155,3279,22</t>
+  </si>
+  <si>
+    <t>124,55</t>
+  </si>
+  <si>
+    <t>79,2284,27</t>
+  </si>
+  <si>
+    <t>121,99</t>
+  </si>
+  <si>
+    <t>54,09</t>
+  </si>
+  <si>
+    <t>163,97163,9790,9190,91</t>
+  </si>
+  <si>
+    <t>147,36</t>
+  </si>
+  <si>
+    <t>114,27</t>
+  </si>
+  <si>
+    <t>117,42</t>
+  </si>
+  <si>
+    <t>45,6548,76</t>
+  </si>
+  <si>
+    <t>243,08</t>
+  </si>
+  <si>
+    <t>80,5385,6980,5382,23</t>
+  </si>
+  <si>
+    <t>70,67</t>
+  </si>
+  <si>
+    <t>322,05</t>
+  </si>
+  <si>
+    <t>21,7334,05</t>
+  </si>
+  <si>
+    <t>23,19</t>
+  </si>
+  <si>
+    <t>161,44161,44</t>
+  </si>
+  <si>
+    <t>236,02</t>
+  </si>
+  <si>
+    <t>17,55</t>
+  </si>
+  <si>
+    <t>34,4334,4341,42</t>
+  </si>
+  <si>
+    <t>78,4167,80</t>
+  </si>
+  <si>
+    <t>17,9317,5817,5817,58</t>
+  </si>
+  <si>
+    <t>59,94</t>
+  </si>
+  <si>
+    <t>201,7974,7973,30108,60108,60108,60</t>
+  </si>
+  <si>
+    <t>163,52163,79129,33</t>
+  </si>
+  <si>
+    <t>240,86</t>
+  </si>
+  <si>
+    <t>176,25176,25</t>
+  </si>
+  <si>
+    <t>253,63269,69253,63253,43252,98253,63253,43</t>
+  </si>
+  <si>
+    <t>80,5380,36140,47</t>
+  </si>
+  <si>
+    <t>71,5081,9881,88</t>
+  </si>
+  <si>
+    <t>42,1550,5347,34</t>
+  </si>
+  <si>
+    <t>286,27269,59</t>
+  </si>
+  <si>
+    <t>88,0488,1487,9087,9088,1487,9087,9093,7588,1488,1493,9688,0488,1493,7587,9088,04233,70</t>
+  </si>
+  <si>
+    <t>40,6238,6554,16</t>
+  </si>
+  <si>
+    <t>112,30112,37112,30119,64112,30</t>
+  </si>
+  <si>
+    <t>223,94224,15224,15224,15224,15224,15223,84223,84223,84224,15405,04405,04405,04404,11</t>
+  </si>
+  <si>
+    <t>51,6346,7840,6238,65</t>
+  </si>
+  <si>
+    <t>114,79114,51114,51</t>
+  </si>
+  <si>
+    <t>228,68178,99228,93228,93438,02</t>
+  </si>
+  <si>
+    <t>19,28</t>
+  </si>
+  <si>
     <t>064992714628</t>
   </si>
   <si>
@@ -2005,16 +2348,10 @@
     <t>8009470297158</t>
   </si>
   <si>
-    <t>8009470297189</t>
-  </si>
-  <si>
     <t>8009470297301</t>
   </si>
   <si>
     <t>8009470310048</t>
-  </si>
-  <si>
-    <t>8009470297172</t>
   </si>
   <si>
     <t>8009470300889-24</t>
@@ -2041,9 +2378,6 @@
   </si>
   <si>
     <t>8009470386067</t>
-  </si>
-  <si>
-    <t>8009470005609</t>
   </si>
   <si>
     <t>8009470005616</t>
@@ -2661,7 +2995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z134"/>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2707,31 +3041,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="1">
-        <v>38.67</v>
+        <v>429</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="I2" s="1">
         <v>0.35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>570</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2739,31 +3073,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H3" s="1">
-        <v>225.09</v>
+        <v>430</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="I3" s="1">
         <v>999999</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>571</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2771,31 +3105,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" s="1">
-        <v>243.14</v>
+        <v>431</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="I4" s="1">
         <v>8.4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>572</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2803,31 +3137,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H5" s="1">
-        <v>105.73</v>
+        <v>432</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="I5" s="1">
         <v>999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>573</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2835,31 +3169,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H6" s="1">
-        <v>159.36</v>
+        <v>433</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="I6" s="1">
         <v>6.3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>574</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2867,31 +3201,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H7" s="1">
-        <v>73.34999999999999</v>
+        <v>434</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="I7" s="1">
         <v>999999</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>575</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2899,31 +3233,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H8" s="1">
-        <v>202.73</v>
+        <v>435</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="I8" s="1">
         <v>6.2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>576</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2931,31 +3265,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H9" s="1">
-        <v>109.73</v>
+        <v>436</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="I9" s="1">
         <v>3.15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>577</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2963,31 +3297,31 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H10" s="1">
-        <v>114.04</v>
+        <v>437</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="I10" s="1">
         <v>1999998</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>578</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2995,31 +3329,31 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H11" s="1">
-        <v>28.41</v>
+        <v>438</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="I11" s="1">
         <v>0.84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>579</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3027,31 +3361,31 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H12" s="1">
-        <v>63.85</v>
+        <v>439</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="I12" s="1">
         <v>999999</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>580</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3059,31 +3393,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H13" s="1">
-        <v>496.16</v>
+        <v>440</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="I13" s="1">
         <v>25.2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3091,31 +3425,31 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H14" s="1">
-        <v>466.39</v>
+        <v>441</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="I14" s="1">
         <v>12.1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>582</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3123,31 +3457,31 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H15" s="1">
-        <v>139.5</v>
+        <v>442</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="I15" s="1">
         <v>5.2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>583</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3155,31 +3489,31 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H16" s="1">
-        <v>261.89</v>
+        <v>443</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="I16" s="1">
         <v>10.4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>584</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3187,31 +3521,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H17" s="1">
-        <v>525.8</v>
+        <v>444</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="I17" s="1">
         <v>25.5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>585</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3219,31 +3553,31 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H18" s="1">
-        <v>953.92</v>
+        <v>445</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="I18" s="1">
         <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>586</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3251,31 +3585,31 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="1">
-        <v>143.19</v>
+        <v>446</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="I19" s="1">
         <v>2.25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>587</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3283,31 +3617,31 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H20" s="1">
-        <v>162.94</v>
+        <v>447</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="I20" s="1">
         <v>5.52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>585</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3315,31 +3649,31 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H21" s="1">
-        <v>82</v>
+        <v>448</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="I21" s="1">
         <v>2.76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>585</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3347,31 +3681,31 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F22" s="1">
         <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1278.43</v>
+        <v>449</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="I22" s="1">
         <v>38.64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>588</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3379,31 +3713,31 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F23" s="1">
         <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H23" s="1">
-        <v>305.5</v>
+        <v>450</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="I23" s="1">
         <v>8.279999999999999</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>589</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3411,31 +3745,31 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F24" s="1">
         <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H24" s="1">
-        <v>231.62</v>
+        <v>451</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="I24" s="1">
         <v>8.279999999999999</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>590</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3443,31 +3777,31 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F25" s="1">
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H25" s="1">
-        <v>159.88</v>
+        <v>452</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="I25" s="1">
         <v>5.52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>591</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3475,31 +3809,31 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H26" s="1">
-        <v>140.55</v>
+        <v>453</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="I26" s="1">
         <v>3.15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>592</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3507,31 +3841,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H27" s="1">
-        <v>56.76</v>
+        <v>454</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="I27" s="1">
         <v>1.05</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>593</v>
+        <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3539,31 +3873,31 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F28" s="1">
         <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H28" s="1">
-        <v>142.35</v>
+        <v>455</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="I28" s="1">
         <v>10.32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>594</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3571,31 +3905,31 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H29" s="1">
-        <v>50.57</v>
+        <v>456</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="I29" s="1">
         <v>2.1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>595</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3603,31 +3937,31 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F30" s="1">
         <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H30" s="1">
-        <v>288.73</v>
+        <v>457</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="I30" s="1">
         <v>20.64</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>596</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3635,31 +3969,31 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F31" s="1">
         <v>24</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H31" s="1">
-        <v>128.79</v>
+        <v>458</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="I31" s="1">
         <v>10.32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>597</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3667,31 +4001,31 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H32" s="1">
-        <v>46.87</v>
+        <v>459</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="I32" s="1">
         <v>2.1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>598</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3699,31 +4033,31 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H33" s="1">
-        <v>136.79</v>
+        <v>460</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="I33" s="1">
-        <v>6.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>599</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3731,31 +4065,31 @@
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H34" s="1">
-        <v>257.44</v>
+        <v>461</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="I34" s="1">
-        <v>14.3</v>
+        <v>121.8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>600</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3763,31 +4097,31 @@
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1631.69</v>
+        <v>462</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="I35" s="1">
-        <v>121.8</v>
+        <v>2.64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>601</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3795,31 +4129,31 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H36" s="1">
-        <v>48.24</v>
+        <v>463</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="I36" s="1">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>602</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3827,31 +4161,31 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F37" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H37" s="1">
-        <v>73.52</v>
+        <v>464</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="I37" s="1">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>603</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3859,31 +4193,31 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F38" s="1">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H38" s="1">
-        <v>78.84</v>
+        <v>465</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="I38" s="1">
-        <v>2.64</v>
+        <v>46.44</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>604</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3891,31 +4225,31 @@
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F39" s="1">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H39" s="1">
-        <v>55.4</v>
+        <v>466</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="I39" s="1">
-        <v>2.1</v>
+        <v>33.54</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>605</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3923,31 +4257,31 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="F40" s="1">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H40" s="1">
-        <v>573.1900000000001</v>
+        <v>467</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="I40" s="1">
-        <v>46.44</v>
+        <v>60.90000000000001</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>606</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3955,31 +4289,31 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="F41" s="1">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H41" s="1">
-        <v>409.87</v>
+        <v>468</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="I41" s="1">
-        <v>33.54</v>
+        <v>3.1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>607</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3987,31 +4321,31 @@
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H42" s="1">
-        <v>780.96</v>
+        <v>469</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="I42" s="1">
         <v>60.90000000000001</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>608</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4019,31 +4353,31 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H43" s="1">
-        <v>59.44</v>
+        <v>470</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="I43" s="1">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>609</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4051,31 +4385,31 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H44" s="1">
-        <v>246.76</v>
+        <v>471</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="I44" s="1">
-        <v>20.3</v>
+        <v>3.1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>610</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4083,31 +4417,31 @@
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H45" s="1">
-        <v>755.8199999999999</v>
+        <v>472</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="I45" s="1">
-        <v>60.90000000000001</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>611</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4115,31 +4449,31 @@
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F46" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H46" s="1">
-        <v>41.07</v>
+        <v>473</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="I46" s="1">
-        <v>2.58</v>
+        <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>612</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4147,31 +4481,31 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H47" s="1">
-        <v>59.96</v>
+        <v>474</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="I47" s="1">
-        <v>3.1</v>
+        <v>15.5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>613</v>
+        <v>700</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4179,31 +4513,31 @@
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H48" s="1">
-        <v>277.71</v>
+        <v>475</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="I48" s="1">
         <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4211,31 +4545,31 @@
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H49" s="1">
-        <v>268.01</v>
+        <v>476</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="I49" s="1">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>615</v>
+        <v>728</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4243,31 +4577,31 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H50" s="1">
-        <v>472.19</v>
+        <v>477</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="I50" s="1">
-        <v>15.5</v>
+        <v>10.2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>585</v>
+        <v>729</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4275,31 +4609,31 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H51" s="1">
-        <v>288.53</v>
+        <v>478</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="I51" s="1">
-        <v>8</v>
+        <v>2.03</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>585</v>
+        <v>730</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4307,31 +4641,31 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H52" s="1">
-        <v>81.66</v>
+        <v>479</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="I52" s="1">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>616</v>
+        <v>731</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4339,31 +4673,31 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H53" s="1">
-        <v>370.36</v>
+        <v>480</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="I53" s="1">
-        <v>10.2</v>
+        <v>3999996</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>617</v>
+        <v>732</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4371,31 +4705,31 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H54" s="1">
-        <v>75.81999999999999</v>
+        <v>481</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="I54" s="1">
-        <v>2.03</v>
+        <v>3.15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>618</v>
+        <v>733</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4403,31 +4737,31 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H55" s="1">
-        <v>65.98</v>
+        <v>482</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="I55" s="1">
-        <v>2.03</v>
+        <v>999999</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>619</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4435,31 +4769,31 @@
         <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H56" s="1">
-        <v>524.8099999999999</v>
+        <v>483</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="I56" s="1">
-        <v>3999996</v>
+        <v>0.63</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>620</v>
+        <v>735</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4467,31 +4801,31 @@
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H57" s="1">
-        <v>103.4</v>
+        <v>484</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="I57" s="1">
-        <v>3.15</v>
+        <v>0.63</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>621</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4499,31 +4833,31 @@
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H58" s="1">
-        <v>88.2</v>
+        <v>485</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="I58" s="1">
-        <v>999999</v>
+        <v>2.1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>622</v>
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4531,31 +4865,31 @@
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H59" s="1">
-        <v>50.78</v>
+        <v>486</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="I59" s="1">
-        <v>0.63</v>
+        <v>7.35</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>623</v>
+        <v>738</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4563,31 +4897,31 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H60" s="1">
-        <v>43.68</v>
+        <v>487</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="I60" s="1">
-        <v>0.63</v>
+        <v>1.68</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>624</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4595,63 +4929,60 @@
         <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H61" s="1">
-        <v>73.48999999999999</v>
+        <v>488</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="I61" s="1">
-        <v>2.1</v>
+        <v>25.2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>625</v>
+        <v>740</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H62" s="1">
-        <v>193.3</v>
+        <v>489</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="I62" s="1">
-        <v>7.35</v>
+        <v>14.25</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4659,31 +4990,31 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H63" s="1">
-        <v>104.9</v>
+        <v>490</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="I63" s="1">
-        <v>1.68</v>
+        <v>1999998</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>627</v>
+        <v>741</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4691,60 +5022,63 @@
         <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H64" s="1">
-        <v>633.5700000000001</v>
+        <v>491</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="I64" s="1">
-        <v>25.2</v>
+        <v>8</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>628</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H65" s="1">
-        <v>287.73</v>
+        <v>492</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="I65" s="1">
-        <v>14.25</v>
+        <v>20.22</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>585</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4752,31 +5086,31 @@
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H66" s="1">
-        <v>188.22</v>
+        <v>493</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="I66" s="1">
-        <v>1999998</v>
+        <v>3.96</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>629</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4784,31 +5118,31 @@
         <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="F67" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H67" s="1">
-        <v>72.2</v>
+        <v>494</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="I67" s="1">
-        <v>8</v>
+        <v>3.52</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>630</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4816,31 +5150,31 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="F68" s="1">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H68" s="1">
-        <v>604.0799999999999</v>
+        <v>495</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="I68" s="1">
-        <v>20.22</v>
+        <v>4.2</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>631</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4848,31 +5182,31 @@
         <v>77</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="F69" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H69" s="1">
-        <v>210.3</v>
+        <v>496</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="I69" s="1">
-        <v>3.96</v>
+        <v>2.76</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>632</v>
+        <v>747</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4880,31 +5214,31 @@
         <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="F70" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H70" s="1">
-        <v>141.89</v>
+        <v>497</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="I70" s="1">
-        <v>3.52</v>
+        <v>5.2</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>633</v>
+        <v>748</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4912,31 +5246,31 @@
         <v>79</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F71" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H71" s="1">
-        <v>222.52</v>
+        <v>498</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="I71" s="1">
-        <v>4.2</v>
+        <v>2.76</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>634</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4944,31 +5278,31 @@
         <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F72" s="1">
         <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H72" s="1">
-        <v>76.31</v>
+        <v>499</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="I72" s="1">
         <v>2.76</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>635</v>
+        <v>750</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4976,31 +5310,31 @@
         <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F73" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H73" s="1">
-        <v>134.84</v>
+        <v>500</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="I73" s="1">
-        <v>5.2</v>
+        <v>4.59</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>636</v>
+        <v>751</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -5008,31 +5342,31 @@
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F74" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" s="1">
-        <v>76.84999999999999</v>
+        <v>501</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="I74" s="1">
-        <v>2.76</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>637</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -5040,31 +5374,31 @@
         <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F75" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H75" s="1">
-        <v>59.34</v>
+        <v>502</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="I75" s="1">
-        <v>2.76</v>
+        <v>5.52</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>638</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -5072,31 +5406,31 @@
         <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="F76" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H76" s="1">
-        <v>146.21</v>
+        <v>503</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="I76" s="1">
-        <v>4.59</v>
+        <v>2.1</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>639</v>
+        <v>754</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -5104,31 +5438,31 @@
         <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F77" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H77" s="1">
-        <v>217.23</v>
+        <v>504</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="I77" s="1">
-        <v>8.300000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>640</v>
+        <v>755</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -5136,31 +5470,31 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F78" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H78" s="1">
-        <v>142.66</v>
+        <v>505</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="I78" s="1">
-        <v>5.52</v>
+        <v>5.28</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>641</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -5168,31 +5502,31 @@
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F79" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H79" s="1">
-        <v>82.45999999999999</v>
+        <v>506</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="I79" s="1">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>642</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5200,31 +5534,31 @@
         <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F80" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H80" s="1">
-        <v>85.20999999999999</v>
+        <v>507</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="I80" s="1">
-        <v>1.76</v>
+        <v>3.52</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>643</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5232,31 +5566,31 @@
         <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F81" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H81" s="1">
-        <v>270.55</v>
+        <v>508</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="I81" s="1">
-        <v>5.28</v>
+        <v>3.52</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>644</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5264,31 +5598,31 @@
         <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F82" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H82" s="1">
-        <v>85.20999999999999</v>
+        <v>509</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="I82" s="1">
-        <v>1.76</v>
+        <v>3.52</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>645</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5296,31 +5630,31 @@
         <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F83" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H83" s="1">
-        <v>164.19</v>
+        <v>510</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="I83" s="1">
-        <v>3.52</v>
+        <v>1.76</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>646</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5328,31 +5662,31 @@
         <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F84" s="1">
         <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H84" s="1">
-        <v>164.05</v>
+        <v>511</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="I84" s="1">
         <v>3.52</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>647</v>
+        <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5360,31 +5694,31 @@
         <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="F85" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H85" s="1">
-        <v>163.64</v>
+        <v>512</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="I85" s="1">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>648</v>
+        <v>763</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5392,31 +5726,31 @@
         <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="F86" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H86" s="1">
-        <v>85.06999999999999</v>
+        <v>513</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="I86" s="1">
-        <v>1.76</v>
+        <v>2.76</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>649</v>
+        <v>764</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5424,31 +5758,31 @@
         <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="F87" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H87" s="1">
-        <v>157.97</v>
+        <v>514</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="I87" s="1">
-        <v>3.52</v>
+        <v>2.76</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>650</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5456,31 +5790,31 @@
         <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F88" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H88" s="1">
-        <v>91.61</v>
+        <v>515</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="I88" s="1">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5488,31 +5822,31 @@
         <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F89" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H89" s="1">
-        <v>84.72</v>
+        <v>516</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="I89" s="1">
-        <v>2.76</v>
+        <v>4.32</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5520,31 +5854,31 @@
         <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F90" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H90" s="1">
-        <v>84.51000000000001</v>
+        <v>517</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="I90" s="1">
-        <v>2.76</v>
+        <v>4.32</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>653</v>
+        <v>705</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5552,31 +5886,31 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F91" s="1">
         <v>12</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H91" s="1">
-        <v>156.47</v>
+        <v>518</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="I91" s="1">
         <v>2.88</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>585</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5584,31 +5918,31 @@
         <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F92" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H92" s="1">
-        <v>236.01</v>
+        <v>519</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="I92" s="1">
-        <v>4.32</v>
+        <v>2.88</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>590</v>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5616,31 +5950,31 @@
         <v>101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F93" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H93" s="1">
-        <v>235.7</v>
+        <v>520</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="I93" s="1">
-        <v>4.32</v>
+        <v>1.76</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>590</v>
+        <v>766</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5648,31 +5982,31 @@
         <v>102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="F94" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H94" s="1">
-        <v>125.17</v>
+        <v>521</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="I94" s="1">
-        <v>2.88</v>
+        <v>1.53</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>585</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5680,31 +6014,31 @@
         <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>405</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F95" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H95" s="1">
-        <v>164.3</v>
+        <v>522</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="I95" s="1">
-        <v>2.88</v>
+        <v>24.6</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>585</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5712,31 +6046,31 @@
         <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F96" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H96" s="1">
-        <v>122.6</v>
+        <v>523</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="I96" s="1">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>654</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -5744,31 +6078,31 @@
         <v>105</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="F97" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H97" s="1">
-        <v>54.36</v>
+        <v>524</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="I97" s="1">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>655</v>
+        <v>770</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -5776,31 +6110,31 @@
         <v>106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F98" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H98" s="1">
-        <v>512.28</v>
+        <v>525</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="I98" s="1">
-        <v>24.6</v>
+        <v>1.76</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>656</v>
+        <v>771</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -5808,31 +6142,31 @@
         <v>107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F99" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H99" s="1">
-        <v>148.09</v>
+        <v>526</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="I99" s="1">
-        <v>2.34</v>
+        <v>1.76</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>657</v>
+        <v>772</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -5840,31 +6174,31 @@
         <v>108</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="F100" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H100" s="1">
-        <v>114.84</v>
+        <v>527</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="I100" s="1">
-        <v>1.76</v>
+        <v>3.06</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>658</v>
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5872,31 +6206,31 @@
         <v>109</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="F101" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H101" s="1">
-        <v>118.01</v>
+        <v>528</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="I101" s="1">
-        <v>1.76</v>
+        <v>15.3</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>659</v>
+        <v>774</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5904,31 +6238,31 @@
         <v>110</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="F102" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H102" s="1">
-        <v>114.84</v>
+        <v>529</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="I102" s="1">
-        <v>1.76</v>
+        <v>16.4</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>660</v>
+        <v>775</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5936,31 +6270,31 @@
         <v>111</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H103" s="1">
-        <v>94.87</v>
+        <v>530</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="I103" s="1">
-        <v>3.06</v>
+        <v>3.12</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>661</v>
+        <v>776</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5968,31 +6302,31 @@
         <v>112</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F104" s="1">
         <v>1</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H104" s="1">
-        <v>244.29</v>
+        <v>531</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="I104" s="1">
-        <v>15.3</v>
+        <v>12.75</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>662</v>
+        <v>777</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -6000,31 +6334,31 @@
         <v>113</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="F105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H105" s="1">
-        <v>330.6</v>
+        <v>532</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="I105" s="1">
-        <v>16.4</v>
+        <v>3.12</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>663</v>
+        <v>778</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -6032,31 +6366,31 @@
         <v>114</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H106" s="1">
-        <v>71.02</v>
+        <v>533</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="I106" s="1">
-        <v>3.12</v>
+        <v>1.04</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>664</v>
+        <v>779</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -6064,31 +6398,31 @@
         <v>115</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H107" s="1">
-        <v>323.65</v>
+        <v>534</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="I107" s="1">
-        <v>12.75</v>
+        <v>41</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>665</v>
+        <v>780</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -6096,31 +6430,31 @@
         <v>116</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="F108" s="1">
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H108" s="1">
-        <v>56.06</v>
+        <v>535</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="I108" s="1">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>666</v>
+        <v>781</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6128,31 +6462,31 @@
         <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H109" s="1">
-        <v>23.3</v>
+        <v>536</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I109" s="1">
-        <v>1.04</v>
+        <v>0.09</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>667</v>
+        <v>782</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -6160,31 +6494,31 @@
         <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F110" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H110" s="1">
-        <v>324.48</v>
+        <v>537</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="I110" s="1">
-        <v>41</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>668</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -6192,31 +6526,31 @@
         <v>119</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F111" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H111" s="1">
-        <v>237.19</v>
+        <v>538</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="I111" s="1">
-        <v>3.15</v>
+        <v>1.6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>669</v>
+        <v>784</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6224,214 +6558,214 @@
         <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F112" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H112" s="1">
-        <v>17.63</v>
+        <v>539</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="I112" s="1">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>670</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="F113" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H113" s="1">
-        <v>110.85</v>
+        <v>540</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="I113" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>671</v>
+        <v>786</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="F114" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H114" s="1">
-        <v>146.93</v>
+        <v>541</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="I114" s="1">
-        <v>1.6</v>
+        <v>8.58</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>672</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>406</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="F115" s="1">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H115" s="1">
-        <v>71.03</v>
+        <v>541</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="I115" s="1">
-        <v>0.12</v>
+        <v>8.58</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>673</v>
+        <v>788</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="F116" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H116" s="1">
-        <v>60.24</v>
+        <v>542</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="I116" s="1">
-        <v>0.54</v>
+        <v>36.59999999999999</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>674</v>
+        <v>789</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="F117" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H117" s="1">
-        <v>679.04</v>
+        <v>543</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="I117" s="1">
-        <v>8.58</v>
+        <v>20.4</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>675</v>
+        <v>790</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="F118" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H118" s="1">
-        <v>679.04</v>
+        <v>544</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="I118" s="1">
-        <v>8.58</v>
+        <v>24.4</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>676</v>
+        <v>791</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6439,31 +6773,31 @@
         <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F119" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H119" s="1">
-        <v>458.91</v>
+        <v>545</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="I119" s="1">
-        <v>36.59999999999999</v>
+        <v>142.8</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>677</v>
+        <v>792</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6471,31 +6805,31 @@
         <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="F120" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H120" s="1">
-        <v>242.06</v>
+        <v>546</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="I120" s="1">
-        <v>20.4</v>
+        <v>16.4</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>678</v>
+        <v>793</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6503,31 +6837,31 @@
         <v>129</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H121" s="1">
-        <v>354.26</v>
+        <v>547</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="I121" s="1">
-        <v>24.4</v>
+        <v>12.3</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>679</v>
+        <v>794</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6535,31 +6869,31 @@
         <v>130</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F122" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="H122" s="1">
-        <v>1799.34</v>
+        <v>548</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="I122" s="1">
-        <v>142.8</v>
+        <v>4.59</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>680</v>
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6567,31 +6901,31 @@
         <v>131</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="F123" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="H123" s="1">
-        <v>302.86</v>
+        <v>549</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="I123" s="1">
-        <v>16.4</v>
+        <v>30.6</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>681</v>
+        <v>796</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6599,31 +6933,31 @@
         <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>409</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F124" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H124" s="1">
-        <v>236.53</v>
+        <v>550</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="I124" s="1">
-        <v>12.3</v>
+        <v>77.89999999999999</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>682</v>
+        <v>797</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6631,31 +6965,31 @@
         <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F125" s="1">
         <v>3</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H125" s="1">
-        <v>140.72</v>
+        <v>551</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="I125" s="1">
-        <v>4.59</v>
+        <v>3.09</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>683</v>
+        <v>798</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -6663,31 +6997,31 @@
         <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F126" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H126" s="1">
-        <v>558.62</v>
+        <v>552</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="I126" s="1">
-        <v>30.6</v>
+        <v>15.25</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>684</v>
+        <v>799</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6695,31 +7029,31 @@
         <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F127" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H127" s="1">
-        <v>1667.76</v>
+        <v>553</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="I127" s="1">
-        <v>77.89999999999999</v>
+        <v>144.9</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6727,31 +7061,31 @@
         <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F128" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H128" s="1">
-        <v>134.09</v>
+        <v>554</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="I128" s="1">
-        <v>3.09</v>
+        <v>4.12</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>686</v>
+        <v>801</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -6759,31 +7093,31 @@
         <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F129" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="H129" s="1">
-        <v>571.74</v>
+        <v>555</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="I129" s="1">
-        <v>15.25</v>
+        <v>9.149999999999999</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>687</v>
+        <v>802</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -6791,31 +7125,31 @@
         <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F130" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="H130" s="1">
-        <v>3878.72</v>
+        <v>556</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="I130" s="1">
-        <v>144.9</v>
+        <v>48.3</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>688</v>
+        <v>803</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -6823,127 +7157,31 @@
         <v>139</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F131" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H131" s="1">
-        <v>178.56</v>
+        <v>557</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="I131" s="1">
-        <v>4.12</v>
+        <v>0.27</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F132" s="1">
-        <v>3</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H132" s="1">
-        <v>345.52</v>
-      </c>
-      <c r="I132" s="1">
-        <v>9.149999999999999</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F133" s="1">
-        <v>6</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H133" s="1">
-        <v>1310.02</v>
-      </c>
-      <c r="I133" s="1">
-        <v>48.3</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="H134" s="1">
-        <v>19.37</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>692</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="681">
   <si>
     <t>Артикул</t>
   </si>
@@ -235,6 +235,9 @@
     <t xml:space="preserve">ТЕТКОМ Наполнитель LINDOCAT PRSTG 5л 4.3кг </t>
   </si>
   <si>
+    <t>ошибка</t>
+  </si>
+  <si>
     <t>ANMD СОБ IP ВЗР REN RIND 400G</t>
   </si>
   <si>
@@ -382,10 +385,10 @@
     <t>ТУТАГРО Слизнецид и Микс Линк</t>
   </si>
   <si>
+    <t xml:space="preserve">ТУТАГРО SLIZNECID 250мл </t>
+  </si>
+  <si>
     <t xml:space="preserve">ТУТАГРО Слизнецид 250мл </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУТАГРО SLIZNECID 250мл </t>
   </si>
   <si>
     <t xml:space="preserve">OWNAT СОБ CLASSIC COMPLET (красный) 12KG </t>
@@ -1012,6 +1015,9 @@
     <t>Бентонитовый наполнитель для кошачьего туалета комкующийся LINDOCAT PRESTIGE 5л</t>
   </si>
   <si>
+    <t>ДУБЛЬ ОТПРАВЛЕНИЯ</t>
+  </si>
+  <si>
     <t>Корм Animonda для для собак при заболевании почек Animonda Integra Protect Renal с говядиной, 6 банок по 400г / Анимонда 
 Корм Animonda для для собак при заболевании почек Animonda Integra Protect Renal с мясом говядины, 12 банок по 400г / Анимонда</t>
   </si>
@@ -1322,6 +1328,9 @@
 6</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>6 
 12</t>
   </si>
@@ -1340,9 +1349,6 @@
   <si>
     <t>1 
 2</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>10 
@@ -1586,6 +1592,12 @@
   <si>
     <t>09638573-0064-1 
 09638573-0064-1</t>
+  </si>
+  <si>
+    <t>05361635-0516-1 
+05361635-0516-1 
+05361635-0516-1 
+05361635-0516-1</t>
   </si>
   <si>
     <t>12415908-0331-1 
@@ -1827,9 +1839,7 @@
 61724421-0097-1</t>
   </si>
   <si>
-    <t>05361635-0516-1 
-05361635-0516-1 
-10098129-0279-2</t>
+    <t>10098129-0279-2</t>
   </si>
   <si>
     <t>29950965-0144-1 
@@ -1856,9 +1866,7 @@
   </si>
   <si>
     <t>07547779-0277-1 
-35351362-0060-1 
-05361635-0516-1 
-05361635-0516-1</t>
+35351362-0060-1</t>
   </si>
   <si>
     <t>08590409-0545-2 
@@ -1876,387 +1884,6 @@
     <t>50776458-0071-3</t>
   </si>
   <si>
-    <t>38,48</t>
-  </si>
-  <si>
-    <t>223,98</t>
-  </si>
-  <si>
-    <t>241,94</t>
-  </si>
-  <si>
-    <t>105,21</t>
-  </si>
-  <si>
-    <t>79,2879,28</t>
-  </si>
-  <si>
-    <t>72,99</t>
-  </si>
-  <si>
-    <t>201,72</t>
-  </si>
-  <si>
-    <t>109,19</t>
-  </si>
-  <si>
-    <t>58,5954,89</t>
-  </si>
-  <si>
-    <t>28,27</t>
-  </si>
-  <si>
-    <t>63,54</t>
-  </si>
-  <si>
-    <t>247,20246,51</t>
-  </si>
-  <si>
-    <t>464,08</t>
-  </si>
-  <si>
-    <t>138,81</t>
-  </si>
-  <si>
-    <t>130,19130,40</t>
-  </si>
-  <si>
-    <t>261,60261,60</t>
-  </si>
-  <si>
-    <t>237,44237,44237,02237,30</t>
-  </si>
-  <si>
-    <t>142,48</t>
-  </si>
-  <si>
-    <t>162,13</t>
-  </si>
-  <si>
-    <t>81,60</t>
-  </si>
-  <si>
-    <t>161,89242,84532,4382,5781,6082,6488,14</t>
-  </si>
-  <si>
-    <t>303,99</t>
-  </si>
-  <si>
-    <t>145,6684,82</t>
-  </si>
-  <si>
-    <t>79,4679,63</t>
-  </si>
-  <si>
-    <t>46,6246,6246,62</t>
-  </si>
-  <si>
-    <t>56,48</t>
-  </si>
-  <si>
-    <t>141,65</t>
-  </si>
-  <si>
-    <t>50,32</t>
-  </si>
-  <si>
-    <t>143,48143,83</t>
-  </si>
-  <si>
-    <t>128,15</t>
-  </si>
-  <si>
-    <t>46,64</t>
-  </si>
-  <si>
-    <t>116,66139,50</t>
-  </si>
-  <si>
-    <t>269,62269,62269,24276,37269,38269,38</t>
-  </si>
-  <si>
-    <t>73,16</t>
-  </si>
-  <si>
-    <t>78,45</t>
-  </si>
-  <si>
-    <t>55,13</t>
-  </si>
-  <si>
-    <t>65,7270,04178,30178,3040,3237,69</t>
-  </si>
-  <si>
-    <t>65,72123,20178,0540,87</t>
-  </si>
-  <si>
-    <t>269,55237,99269,55</t>
-  </si>
-  <si>
-    <t>59,14</t>
-  </si>
-  <si>
-    <t>245,54245,54261,01</t>
-  </si>
-  <si>
-    <t>40,87</t>
-  </si>
-  <si>
-    <t>59,66</t>
-  </si>
-  <si>
-    <t>276,34</t>
-  </si>
-  <si>
-    <t>266,68</t>
-  </si>
-  <si>
-    <t>227,89241,97</t>
-  </si>
-  <si>
-    <t>287,10</t>
-  </si>
-  <si>
-    <t>81,26</t>
-  </si>
-  <si>
-    <t>368,53</t>
-  </si>
-  <si>
-    <t>75,44</t>
-  </si>
-  <si>
-    <t>65,65</t>
-  </si>
-  <si>
-    <t>128,43128,53128,43136,84</t>
-  </si>
-  <si>
-    <t>102,89</t>
-  </si>
-  <si>
-    <t>87,76</t>
-  </si>
-  <si>
-    <t>50,53</t>
-  </si>
-  <si>
-    <t>43,47</t>
-  </si>
-  <si>
-    <t>73,12</t>
-  </si>
-  <si>
-    <t>192,35</t>
-  </si>
-  <si>
-    <t>52,1952,19</t>
-  </si>
-  <si>
-    <t>324,86305,58</t>
-  </si>
-  <si>
-    <t>286,30</t>
-  </si>
-  <si>
-    <t>93,7293,58</t>
-  </si>
-  <si>
-    <t>35,9235,92</t>
-  </si>
-  <si>
-    <t>68,4982,02150,19150,19150,19</t>
-  </si>
-  <si>
-    <t>108,08101,19</t>
-  </si>
-  <si>
-    <t>72,8868,31</t>
-  </si>
-  <si>
-    <t>110,71110,71</t>
-  </si>
-  <si>
-    <t>75,93</t>
-  </si>
-  <si>
-    <t>134,17</t>
-  </si>
-  <si>
-    <t>76,47</t>
-  </si>
-  <si>
-    <t>59,05</t>
-  </si>
-  <si>
-    <t>145,49</t>
-  </si>
-  <si>
-    <t>216,16</t>
-  </si>
-  <si>
-    <t>141,96</t>
-  </si>
-  <si>
-    <t>82,05</t>
-  </si>
-  <si>
-    <t>84,79</t>
-  </si>
-  <si>
-    <t>269,21</t>
-  </si>
-  <si>
-    <t>163,38</t>
-  </si>
-  <si>
-    <t>163,24</t>
-  </si>
-  <si>
-    <t>162,83</t>
-  </si>
-  <si>
-    <t>84,65</t>
-  </si>
-  <si>
-    <t>157,18</t>
-  </si>
-  <si>
-    <t>91,15</t>
-  </si>
-  <si>
-    <t>84,30</t>
-  </si>
-  <si>
-    <t>84,10</t>
-  </si>
-  <si>
-    <t>155,70</t>
-  </si>
-  <si>
-    <t>155,7079,15</t>
-  </si>
-  <si>
-    <t>155,3279,22</t>
-  </si>
-  <si>
-    <t>124,55</t>
-  </si>
-  <si>
-    <t>79,2284,27</t>
-  </si>
-  <si>
-    <t>121,99</t>
-  </si>
-  <si>
-    <t>54,09</t>
-  </si>
-  <si>
-    <t>163,97163,9790,9190,91</t>
-  </si>
-  <si>
-    <t>147,36</t>
-  </si>
-  <si>
-    <t>114,27</t>
-  </si>
-  <si>
-    <t>117,42</t>
-  </si>
-  <si>
-    <t>45,6548,76</t>
-  </si>
-  <si>
-    <t>243,08</t>
-  </si>
-  <si>
-    <t>80,5385,6980,5382,23</t>
-  </si>
-  <si>
-    <t>70,67</t>
-  </si>
-  <si>
-    <t>322,05</t>
-  </si>
-  <si>
-    <t>21,7334,05</t>
-  </si>
-  <si>
-    <t>23,19</t>
-  </si>
-  <si>
-    <t>161,44161,44</t>
-  </si>
-  <si>
-    <t>236,02</t>
-  </si>
-  <si>
-    <t>17,55</t>
-  </si>
-  <si>
-    <t>34,4334,4341,42</t>
-  </si>
-  <si>
-    <t>78,4167,80</t>
-  </si>
-  <si>
-    <t>17,9317,5817,5817,58</t>
-  </si>
-  <si>
-    <t>59,94</t>
-  </si>
-  <si>
-    <t>201,7974,7973,30108,60108,60108,60</t>
-  </si>
-  <si>
-    <t>163,52163,79129,33</t>
-  </si>
-  <si>
-    <t>240,86</t>
-  </si>
-  <si>
-    <t>176,25176,25</t>
-  </si>
-  <si>
-    <t>253,63269,69253,63253,43252,98253,63253,43</t>
-  </si>
-  <si>
-    <t>80,5380,36140,47</t>
-  </si>
-  <si>
-    <t>71,5081,9881,88</t>
-  </si>
-  <si>
-    <t>42,1550,5347,34</t>
-  </si>
-  <si>
-    <t>286,27269,59</t>
-  </si>
-  <si>
-    <t>88,0488,1487,9087,9088,1487,9087,9093,7588,1488,1493,9688,0488,1493,7587,9088,04233,70</t>
-  </si>
-  <si>
-    <t>40,6238,6554,16</t>
-  </si>
-  <si>
-    <t>112,30112,37112,30119,64112,30</t>
-  </si>
-  <si>
-    <t>223,94224,15224,15224,15224,15224,15223,84223,84223,84224,15405,04405,04405,04404,11</t>
-  </si>
-  <si>
-    <t>51,6346,7840,6238,65</t>
-  </si>
-  <si>
-    <t>114,79114,51114,51</t>
-  </si>
-  <si>
-    <t>228,68178,99228,93228,93438,02</t>
-  </si>
-  <si>
-    <t>19,28</t>
-  </si>
-  <si>
     <t>064992714628</t>
   </si>
   <si>
@@ -2575,14 +2202,14 @@
     <t>OZN1695644486</t>
   </si>
   <si>
+    <t>SLIZNECID-10 
+SLIZNECID-3 
+SLIZNECID-5</t>
+  </si>
+  <si>
     <t>4816193900074-10 
 4816193900074-3 
 4816193900074-5</t>
-  </si>
-  <si>
-    <t>SLIZNECID-10 
-SLIZNECID-3 
-SLIZNECID-5</t>
   </si>
   <si>
     <t>31471</t>
@@ -2995,7 +2622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3041,31 +2668,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38.48</v>
       </c>
       <c r="I2" s="1">
         <v>0.35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>685</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3073,31 +2700,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>559</v>
+        <v>432</v>
+      </c>
+      <c r="H3" s="1">
+        <v>223.98</v>
       </c>
       <c r="I3" s="1">
         <v>999999</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>686</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3105,31 +2732,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>560</v>
+        <v>433</v>
+      </c>
+      <c r="H4" s="1">
+        <v>241.94</v>
       </c>
       <c r="I4" s="1">
         <v>8.4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>687</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3137,31 +2764,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>561</v>
+        <v>434</v>
+      </c>
+      <c r="H5" s="1">
+        <v>105.21</v>
       </c>
       <c r="I5" s="1">
         <v>999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>688</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3169,31 +2796,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>562</v>
+        <v>435</v>
+      </c>
+      <c r="H6" s="1">
+        <v>158.56</v>
       </c>
       <c r="I6" s="1">
         <v>6.3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>689</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3201,31 +2828,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>563</v>
+        <v>436</v>
+      </c>
+      <c r="H7" s="1">
+        <v>72.98999999999999</v>
       </c>
       <c r="I7" s="1">
         <v>999999</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>690</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3233,31 +2860,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>564</v>
+        <v>437</v>
+      </c>
+      <c r="H8" s="1">
+        <v>201.72</v>
       </c>
       <c r="I8" s="1">
         <v>6.2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>691</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3265,31 +2892,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>565</v>
+        <v>438</v>
+      </c>
+      <c r="H9" s="1">
+        <v>109.19</v>
       </c>
       <c r="I9" s="1">
         <v>3.15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>692</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3297,31 +2924,31 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>566</v>
+        <v>439</v>
+      </c>
+      <c r="H10" s="1">
+        <v>113.48</v>
       </c>
       <c r="I10" s="1">
         <v>1999998</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>693</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3329,31 +2956,31 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>567</v>
+        <v>440</v>
+      </c>
+      <c r="H11" s="1">
+        <v>28.27</v>
       </c>
       <c r="I11" s="1">
         <v>0.84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>694</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3361,31 +2988,31 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>568</v>
+        <v>441</v>
+      </c>
+      <c r="H12" s="1">
+        <v>63.54</v>
       </c>
       <c r="I12" s="1">
         <v>999999</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>695</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3393,31 +3020,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>569</v>
+        <v>442</v>
+      </c>
+      <c r="H13" s="1">
+        <v>493.71</v>
       </c>
       <c r="I13" s="1">
         <v>25.2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>696</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3425,31 +3052,31 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>570</v>
+        <v>443</v>
+      </c>
+      <c r="H14" s="1">
+        <v>464.08</v>
       </c>
       <c r="I14" s="1">
         <v>12.1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>697</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3457,31 +3084,31 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>571</v>
+        <v>444</v>
+      </c>
+      <c r="H15" s="1">
+        <v>138.81</v>
       </c>
       <c r="I15" s="1">
         <v>5.2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>698</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3489,31 +3116,31 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>572</v>
+        <v>445</v>
+      </c>
+      <c r="H16" s="1">
+        <v>260.59</v>
       </c>
       <c r="I16" s="1">
         <v>10.4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>699</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3521,31 +3148,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
+      </c>
+      <c r="H17" s="1">
+        <v>523.2</v>
       </c>
       <c r="I17" s="1">
         <v>25.5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3553,31 +3180,31 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>574</v>
+        <v>447</v>
+      </c>
+      <c r="H18" s="1">
+        <v>949.2</v>
       </c>
       <c r="I18" s="1">
         <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>701</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3585,31 +3212,31 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>575</v>
+        <v>448</v>
+      </c>
+      <c r="H19" s="1">
+        <v>142.48</v>
       </c>
       <c r="I19" s="1">
         <v>2.25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>702</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3617,31 +3244,31 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>576</v>
+        <v>449</v>
+      </c>
+      <c r="H20" s="1">
+        <v>162.13</v>
       </c>
       <c r="I20" s="1">
         <v>5.52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3649,31 +3276,31 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>577</v>
+        <v>450</v>
+      </c>
+      <c r="H21" s="1">
+        <v>81.59999999999999</v>
       </c>
       <c r="I21" s="1">
         <v>2.76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3681,31 +3308,31 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22" s="1">
         <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>578</v>
+        <v>451</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1272.11</v>
       </c>
       <c r="I22" s="1">
         <v>38.64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>703</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3713,31 +3340,31 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F23" s="1">
         <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>579</v>
+        <v>452</v>
+      </c>
+      <c r="H23" s="1">
+        <v>303.99</v>
       </c>
       <c r="I23" s="1">
         <v>8.279999999999999</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>704</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3745,31 +3372,31 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F24" s="1">
         <v>18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>580</v>
+        <v>453</v>
+      </c>
+      <c r="H24" s="1">
+        <v>230.48</v>
       </c>
       <c r="I24" s="1">
         <v>8.279999999999999</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>705</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3777,31 +3404,31 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F25" s="1">
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>581</v>
+        <v>454</v>
+      </c>
+      <c r="H25" s="1">
+        <v>159.09</v>
       </c>
       <c r="I25" s="1">
         <v>5.52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>706</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3809,31 +3436,31 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>582</v>
+        <v>455</v>
+      </c>
+      <c r="H26" s="1">
+        <v>139.86</v>
       </c>
       <c r="I26" s="1">
         <v>3.15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>707</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3841,31 +3468,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>583</v>
+        <v>456</v>
+      </c>
+      <c r="H27" s="1">
+        <v>56.48</v>
       </c>
       <c r="I27" s="1">
         <v>1.05</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>708</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3873,31 +3500,31 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F28" s="1">
         <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>584</v>
+        <v>457</v>
+      </c>
+      <c r="H28" s="1">
+        <v>141.65</v>
       </c>
       <c r="I28" s="1">
         <v>10.32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>709</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3905,31 +3532,31 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>585</v>
+        <v>458</v>
+      </c>
+      <c r="H29" s="1">
+        <v>50.32</v>
       </c>
       <c r="I29" s="1">
         <v>2.1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>710</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3937,31 +3564,31 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F30" s="1">
         <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
+      </c>
+      <c r="H30" s="1">
+        <v>287.31</v>
       </c>
       <c r="I30" s="1">
         <v>20.64</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>711</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3969,31 +3596,31 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F31" s="1">
         <v>24</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>587</v>
+        <v>460</v>
+      </c>
+      <c r="H31" s="1">
+        <v>128.15</v>
       </c>
       <c r="I31" s="1">
         <v>10.32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>712</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4001,31 +3628,31 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>588</v>
+        <v>461</v>
+      </c>
+      <c r="H32" s="1">
+        <v>46.64</v>
       </c>
       <c r="I32" s="1">
         <v>2.1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>713</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4033,31 +3660,31 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>589</v>
+        <v>462</v>
+      </c>
+      <c r="H33" s="1">
+        <v>256.16</v>
       </c>
       <c r="I33" s="1">
         <v>14.3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>714</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4065,31 +3692,31 @@
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>590</v>
+        <v>463</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1623.61</v>
       </c>
       <c r="I34" s="1">
         <v>121.8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>715</v>
+        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4097,31 +3724,31 @@
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F35" s="1">
         <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>591</v>
+        <v>464</v>
+      </c>
+      <c r="H35" s="1">
+        <v>73.16</v>
       </c>
       <c r="I35" s="1">
         <v>2.64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>716</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4129,31 +3756,31 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F36" s="1">
         <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>592</v>
+        <v>465</v>
+      </c>
+      <c r="H36" s="1">
+        <v>78.45</v>
       </c>
       <c r="I36" s="1">
         <v>2.64</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>717</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4161,31 +3788,31 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F37" s="1">
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
+      </c>
+      <c r="H37" s="1">
+        <v>55.13</v>
       </c>
       <c r="I37" s="1">
         <v>2.1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>718</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4193,31 +3820,31 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F38" s="1">
         <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>594</v>
+        <v>467</v>
+      </c>
+      <c r="H38" s="1">
+        <v>570.37</v>
       </c>
       <c r="I38" s="1">
         <v>46.44</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>719</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4225,31 +3852,31 @@
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F39" s="1">
         <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>595</v>
+        <v>468</v>
+      </c>
+      <c r="H39" s="1">
+        <v>407.84</v>
       </c>
       <c r="I39" s="1">
         <v>33.54</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>720</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4257,31 +3884,31 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>596</v>
+        <v>469</v>
+      </c>
+      <c r="H40" s="1">
+        <v>777.09</v>
       </c>
       <c r="I40" s="1">
         <v>60.90000000000001</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>721</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4289,31 +3916,31 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>597</v>
+        <v>470</v>
+      </c>
+      <c r="H41" s="1">
+        <v>59.14</v>
       </c>
       <c r="I41" s="1">
         <v>3.1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>722</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4321,31 +3948,31 @@
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>598</v>
+        <v>471</v>
+      </c>
+      <c r="H42" s="1">
+        <v>752.0899999999999</v>
       </c>
       <c r="I42" s="1">
         <v>60.90000000000001</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>723</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4353,31 +3980,31 @@
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F43" s="1">
         <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>599</v>
+        <v>472</v>
+      </c>
+      <c r="H43" s="1">
+        <v>40.87</v>
       </c>
       <c r="I43" s="1">
         <v>2.58</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>724</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4385,31 +4012,31 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>600</v>
+        <v>473</v>
+      </c>
+      <c r="H44" s="1">
+        <v>59.66</v>
       </c>
       <c r="I44" s="1">
         <v>3.1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>725</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4417,31 +4044,31 @@
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>601</v>
+        <v>474</v>
+      </c>
+      <c r="H45" s="1">
+        <v>276.34</v>
       </c>
       <c r="I45" s="1">
         <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>726</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4449,31 +4076,31 @@
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>602</v>
+        <v>475</v>
+      </c>
+      <c r="H46" s="1">
+        <v>266.68</v>
       </c>
       <c r="I46" s="1">
         <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>727</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4481,31 +4108,31 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>603</v>
+        <v>476</v>
+      </c>
+      <c r="H47" s="1">
+        <v>469.86</v>
       </c>
       <c r="I47" s="1">
         <v>15.5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4513,31 +4140,31 @@
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>604</v>
+        <v>477</v>
+      </c>
+      <c r="H48" s="1">
+        <v>287.1</v>
       </c>
       <c r="I48" s="1">
         <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4545,31 +4172,31 @@
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
+      </c>
+      <c r="H49" s="1">
+        <v>81.26000000000001</v>
       </c>
       <c r="I49" s="1">
         <v>1.55</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>728</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4577,31 +4204,31 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
+      </c>
+      <c r="H50" s="1">
+        <v>368.53</v>
       </c>
       <c r="I50" s="1">
         <v>10.2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>729</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4609,31 +4236,31 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>607</v>
+        <v>480</v>
+      </c>
+      <c r="H51" s="1">
+        <v>75.44</v>
       </c>
       <c r="I51" s="1">
         <v>2.03</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>730</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4641,31 +4268,31 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>608</v>
+        <v>481</v>
+      </c>
+      <c r="H52" s="1">
+        <v>65.65000000000001</v>
       </c>
       <c r="I52" s="1">
         <v>2.03</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>731</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4673,31 +4300,31 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F53" s="1">
         <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>609</v>
+        <v>482</v>
+      </c>
+      <c r="H53" s="1">
+        <v>522.23</v>
       </c>
       <c r="I53" s="1">
         <v>3999996</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>732</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4705,31 +4332,31 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>610</v>
+        <v>483</v>
+      </c>
+      <c r="H54" s="1">
+        <v>102.89</v>
       </c>
       <c r="I54" s="1">
         <v>3.15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>733</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4737,31 +4364,31 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>611</v>
+        <v>484</v>
+      </c>
+      <c r="H55" s="1">
+        <v>87.76000000000001</v>
       </c>
       <c r="I55" s="1">
         <v>999999</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>734</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4769,31 +4396,31 @@
         <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>612</v>
+        <v>485</v>
+      </c>
+      <c r="H56" s="1">
+        <v>50.53</v>
       </c>
       <c r="I56" s="1">
         <v>0.63</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>735</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4801,31 +4428,31 @@
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>613</v>
+        <v>486</v>
+      </c>
+      <c r="H57" s="1">
+        <v>43.47</v>
       </c>
       <c r="I57" s="1">
         <v>0.63</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>736</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4833,31 +4460,31 @@
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>614</v>
+        <v>487</v>
+      </c>
+      <c r="H58" s="1">
+        <v>73.12</v>
       </c>
       <c r="I58" s="1">
         <v>2.1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>737</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4865,31 +4492,31 @@
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>615</v>
+        <v>488</v>
+      </c>
+      <c r="H59" s="1">
+        <v>192.35</v>
       </c>
       <c r="I59" s="1">
         <v>7.35</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>738</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4897,31 +4524,31 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>616</v>
+        <v>489</v>
+      </c>
+      <c r="H60" s="1">
+        <v>104.38</v>
       </c>
       <c r="I60" s="1">
         <v>1.68</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>739</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4929,31 +4556,31 @@
         <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>617</v>
+        <v>490</v>
+      </c>
+      <c r="H61" s="1">
+        <v>630.4400000000001</v>
       </c>
       <c r="I61" s="1">
         <v>25.2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>740</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4961,28 +4588,28 @@
         <v>70</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>618</v>
+        <v>491</v>
+      </c>
+      <c r="H62" s="1">
+        <v>286.3</v>
       </c>
       <c r="I62" s="1">
         <v>14.25</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4990,31 +4617,31 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>619</v>
+        <v>492</v>
+      </c>
+      <c r="H63" s="1">
+        <v>187.3</v>
       </c>
       <c r="I63" s="1">
         <v>1999998</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>741</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5022,63 +4649,60 @@
         <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F64" s="1">
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>620</v>
+        <v>493</v>
+      </c>
+      <c r="H64" s="1">
+        <v>71.84</v>
       </c>
       <c r="I64" s="1">
         <v>8</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>742</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F65" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>621</v>
+        <v>494</v>
+      </c>
+      <c r="H65" s="1">
+        <v>158.54</v>
       </c>
       <c r="I65" s="1">
-        <v>20.22</v>
+        <v>4.12</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>743</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5089,28 +4713,28 @@
         <v>203</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F66" s="1">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>622</v>
+        <v>495</v>
+      </c>
+      <c r="H66" s="1">
+        <v>601.0799999999999</v>
       </c>
       <c r="I66" s="1">
-        <v>3.96</v>
+        <v>20.22</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>744</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5121,28 +4745,28 @@
         <v>204</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F67" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>623</v>
+        <v>496</v>
+      </c>
+      <c r="H67" s="1">
+        <v>209.27</v>
       </c>
       <c r="I67" s="1">
-        <v>3.52</v>
+        <v>3.96</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>745</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5153,28 +4777,28 @@
         <v>205</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="F68" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>624</v>
+        <v>497</v>
+      </c>
+      <c r="H68" s="1">
+        <v>141.19</v>
       </c>
       <c r="I68" s="1">
-        <v>4.2</v>
+        <v>3.52</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>746</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5185,28 +4809,28 @@
         <v>206</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F69" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>625</v>
+        <v>498</v>
+      </c>
+      <c r="H69" s="1">
+        <v>221.42</v>
       </c>
       <c r="I69" s="1">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>747</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5217,28 +4841,28 @@
         <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F70" s="1">
         <v>6</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>626</v>
+        <v>499</v>
+      </c>
+      <c r="H70" s="1">
+        <v>75.93000000000001</v>
       </c>
       <c r="I70" s="1">
-        <v>5.2</v>
+        <v>2.76</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>748</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5249,28 +4873,28 @@
         <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F71" s="1">
         <v>6</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>627</v>
+        <v>500</v>
+      </c>
+      <c r="H71" s="1">
+        <v>134.17</v>
       </c>
       <c r="I71" s="1">
-        <v>2.76</v>
+        <v>5.2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>749</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5281,28 +4905,28 @@
         <v>209</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F72" s="1">
         <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>628</v>
+        <v>501</v>
+      </c>
+      <c r="H72" s="1">
+        <v>76.47</v>
       </c>
       <c r="I72" s="1">
         <v>2.76</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>750</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -5313,28 +4937,28 @@
         <v>210</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F73" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>629</v>
+        <v>502</v>
+      </c>
+      <c r="H73" s="1">
+        <v>59.05</v>
       </c>
       <c r="I73" s="1">
-        <v>4.59</v>
+        <v>2.76</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>751</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -5345,28 +4969,28 @@
         <v>211</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F74" s="1">
         <v>18</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>630</v>
+        <v>503</v>
+      </c>
+      <c r="H74" s="1">
+        <v>145.49</v>
       </c>
       <c r="I74" s="1">
-        <v>8.300000000000001</v>
+        <v>4.59</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>752</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -5377,28 +5001,28 @@
         <v>212</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F75" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>631</v>
+        <v>504</v>
+      </c>
+      <c r="H75" s="1">
+        <v>216.16</v>
       </c>
       <c r="I75" s="1">
-        <v>5.52</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>753</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -5409,28 +5033,28 @@
         <v>213</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="F76" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>632</v>
+        <v>505</v>
+      </c>
+      <c r="H76" s="1">
+        <v>141.96</v>
       </c>
       <c r="I76" s="1">
-        <v>2.1</v>
+        <v>5.52</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>754</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -5441,28 +5065,28 @@
         <v>214</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="F77" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>633</v>
+        <v>506</v>
+      </c>
+      <c r="H77" s="1">
+        <v>82.05</v>
       </c>
       <c r="I77" s="1">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>755</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -5473,28 +5097,28 @@
         <v>215</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F78" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>634</v>
+        <v>507</v>
+      </c>
+      <c r="H78" s="1">
+        <v>84.79000000000001</v>
       </c>
       <c r="I78" s="1">
-        <v>5.28</v>
+        <v>1.76</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>756</v>
+        <v>631</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -5505,28 +5129,28 @@
         <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F79" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>633</v>
+        <v>508</v>
+      </c>
+      <c r="H79" s="1">
+        <v>269.21</v>
       </c>
       <c r="I79" s="1">
-        <v>1.76</v>
+        <v>5.28</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>757</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5537,28 +5161,28 @@
         <v>217</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F80" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>635</v>
+        <v>509</v>
+      </c>
+      <c r="H80" s="1">
+        <v>84.79000000000001</v>
       </c>
       <c r="I80" s="1">
-        <v>3.52</v>
+        <v>1.76</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>758</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5569,28 +5193,28 @@
         <v>218</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F81" s="1">
         <v>32</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>636</v>
+        <v>510</v>
+      </c>
+      <c r="H81" s="1">
+        <v>163.38</v>
       </c>
       <c r="I81" s="1">
         <v>3.52</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>759</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5601,28 +5225,28 @@
         <v>219</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F82" s="1">
         <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>637</v>
+        <v>511</v>
+      </c>
+      <c r="H82" s="1">
+        <v>163.24</v>
       </c>
       <c r="I82" s="1">
         <v>3.52</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>760</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5633,28 +5257,28 @@
         <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F83" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>638</v>
+        <v>512</v>
+      </c>
+      <c r="H83" s="1">
+        <v>162.83</v>
       </c>
       <c r="I83" s="1">
-        <v>1.76</v>
+        <v>3.52</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>761</v>
+        <v>636</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5665,28 +5289,28 @@
         <v>221</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F84" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>639</v>
+        <v>513</v>
+      </c>
+      <c r="H84" s="1">
+        <v>84.65000000000001</v>
       </c>
       <c r="I84" s="1">
-        <v>3.52</v>
+        <v>1.76</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>762</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5697,28 +5321,28 @@
         <v>222</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F85" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>640</v>
+        <v>514</v>
+      </c>
+      <c r="H85" s="1">
+        <v>157.18</v>
       </c>
       <c r="I85" s="1">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>763</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5729,28 +5353,28 @@
         <v>223</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F86" s="1">
         <v>6</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>641</v>
+        <v>515</v>
+      </c>
+      <c r="H86" s="1">
+        <v>91.15000000000001</v>
       </c>
       <c r="I86" s="1">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>764</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5761,28 +5385,28 @@
         <v>224</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F87" s="1">
         <v>6</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>642</v>
+        <v>516</v>
+      </c>
+      <c r="H87" s="1">
+        <v>84.3</v>
       </c>
       <c r="I87" s="1">
         <v>2.76</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>765</v>
+        <v>640</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5793,28 +5417,28 @@
         <v>225</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F88" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>643</v>
+        <v>517</v>
+      </c>
+      <c r="H88" s="1">
+        <v>84.09999999999999</v>
       </c>
       <c r="I88" s="1">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>700</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5825,28 +5449,28 @@
         <v>226</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F89" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>644</v>
+        <v>518</v>
+      </c>
+      <c r="H89" s="1">
+        <v>155.7</v>
       </c>
       <c r="I89" s="1">
-        <v>4.32</v>
+        <v>2.88</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>705</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5857,28 +5481,28 @@
         <v>227</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F90" s="1">
         <v>18</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>645</v>
+        <v>519</v>
+      </c>
+      <c r="H90" s="1">
+        <v>234.85</v>
       </c>
       <c r="I90" s="1">
         <v>4.32</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>705</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5889,28 +5513,28 @@
         <v>228</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F91" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>646</v>
+        <v>520</v>
+      </c>
+      <c r="H91" s="1">
+        <v>234.54</v>
       </c>
       <c r="I91" s="1">
-        <v>2.88</v>
+        <v>4.32</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>700</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5921,28 +5545,28 @@
         <v>229</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F92" s="1">
         <v>12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>647</v>
+        <v>521</v>
+      </c>
+      <c r="H92" s="1">
+        <v>124.55</v>
       </c>
       <c r="I92" s="1">
         <v>2.88</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>700</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5953,28 +5577,28 @@
         <v>230</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F93" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>648</v>
+        <v>522</v>
+      </c>
+      <c r="H93" s="1">
+        <v>163.49</v>
       </c>
       <c r="I93" s="1">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>766</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5985,28 +5609,28 @@
         <v>231</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F94" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>649</v>
+        <v>523</v>
+      </c>
+      <c r="H94" s="1">
+        <v>121.99</v>
       </c>
       <c r="I94" s="1">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>767</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6017,28 +5641,28 @@
         <v>232</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F95" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>650</v>
+        <v>524</v>
+      </c>
+      <c r="H95" s="1">
+        <v>54.09</v>
       </c>
       <c r="I95" s="1">
-        <v>24.6</v>
+        <v>1.53</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>768</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6049,28 +5673,28 @@
         <v>233</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F96" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>651</v>
+        <v>525</v>
+      </c>
+      <c r="H96" s="1">
+        <v>509.76</v>
       </c>
       <c r="I96" s="1">
-        <v>2.34</v>
+        <v>24.6</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>769</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6081,28 +5705,28 @@
         <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F97" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>652</v>
+        <v>526</v>
+      </c>
+      <c r="H97" s="1">
+        <v>147.36</v>
       </c>
       <c r="I97" s="1">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>770</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6113,28 +5737,28 @@
         <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F98" s="1">
         <v>16</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>653</v>
+        <v>527</v>
+      </c>
+      <c r="H98" s="1">
+        <v>114.27</v>
       </c>
       <c r="I98" s="1">
         <v>1.76</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>771</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6145,28 +5769,28 @@
         <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F99" s="1">
         <v>16</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>652</v>
+        <v>528</v>
+      </c>
+      <c r="H99" s="1">
+        <v>117.42</v>
       </c>
       <c r="I99" s="1">
         <v>1.76</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>772</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6177,28 +5801,28 @@
         <v>237</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F100" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>654</v>
+        <v>529</v>
+      </c>
+      <c r="H100" s="1">
+        <v>114.27</v>
       </c>
       <c r="I100" s="1">
-        <v>3.06</v>
+        <v>1.76</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>773</v>
+        <v>648</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6209,28 +5833,28 @@
         <v>238</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>655</v>
+        <v>530</v>
+      </c>
+      <c r="H101" s="1">
+        <v>94.41</v>
       </c>
       <c r="I101" s="1">
-        <v>15.3</v>
+        <v>3.06</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>774</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6241,28 +5865,28 @@
         <v>239</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F102" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>656</v>
+        <v>531</v>
+      </c>
+      <c r="H102" s="1">
+        <v>243.08</v>
       </c>
       <c r="I102" s="1">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>775</v>
+        <v>650</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -6273,28 +5897,28 @@
         <v>240</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F103" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>657</v>
+        <v>532</v>
+      </c>
+      <c r="H103" s="1">
+        <v>328.98</v>
       </c>
       <c r="I103" s="1">
-        <v>3.12</v>
+        <v>16.4</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>776</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -6305,28 +5929,28 @@
         <v>241</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F104" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>658</v>
+        <v>533</v>
+      </c>
+      <c r="H104" s="1">
+        <v>70.67</v>
       </c>
       <c r="I104" s="1">
-        <v>12.75</v>
+        <v>3.12</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>777</v>
+        <v>652</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -6337,28 +5961,28 @@
         <v>242</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F105" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>659</v>
+        <v>534</v>
+      </c>
+      <c r="H105" s="1">
+        <v>322.05</v>
       </c>
       <c r="I105" s="1">
-        <v>3.12</v>
+        <v>12.75</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>778</v>
+        <v>653</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -6369,28 +5993,28 @@
         <v>243</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="F106" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>660</v>
+        <v>535</v>
+      </c>
+      <c r="H106" s="1">
+        <v>55.78</v>
       </c>
       <c r="I106" s="1">
-        <v>1.04</v>
+        <v>3.12</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>779</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -6401,28 +6025,28 @@
         <v>244</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>661</v>
+        <v>536</v>
+      </c>
+      <c r="H107" s="1">
+        <v>23.19</v>
       </c>
       <c r="I107" s="1">
-        <v>41</v>
+        <v>1.04</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>780</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -6433,28 +6057,28 @@
         <v>245</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>662</v>
+        <v>537</v>
+      </c>
+      <c r="H108" s="1">
+        <v>322.88</v>
       </c>
       <c r="I108" s="1">
-        <v>3.15</v>
+        <v>41</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>781</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6465,28 +6089,28 @@
         <v>246</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F109" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>663</v>
+        <v>538</v>
+      </c>
+      <c r="H109" s="1">
+        <v>236.02</v>
       </c>
       <c r="I109" s="1">
-        <v>0.09</v>
+        <v>3.15</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>782</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -6497,28 +6121,28 @@
         <v>247</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F110" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>664</v>
+        <v>539</v>
+      </c>
+      <c r="H110" s="1">
+        <v>17.55</v>
       </c>
       <c r="I110" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>783</v>
+        <v>658</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -6529,28 +6153,28 @@
         <v>248</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F111" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>665</v>
+        <v>540</v>
+      </c>
+      <c r="H111" s="1">
+        <v>110.28</v>
       </c>
       <c r="I111" s="1">
-        <v>1.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>784</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6561,57 +6185,60 @@
         <v>249</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F112" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>666</v>
+        <v>541</v>
+      </c>
+      <c r="H112" s="1">
+        <v>146.21</v>
       </c>
       <c r="I112" s="1">
-        <v>0.12</v>
+        <v>1.6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>785</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="F113" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>667</v>
+        <v>542</v>
+      </c>
+      <c r="H113" s="1">
+        <v>70.66999999999999</v>
       </c>
       <c r="I113" s="1">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>786</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -6619,28 +6246,28 @@
         <v>122</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F114" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>668</v>
+        <v>543</v>
+      </c>
+      <c r="H114" s="1">
+        <v>59.94</v>
       </c>
       <c r="I114" s="1">
-        <v>8.58</v>
+        <v>0.54</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>787</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -6648,60 +6275,57 @@
         <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F115" s="1">
         <v>31</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>668</v>
+        <v>544</v>
+      </c>
+      <c r="H115" s="1">
+        <v>675.6799999999999</v>
       </c>
       <c r="I115" s="1">
         <v>8.58</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>788</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="F116" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>669</v>
+        <v>544</v>
+      </c>
+      <c r="H116" s="1">
+        <v>675.6799999999999</v>
       </c>
       <c r="I116" s="1">
-        <v>36.59999999999999</v>
+        <v>8.58</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>789</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -6712,28 +6336,28 @@
         <v>251</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F117" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>670</v>
+        <v>545</v>
+      </c>
+      <c r="H117" s="1">
+        <v>456.64</v>
       </c>
       <c r="I117" s="1">
-        <v>20.4</v>
+        <v>36.59999999999999</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>790</v>
+        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -6744,28 +6368,28 @@
         <v>252</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F118" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>671</v>
+        <v>546</v>
+      </c>
+      <c r="H118" s="1">
+        <v>240.86</v>
       </c>
       <c r="I118" s="1">
-        <v>24.4</v>
+        <v>20.4</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>791</v>
+        <v>666</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6776,28 +6400,28 @@
         <v>253</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F119" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>672</v>
+        <v>547</v>
+      </c>
+      <c r="H119" s="1">
+        <v>352.5</v>
       </c>
       <c r="I119" s="1">
-        <v>142.8</v>
+        <v>24.4</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>792</v>
+        <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6808,28 +6432,28 @@
         <v>254</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F120" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>673</v>
+        <v>548</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1790.42</v>
       </c>
       <c r="I120" s="1">
-        <v>16.4</v>
+        <v>142.8</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>793</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6840,28 +6464,28 @@
         <v>255</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="F121" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>674</v>
+        <v>549</v>
+      </c>
+      <c r="H121" s="1">
+        <v>301.36</v>
       </c>
       <c r="I121" s="1">
-        <v>12.3</v>
+        <v>16.4</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>794</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6872,28 +6496,28 @@
         <v>256</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F122" s="1">
         <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>675</v>
+        <v>550</v>
+      </c>
+      <c r="H122" s="1">
+        <v>235.36</v>
       </c>
       <c r="I122" s="1">
-        <v>4.59</v>
+        <v>12.3</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>795</v>
+        <v>670</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6904,28 +6528,28 @@
         <v>257</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F123" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>676</v>
+        <v>551</v>
+      </c>
+      <c r="H123" s="1">
+        <v>140.02</v>
       </c>
       <c r="I123" s="1">
-        <v>30.6</v>
+        <v>4.59</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>796</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6936,28 +6560,28 @@
         <v>258</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="F124" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>677</v>
+        <v>552</v>
+      </c>
+      <c r="H124" s="1">
+        <v>555.8599999999999</v>
       </c>
       <c r="I124" s="1">
-        <v>77.89999999999999</v>
+        <v>30.6</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>797</v>
+        <v>672</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6968,28 +6592,28 @@
         <v>259</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="F125" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>678</v>
+        <v>553</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1659.48</v>
       </c>
       <c r="I125" s="1">
-        <v>3.09</v>
+        <v>77.89999999999999</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>798</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7000,28 +6624,28 @@
         <v>260</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F126" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>679</v>
+        <v>554</v>
+      </c>
+      <c r="H126" s="1">
+        <v>54.16</v>
       </c>
       <c r="I126" s="1">
-        <v>15.25</v>
+        <v>1.03</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>799</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7032,28 +6656,28 @@
         <v>261</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F127" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>680</v>
+        <v>555</v>
+      </c>
+      <c r="H127" s="1">
+        <v>568.91</v>
       </c>
       <c r="I127" s="1">
-        <v>144.9</v>
+        <v>15.25</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>800</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7064,28 +6688,28 @@
         <v>262</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="F128" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>681</v>
+        <v>556</v>
+      </c>
+      <c r="H128" s="1">
+        <v>3859.59</v>
       </c>
       <c r="I128" s="1">
-        <v>4.12</v>
+        <v>144.9</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>801</v>
+        <v>676</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7096,28 +6720,28 @@
         <v>263</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F129" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>682</v>
+        <v>557</v>
+      </c>
+      <c r="H129" s="1">
+        <v>98.41</v>
       </c>
       <c r="I129" s="1">
-        <v>9.149999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>802</v>
+        <v>677</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7128,28 +6752,28 @@
         <v>264</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F130" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>683</v>
+        <v>558</v>
+      </c>
+      <c r="H130" s="1">
+        <v>343.81</v>
       </c>
       <c r="I130" s="1">
-        <v>48.3</v>
+        <v>9.149999999999999</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>803</v>
+        <v>678</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7160,28 +6784,60 @@
         <v>265</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="F131" s="1">
+        <v>6</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1303.55</v>
+      </c>
+      <c r="I131" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F132" s="1">
         <v>1</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I131" s="1">
+      <c r="G132" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H132" s="1">
+        <v>19.28</v>
+      </c>
+      <c r="I132" s="1">
         <v>0.27</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>804</v>
+      <c r="J132" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
